--- a/data/cat_345_clean_con_lema_test.xlsx
+++ b/data/cat_345_clean_con_lema_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C597"/>
+  <dimension ref="A1:C598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8292,1094 +8292,1109 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>1104</v>
+        <v>2003</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Al proporcionar información extensa y comparable internacionalmente sobre las habilidades de los estudiantes y sus antecedentes familiares y comunitarios, PISA ofrece una medida única para evaluar el progreso hacia los ODS y analizar la inclusión y la equidad en la educación 1 desde una perspectiva internacional. En este sentido, los sistemas educativos en los que una gran proporción de jóvenes de 15 años no ha adquirido las competencias básicas necesarias para participar plenamente en la sociedad no se consideran suficientemente inclusivos. En primer lugar, el acceso a la educación puede verse como una condición previa para que los niños se beneficien de la educación. El acceso se refleja principalmente en las tasas de matriculación escolar, los sistemas más equitativos e inclusivos logran minimizar la proporción de jóvenes en edad escolar que no están matriculados o tienen un retraso significativo en su progreso en la escuela. El uso de las innovaciones desarrolladas por los trabajadores más calificados requiere una fuerza laboral que haya adquirido al menos habilidades básicas.</t>
+          <t>Ponencia presentada en el Taller FAO-FIDA-OIT sobre "Lagunas, tendencias e investigación actual en las dimensiones de género del empleo agrícola y rural: Differentiated Pathways out of Poverty'Roma, 31 de marzo - 2 de abril de 2009. D. Sahn (1997), "Gender and Education Impacts on Employment and Earnings inWest Africa: Evidence from Guinea", Economic Development and Cultural Change, pp. Evidence from Cote-d'Ivoire", Oxford Bulletin of Economics and Statistics, pp.</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>proporcion inform extens compar internacional habil estudi antecedent familiar comunitari pis ofrec med unic evalu progres haci ods analiz inclusion equid educ perspect internacional sistem educ gran proporcion joven quinc anos adquir competent basic necesari particip plen socied consider suficient inclus prim lug acces educ pued vers condicion previ nin benefici educ acces reflej principal tas matricul escol sistem mas equit inclus logr minimiz proporcion joven edad escol estan matricul retras signific progres escuel uso innov desarroll trabaj mas calific requier fuerz laboral adquir men habil basic proporcionar informacion extensa comparable internacionalmente habilidades estudiantes antecedentes familiares comunitarios pisa ofrecer medida unica evaluar progreso hacia ods analizar inclusion equidad educacion perspectiva internacional sistemas educativos gran proporcion jovenes quince anos adquirido competencias basicas necesarias participar plenamente sociedad considerar suficientemente inclusivos primer lugar acceso educacion puede ver él condicion previa ninos beneficien educacion acceso reflejar principalmente tasas matriculacion escolar sistemas mas equitativos inclusivos lograr minimizar proporcion jovenes edad escolar estar matriculados retraso significativo progreso escuela uso innovaciones desarrolladas trabajadores mas calificados requerir fuerza laboral adquirido menos habilidades basicas</t>
+          <t>ponenci present tall faofidaoit lagun tendenci investig actual dimension gener emple agricol rural differentiat pathways out of povertyrom treint y uno marz dos abril dos mil nuev d sahn mil novecient novent y siet gend and education impacts on employment and earnings inwest afric evidenc from guine economic development and cultural chang pp evidenc from cotedivoir oxford bulletin of economics and statistics pp ponencia presentada taller faofidaoit lagunas tendencias investigacion actual dimensiones genero empleo agricola rural differentiated pathways out of povertyroma treinta y uno marzo dos abril dos mil nueve d sahn mil novecientos noventa y siete gender and education impacts on employment and earnings inwest africa evidence from guinea economic development and cultural change pp evidence from cotedivoire oxford bulletin of economics and statistics pp</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2580</v>
+        <v>1104</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Las mujeres jóvenes en situaciones de conflicto sufren tasas más elevadas de violencia de género. Estos índices suelen ser aún mayores si las mujeres pertenecen además a un grupo minoritario o marginado. NingÃºn estrato de la sociedad es inmune a la violencia de gÃ©nero, sin embargo, la capacidad de buscar reparaciÃ³n judicial o tratamiento mÃ©dico o la oportunidad de buscar servicios para escapar de la violencia de gÃ©nero dependen en gran medida de la posiciÃ³n social de la mujer y de su acceso a los recursos econÃ³micos (recuadro 4.2).</t>
+          <t>Al proporcionar información extensa y comparable internacionalmente sobre las habilidades de los estudiantes y sus antecedentes familiares y comunitarios, PISA ofrece una medida única para evaluar el progreso hacia los ODS y analizar la inclusión y la equidad en la educación 1 desde una perspectiva internacional. En este sentido, los sistemas educativos en los que una gran proporción de jóvenes de 15 años no ha adquirido las competencias básicas necesarias para participar plenamente en la sociedad no se consideran suficientemente inclusivos. En primer lugar, el acceso a la educación puede verse como una condición previa para que los niños se beneficien de la educación. El acceso se refleja principalmente en las tasas de matriculación escolar, los sistemas más equitativos e inclusivos logran minimizar la proporción de jóvenes en edad escolar que no están matriculados o tienen un retraso significativo en su progreso en la escuela. El uso de las innovaciones desarrolladas por los trabajadores más calificados requiere una fuerza laboral que haya adquirido al menos habilidades básicas.</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>mujer joven situacion conflict sufr tas mas elev violenci gener indic suel ser aun mayor si mujer pertenec adem grup minoritari margin ningaon estrat socied inmun violenci ganer embarg capac busc reparacia3n judicial tratamient madic oportun busc servici escap violenci ganer depend gran med posicia3n social muj acces recurs econa3m recuadr 42 mujeres jovenes situaciones conflicto sufrir tasas mas elevadas violencia genero indices soler ser aun mayores si mujeres pertenecer ademas grupo minoritario marginado ningaon estrato sociedad inmune violencia ganero embargo capacidad buscar reparacia3n judicial tratamiento madico oportunidad buscar servicios escapar violencia ganero depender gran medida posicia3n social mujer acceso recursos econa3micos recuadro 42</t>
+          <t>proporcion inform extens compar internacional habil estudi antecedent familiar comunitari pis ofrec med unic evalu progres haci ods analiz inclusion equid educ perspect internacional sistem educ gran proporcion joven quinc anos adquir competent basic necesari particip plen socied consider suficient inclus prim lug acces educ pued vers condicion previ nin benefici educ acces reflej principal tas matricul escol sistem mas equit inclus logr minimiz proporcion joven edad escol estan matricul retras signific progres escuel uso innov desarroll trabaj mas calific requier fuerz laboral adquir men habil basic proporcionar informacion extensa comparable internacionalmente habilidades estudiantes antecedentes familiares comunitarios pisa ofrecer medida unica evaluar progreso hacia ods analizar inclusion equidad educacion perspectiva internacional sistemas educativos gran proporcion jovenes quince anos adquirido competencias basicas necesarias participar plenamente sociedad considerar suficientemente inclusivos primer lugar acceso educacion puede ver él condicion previa ninos beneficien educacion acceso reflejar principalmente tasas matriculacion escolar sistemas mas equitativos inclusivos lograr minimizar proporcion jovenes edad escolar estar matriculados retraso significativo progreso escuela uso innovaciones desarrolladas trabajadores mas calificados requerir fuerza laboral adquirido menos habilidades basicas</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2245</v>
+        <v>2580</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Por tanto, merece la pena contar con profesores altamente cualificados que aborden las actitudes específicas de cada sexo dentro del aula. Muchos estudios y resultados de pruebas muestran diferencias de género en los niveles de competencia en estas materias. Según el Programa para la Evaluación Internacional de Alumnos (PISA) de la OCDE de 2012, que evalúa las competencias en lectura, matemáticas y ciencias de los jóvenes de 15 y 16 años, los alumnos de los países de la OCDE obtienen, por término medio, mejores resultados que los de la región de Asia y el Pacífico (cuadro 2.1).</t>
+          <t>Las mujeres jóvenes en situaciones de conflicto sufren tasas más elevadas de violencia de género. Estos índices suelen ser aún mayores si las mujeres pertenecen además a un grupo minoritario o marginado. NingÃºn estrato de la sociedad es inmune a la violencia de gÃ©nero, sin embargo, la capacidad de buscar reparaciÃ³n judicial o tratamiento mÃ©dico o la oportunidad de buscar servicios para escapar de la violencia de gÃ©nero dependen en gran medida de la posiciÃ³n social de la mujer y de su acceso a los recursos econÃ³micos (recuadro 4.2).</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>merec pen cont profesor alt cualific abord actitud especif cad sex dentr aul estudi result prueb muestr diferent gener nivel competent materi segun program evalu internacional alumn pis ocde dos mil doc evalu competent lectur matemat cienci joven quinc dieciseis anos alumn pais ocde obtien termin medi mejor result region asi pacif cuadr 21 merecer pena contar profesores altamente cualificados abordir actitudes especificas cada sexo dentro aula estudios resultados pruebas mostrar diferencias genero niveles competencia materias segun programa evaluacion internacional alumnos pisa ocde dos mil doce evalua competencias lectura matematicas ciencias jovenes quince dieciseis anos alumnos paises ocde obtener termino medio mejores resultados region asia pacifico cuadro 21</t>
+          <t>mujer joven situacion conflict sufr tas mas elev violenci gener indic suel ser aun mayor si mujer pertenec adem grup minoritari margin ningaon estrat socied inmun violenci ganer embarg capac busc reparacia3n judicial tratamient madic oportun busc servici escap violenci ganer depend gran med posicia3n social muj acces recurs econa3m recuadr 42 mujeres jovenes situaciones conflicto sufrir tasas mas elevadas violencia genero indices soler ser aun mayores si mujeres pertenecer ademas grupo minoritario marginado ningaon estrato sociedad inmune violencia ganero embargo capacidad buscar reparacia3n judicial tratamiento madico oportunidad buscar servicios escapar violencia ganero depender gran medida posicia3n social mujer acceso recursos econa3micos recuadro 42</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2839</v>
+        <v>2245</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entre 2005 y 2016, las tasas de informalidad de las mujeres han fluctuado entre un mÃnimo trimestral del 56,2% y un mÃ¡ximo del 59,4%, mientras que las de los hombres se han mantenido entre el 49,2% y el 52%. Entre los trabajadores informales, los empleadores y los trabajadores asalariados tienden a estar en mejor situaciÃ³n, mientras que los trabajadores por cuenta propia y los empleados domÃ©sticos se encuentran en peor situaciÃ³n en tÃ©rminos de salarios, seguridad laboral y protecciÃ³n social. Las mujeres mexicanas son mucho más propensas a trabajar en la segunda categoría que en la primera. Mientras que 48.8% de los trabajadores hombres (entre 15 y 64 años) en México reportan nunca haber cotizado a la seguridad social en su vida productiva, la cifra es de 64.6% entre las mujeres (estimaciones de la OCDE de la ENIGH, 2014). </t>
+          <t>Por tanto, merece la pena contar con profesores altamente cualificados que aborden las actitudes específicas de cada sexo dentro del aula. Muchos estudios y resultados de pruebas muestran diferencias de género en los niveles de competencia en estas materias. Según el Programa para la Evaluación Internacional de Alumnos (PISA) de la OCDE de 2012, que evalúa las competencias en lectura, matemáticas y ciencias de los jóvenes de 15 y 16 años, los alumnos de los países de la OCDE obtienen, por término medio, mejores resultados que los de la región de Asia y el Pacífico (cuadro 2.1).</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>dos mil cinc dos mil dieciseis tas informal mujer fluctu manim trimestral 562 maxim 594 mientr hombr manten 492 cincuent y dos trabaj informal empleador trabaj asalari tiend mejor situacia3n mientr trabaj cuent propi emple domast encuentr peor situacia3n tarmin salari segur laboral proteccia3n social mujer mexican mas propens trabaj segund categori primer mientr 488 trabaj hombr quinc sesent y cuatr anos mexic report nunc hab cotiz segur social vid product cifr 646 mujer estim ocde enigh dos mil catorc dos mil cinco dos mil dieciseis tasas informalidad mujeres fluctuado manimo trimestral 562 maximo 594 mientras hombres mantenido 492 cincuenta y dos trabajadores informales empleadores trabajadores asalariados tender mejor situacia3n mientras trabajadores contar propia empleados domasticos encontrar peor situacia3n tarminos salarios seguridad laboral proteccia3n social mujeres mexicanas mas propensas trabajar segunda categoria primera mientras 488 trabajadores hombres quince sesenta y cuatro anos mexico reportar nunca haber cotizar seguridad social vida productiva cifra 646 mujeres estimaciones ocde enigh dos mil catorce</t>
+          <t>merec pen cont profesor alt cualific abord actitud especif cad sex dentr aul estudi result prueb muestr diferent gener nivel competent materi segun program evalu internacional alumn pis ocde dos mil doc evalu competent lectur matemat cienci joven quinc dieciseis anos alumn pais ocde obtien termin medi mejor result region asi pacif cuadr 21 merecer pena contar profesores altamente cualificados abordir actitudes especificas cada sexo dentro aula estudios resultados pruebas mostrar diferencias genero niveles competencia materias segun programa evaluacion internacional alumnos pisa ocde dos mil doce evalua competencias lectura matematicas ciencias jovenes quince dieciseis anos alumnos paises ocde obtener termino medio mejores resultados region asia pacifico cuadro 21</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2330</v>
+        <v>2839</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Las niñas siguen siendo menos propensas que los niños a elegir campos de estudio científicos y tecnológicos y, cuando lo hacen, es menos probable que acepten trabajos bien remunerados en esos campos. Estas 'opciones' se basan en estereotipos sobre ocupaciones adecuadas para las niñas en lugar de basarse en la capacidad. Los estereotipos que definen el cuidado como quintaesencialmente femenino (y maternal) parecen ser mucho más difíciles de eliminar que aquellos relacionados con ganar el pan, antes visto como un dominio masculino.1'7 Cada vez más mujeres están adoptando lo que se considera estilos de vida y patrones de conducta masculinos. trabajar participando más intensamente en el mercado laboral. Sin embargo, los hombres no están, en la misma medida, asumiendo una mayor responsabilidad en el trabajo doméstico y de cuidados no remunerado, considerado en general como 'femenino'.</t>
+          <t xml:space="preserve">Entre 2005 y 2016, las tasas de informalidad de las mujeres han fluctuado entre un mÃnimo trimestral del 56,2% y un mÃ¡ximo del 59,4%, mientras que las de los hombres se han mantenido entre el 49,2% y el 52%. Entre los trabajadores informales, los empleadores y los trabajadores asalariados tienden a estar en mejor situaciÃ³n, mientras que los trabajadores por cuenta propia y los empleados domÃ©sticos se encuentran en peor situaciÃ³n en tÃ©rminos de salarios, seguridad laboral y protecciÃ³n social. Las mujeres mexicanas son mucho más propensas a trabajar en la segunda categoría que en la primera. Mientras que 48.8% de los trabajadores hombres (entre 15 y 64 años) en México reportan nunca haber cotizado a la seguridad social en su vida productiva, la cifra es de 64.6% entre las mujeres (estimaciones de la OCDE de la ENIGH, 2014). </t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>nin sig siend men propens nin eleg camp estudi cientif tecnolog hac men probabl acept trabaj bien remuner camp opcion bas estereotip ocup adecu nin lug bas capac estereotip defin cuid quintaesencial femenin maternal parec ser mas dificil elimin aquell relacion gan pan vist domini masculino1 siet cad vez mas mujer estan adopt consider estil vid patron conduct masculin trabaj particip mas intens merc laboral embarg hombr estan mism med asum mayor respons trabaj domest cuid remuner consider general femenin ninas seguir siendo menos propensas ninos elegir campos estudiar cientificos tecnologicos hacer menos probable aceptar trabajos bien remunerar campos opciones basar estereotipos ocupaciones adecuadas ninas lugar basar él capacidad estereotipos definir cuidado quintaesencialmente femenino maternal parecer ser mas dificiles eliminar aquellos relacionados ganar pan visto dominio masculino1 siete cada vez mas mujeres estar adoptar considerar estilos vida patrones conductar masculinos trabajar participar mas intensamente mercado laboral embargo hombres estar misma medida asumir mayor responsabilidad trabajo domestico cuidados remunerado considerado general femenino</t>
+          <t>dos mil cinc dos mil dieciseis tas informal mujer fluctu manim trimestral 562 maxim 594 mientr hombr manten 492 cincuent y dos trabaj informal empleador trabaj asalari tiend mejor situacia3n mientr trabaj cuent propi emple domast encuentr peor situacia3n tarmin salari segur laboral proteccia3n social mujer mexican mas propens trabaj segund categori primer mientr 488 trabaj hombr quinc sesent y cuatr anos mexic report nunc hab cotiz segur social vid product cifr 646 mujer estim ocde enigh dos mil catorc dos mil cinco dos mil dieciseis tasas informalidad mujeres fluctuado manimo trimestral 562 maximo 594 mientras hombres mantenido 492 cincuenta y dos trabajadores informales empleadores trabajadores asalariados tender mejor situacia3n mientras trabajadores contar propia empleados domasticos encontrar peor situacia3n tarminos salarios seguridad laboral proteccia3n social mujeres mexicanas mas propensas trabajar segunda categoria primera mientras 488 trabajadores hombres quince sesenta y cuatro anos mexico reportar nunca haber cotizar seguridad social vida productiva cifra 646 mujeres estimaciones ocde enigh dos mil catorce</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>1640</v>
+        <v>2330</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>En Noruega, esto puede explicarse por un tiempo superior al promedio de la OCDE que los niños dedican a actividades pedagógicas o educativas intencionales, un tiempo de contacto de los maestros con los niños superior al promedio, el nivel promedio de salarios de los maestros y un tamaño de grupo estimado por debajo del promedio. En los Países Bajos, hubo salarios docentes por encima del promedio, tiempo promedio de contacto de los maestros con los niños y tamaño de grupo estimado pequeño en comparación con el promedio; sin embargo, esto fue más que compensado por una cantidad de tiempo significativamente inferior al promedio que los niños dedicaron a actividades actividades pedagógicas o educativas (Figura 3.3). Por ejemplo, debido a los altos salarios en USD de Luxemburgo, tiene con mucho el costo salarial más alto en la educación preescolar: con USD 9 729, es más del triple que muchos países que se muestran en la Figura 3.3.</t>
+          <t>Las niñas siguen siendo menos propensas que los niños a elegir campos de estudio científicos y tecnológicos y, cuando lo hacen, es menos probable que acepten trabajos bien remunerados en esos campos. Estas 'opciones' se basan en estereotipos sobre ocupaciones adecuadas para las niñas en lugar de basarse en la capacidad. Los estereotipos que definen el cuidado como quintaesencialmente femenino (y maternal) parecen ser mucho más difíciles de eliminar que aquellos relacionados con ganar el pan, antes visto como un dominio masculino.1'7 Cada vez más mujeres están adoptando lo que se considera estilos de vida y patrones de conducta masculinos. trabajar participando más intensamente en el mercado laboral. Sin embargo, los hombres no están, en la misma medida, asumiendo una mayor responsabilidad en el trabajo doméstico y de cuidados no remunerado, considerado en general como 'femenino'.</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>norueg pued explic tiemp superior promedi ocde nin dedic activ pedagog educ intencional tiemp contact maestr nin superior promedi nivel promedi salari maestr taman grup estim debaj promedi pais baj salari docent encim promedi tiemp promedi contact maestr nin taman grup estim pequen compar promedi embarg mas compens cantid tiemp signific inferior promedi nin dedic activ activ pedagog educ figur 33 ejempl deb altos salari usd luxemburg cost salarial mas alto educ preescol usd nuev setecient veintinuev mas tripl pais muestr figur 33 noruega puede explicar él tiempo superior promedio ocde ninos dedicar actividades pedagogicas educativas intencionales tiempo contactar maestros ninos superior promedio nivel promedio salarios maestros tamano grupo estimado debajo promedio paises bajos salarios docentes encima promedio tiempo promedio contactar maestros ninos tamano grupo estimado pequeno comparacion promedio embargo mas compensado cantidad tiempo significativamente inferior promedio ninos dedicar actividades actividades pedagogicas educativas figurar 33 ejemplo debido altos salarios usd luxemburgo costo salarial mas alto educacion preescolar usd nueve setecientos veintinuevar mas triple paises mostrar figura 33</t>
+          <t>nin sig siend men propens nin eleg camp estudi cientif tecnolog hac men probabl acept trabaj bien remuner camp opcion bas estereotip ocup adecu nin lug bas capac estereotip defin cuid quintaesencial femenin maternal parec ser mas dificil elimin aquell relacion gan pan vist domini masculino1 siet cad vez mas mujer estan adopt consider estil vid patron conduct masculin trabaj particip mas intens merc laboral embarg hombr estan mism med asum mayor respons trabaj domest cuid remuner consider general femenin ninas seguir siendo menos propensas ninos elegir campos estudiar cientificos tecnologicos hacer menos probable aceptar trabajos bien remunerar campos opciones basar estereotipos ocupaciones adecuadas ninas lugar basar él capacidad estereotipos definir cuidado quintaesencialmente femenino maternal parecer ser mas dificiles eliminar aquellos relacionados ganar pan visto dominio masculino1 siete cada vez mas mujeres estar adoptar considerar estilos vida patrones conductar masculinos trabajar participar mas intensamente mercado laboral embargo hombres estar misma medida asumir mayor responsabilidad trabajo domestico cuidados remunerado considerado general femenino</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2906</v>
+        <v>1640</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Elevó la edad mínima para contraer matrimonio para las mujeres, eliminando la capacidad del esposo de negarle a la esposa el permiso para trabajar fuera del hogar, y requirió el consentimiento de ambos cónyuges para administrar los bienes conyugales. El caso de Etiopía muestra cómo las reformas que otorgan más derechos a las mujeres tienen un impacto medible en el empleo. Su participación en ocupaciones que requieren trabajo fuera del hogar, horas de tiempo completo y mayores habilidades aumentó más donde se había promulgado la reforma.</t>
+          <t>En Noruega, esto puede explicarse por un tiempo superior al promedio de la OCDE que los niños dedican a actividades pedagógicas o educativas intencionales, un tiempo de contacto de los maestros con los niños superior al promedio, el nivel promedio de salarios de los maestros y un tamaño de grupo estimado por debajo del promedio. En los Países Bajos, hubo salarios docentes por encima del promedio, tiempo promedio de contacto de los maestros con los niños y tamaño de grupo estimado pequeño en comparación con el promedio; sin embargo, esto fue más que compensado por una cantidad de tiempo significativamente inferior al promedio que los niños dedicaron a actividades actividades pedagógicas o educativas (Figura 3.3). Por ejemplo, debido a los altos salarios en USD de Luxemburgo, tiene con mucho el costo salarial más alto en la educación preescolar: con USD 9 729, es más del triple que muchos países que se muestran en la Figura 3.3.</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>elev edad minim contr matrimoni mujer elimin capac espos neg espos permis trabaj hog requiri consent ambos conyug administr bien conyugal cas etiopi muestr reform otorg mas derech mujer impact medibl emple particip ocup requier trabaj hog hor tiemp complet mayor habil aument mas habi promulg reform elevo edad minima contraer matrimonio mujeres eliminar capacidad esposo negar él esposa permiso trabajar hogar requirio consentimiento ambos conyuges administrar bienes conyugales caso etiopia mostrar reformas otorgar mas derechos mujeres impacto medible empleo participacion ocupaciones requerir trabajo hogar horas tiempo completo mayores habilidades aumento mas habiar promulgado reforma</t>
+          <t>norueg pued explic tiemp superior promedi ocde nin dedic activ pedagog educ intencional tiemp contact maestr nin superior promedi nivel promedi salari maestr taman grup estim debaj promedi pais baj salari docent encim promedi tiemp promedi contact maestr nin taman grup estim pequen compar promedi embarg mas compens cantid tiemp signific inferior promedi nin dedic activ activ pedagog educ figur 33 ejempl deb altos salari usd luxemburg cost salarial mas alto educ preescol usd nuev setecient veintinuev mas tripl pais muestr figur 33 noruega puede explicar él tiempo superior promedio ocde ninos dedicar actividades pedagogicas educativas intencionales tiempo contactar maestros ninos superior promedio nivel promedio salarios maestros tamano grupo estimado debajo promedio paises bajos salarios docentes encima promedio tiempo promedio contactar maestros ninos tamano grupo estimado pequeno comparacion promedio embargo mas compensado cantidad tiempo significativamente inferior promedio ninos dedicar actividades actividades pedagogicas educativas figurar 33 ejemplo debido altos salarios usd luxemburgo costo salarial mas alto educacion preescolar usd nueve setecientos veintinuevar mas triple paises mostrar figura 33</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2687</v>
+        <v>2906</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Los enfoques deben abordar tanto las barreras específicas que impiden la participación de niñas y mujeres en el deporte como las intersecciones a menudo complejas de cuestiones específicas de género y otros marcadores de desventaja, como la discapacidad, el origen étnico y el estatus socioeconómico (Jeanes et al. La provisión de actividades deportivas competitivas y no competitivas que sean atractivas para las niñas y las mujeres también requiere una planificación intencional (Bailey et al. En algunos contextos, las niñas y las mujeres pueden beneficiarse de oportunidades específicas que les permitan participar en entornos seguros y de apoyo .</t>
+          <t>Elevó la edad mínima para contraer matrimonio para las mujeres, eliminando la capacidad del esposo de negarle a la esposa el permiso para trabajar fuera del hogar, y requirió el consentimiento de ambos cónyuges para administrar los bienes conyugales. El caso de Etiopía muestra cómo las reformas que otorgan más derechos a las mujeres tienen un impacto medible en el empleo. Su participación en ocupaciones que requieren trabajo fuera del hogar, horas de tiempo completo y mayores habilidades aumentó más donde se había promulgado la reforma.</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>enfoqu deb abord barrer especif impid particip nin mujer deport interseccion menud complej cuestion especif gener marcador desventaj discapac orig etnic estatus socioeconom jean et provision activ deport competit competit atract nin mujer tambi requier planif intencional bailey et context nin mujer pued benefici oportun especif permit particip entorn segur apoy enfoques deben abordar barreras especificas impedir participacion ninas mujeres deporte intersecciones menudo complejas cuestiones especificas genero marcadores desventajar discapacidad origen etnico estatus socioeconomico jeanes et provision actividades deportivas competitivas competitivas atractivas ninas mujeres tambien requerir planificacion intencional bailey et contextos ninas mujeres pueden beneficiar él oportunidades especificas permitir participar entornos seguros apoyo</t>
+          <t>elev edad minim contr matrimoni mujer elimin capac espos neg espos permis trabaj hog requiri consent ambos conyug administr bien conyugal cas etiopi muestr reform otorg mas derech mujer impact medibl emple particip ocup requier trabaj hog hor tiemp complet mayor habil aument mas habi promulg reform elevo edad minima contraer matrimonio mujeres eliminar capacidad esposo negar él esposa permiso trabajar hogar requirio consentimiento ambos conyuges administrar bienes conyugales caso etiopia mostrar reformas otorgar mas derechos mujeres impacto medible empleo participacion ocupaciones requerir trabajo hogar horas tiempo completo mayores habilidades aumento mas habiar promulgado reforma</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>667</v>
+        <v>2687</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Otro determinante es la sustitución del cuidado informal por un cuidado formal más costoso. Bajo el escenario de “envejecimiento saludable”, se permite que la curva de costos para los sobrevivientes se desplace hacia la derecha, posponiendo progresivamente los aumentos de gastos relacionados con la edad. Para los no sobrevivientes, se consideran dos efectos demográficos diferentes.</t>
+          <t>Los enfoques deben abordar tanto las barreras específicas que impiden la participación de niñas y mujeres en el deporte como las intersecciones a menudo complejas de cuestiones específicas de género y otros marcadores de desventaja, como la discapacidad, el origen étnico y el estatus socioeconómico (Jeanes et al. La provisión de actividades deportivas competitivas y no competitivas que sean atractivas para las niñas y las mujeres también requiere una planificación intencional (Bailey et al. En algunos contextos, las niñas y las mujeres pueden beneficiarse de oportunidades específicas que les permitan participar en entornos seguros y de apoyo .</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>determin sustitucion cuid informal cuid formal mas costos baj escenari envejec salud permit curv cost sobrevivient desplac haci derech pospon progres aument gast relacion edad sobrevivient consider dos efect demograf diferent determinante sustitucion cuidado informal cuidado formal mas costoso bajo escenario envejecimiento saludable permitir curva costos sobrevivientes desplacer hacia derecha posponer progresivamente aumentos gastos relacionados edad sobrevivientes considerar dos efectos demograficos diferentes</t>
+          <t>enfoqu deb abord barrer especif impid particip nin mujer deport interseccion menud complej cuestion especif gener marcador desventaj discapac orig etnic estatus socioeconom jean et provision activ deport competit competit atract nin mujer tambi requier planif intencional bailey et context nin mujer pued benefici oportun especif permit particip entorn segur apoy enfoques deben abordar barreras especificas impedir participacion ninas mujeres deporte intersecciones menudo complejas cuestiones especificas genero marcadores desventajar discapacidad origen etnico estatus socioeconomico jeanes et provision actividades deportivas competitivas competitivas atractivas ninas mujeres tambien requerir planificacion intencional bailey et contextos ninas mujeres pueden beneficiar él oportunidades especificas permitir participar entornos seguros apoyo</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>490</v>
+        <v>667</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>La principal ventaja del modelo de seguro social es que asigna un flujo de ingresos relativamente predecible, basado en las contribuciones al seguro social, a la atención de la salud. Sin embargo, el gobierno generalmente tiene menos supervisión de costos sobre los sistemas de salud basados ​​en el seguro social que sobre los financiados con impuestos, ya que los esquemas de seguro social se caracterizan por controles presupuestarios más débiles sobre sus decisiones de financiamiento y gasto. Además, las cotizaciones pueden tener grandes efectos distorsionadores en el mercado laboral.</t>
+          <t>Otro determinante es la sustitución del cuidado informal por un cuidado formal más costoso. Bajo el escenario de “envejecimiento saludable”, se permite que la curva de costos para los sobrevivientes se desplace hacia la derecha, posponiendo progresivamente los aumentos de gastos relacionados con la edad. Para los no sobrevivientes, se consideran dos efectos demográficos diferentes.</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>principal ventaj model segur social asign fluj ingres relat predec bas contribu segur social atencion salud embarg gobiern general men supervision cost sistem salud bas segur social financi impuest esquem segur social caracteriz control presupuestari mas debil decision financi gast adem cotiz pued ten grand efect distorsion merc laboral principal ventaja modelo seguro social asigna flujo ingresos relativamente predecible basado contribuciones seguro social atencion salud embargo gobierno generalmente menos supervision costos sistemas salud basados seguro social financiados impuestos esquemas seguro social caracterizar controles presupuestarios mas debiles decisiones financiamiento gasto ademas cotizaciones pueden tener grandes efectos distorsionadores mercado laboral</t>
+          <t>determin sustitucion cuid informal cuid formal mas costos baj escenari envejec salud permit curv cost sobrevivient desplac haci derech pospon progres aument gast relacion edad sobrevivient consider dos efect demograf diferent determinante sustitucion cuidado informal cuidado formal mas costoso bajo escenario envejecimiento saludable permitir curva costos sobrevivientes desplacer hacia derecha posponer progresivamente aumentos gastos relacionados edad sobrevivientes considerar dos efectos demograficos diferentes</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2591</v>
+        <v>490</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>La existencia de desigualdades de género puede impulsar una recuperación económica si su efecto sobre los costos supera las implicaciones negativas de la desigualdad en términos de demanda efectiva. La segunda sección contiene una revisión de la literatura sobre los vínculos entre el crecimiento y la desigualdad de género. El tercero cubre la metodología utilizada en este estudio, mientras que el cuarto presenta los resultados.</t>
+          <t>La principal ventaja del modelo de seguro social es que asigna un flujo de ingresos relativamente predecible, basado en las contribuciones al seguro social, a la atención de la salud. Sin embargo, el gobierno generalmente tiene menos supervisión de costos sobre los sistemas de salud basados ​​en el seguro social que sobre los financiados con impuestos, ya que los esquemas de seguro social se caracterizan por controles presupuestarios más débiles sobre sus decisiones de financiamiento y gasto. Además, las cotizaciones pueden tener grandes efectos distorsionadores en el mercado laboral.</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>existent desigualdad gener pued impuls recuper econom si efect cost super implic negat desiguald termin demand efect segund seccion contien revision literatur vincul crecimient desiguald gener tercer cubr metodologi utiliz estudi mientr cuart present result existencia desigualdades genero puede impulsar recuperacion economica si efecto costos superar implicaciones negativas desigualdad terminos demanda efectiva segunda seccion contener revision literatura vinculos crecimiento desigualdad genero tercero cubrir metodologia utilizada estudio mientras cuarto presentar resultados</t>
+          <t>principal ventaj model segur social asign fluj ingres relat predec bas contribu segur social atencion salud embarg gobiern general men supervision cost sistem salud bas segur social financi impuest esquem segur social caracteriz control presupuestari mas debil decision financi gast adem cotiz pued ten grand efect distorsion merc laboral principal ventaja modelo seguro social asigna flujo ingresos relativamente predecible basado contribuciones seguro social atencion salud embargo gobierno generalmente menos supervision costos sistemas salud basados seguro social financiados impuestos esquemas seguro social caracterizar controles presupuestarios mas debiles decisiones financiamiento gasto ademas cotizaciones pueden tener grandes efectos distorsionadores mercado laboral</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>923</v>
+        <v>2591</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>En estas zonas, el acceso adecuado al servicio de salud pasó de 64% en 1995 a 79% en 2000. Hoy, más de 1 000 EBAIS están presentes en todos los territorios del país y constituyen la base del sistema nacional de salud. En una nota más negativa, los EBAIS solo ofrecen citas por la mañana y temprano en la tarde, lo que limita el acceso a la atención primaria. La mayoría de los médicos que trabajan en EBAIS no tienen formación especializada de posgrado en atención primaria.</t>
+          <t>La existencia de desigualdades de género puede impulsar una recuperación económica si su efecto sobre los costos supera las implicaciones negativas de la desigualdad en términos de demanda efectiva. La segunda sección contiene una revisión de la literatura sobre los vínculos entre el crecimiento y la desigualdad de género. El tercero cubre la metodología utilizada en este estudio, mientras que el cuarto presenta los resultados.</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>zon acces adecu servici salud pas sesent y cuatr mil novecient novent y cinc setent y nuev dos mil hoy mas cer ebais estan present territori pais constitu bas sistem nacional salud not mas negat ebais sol ofrec cit manan tempran tard limit acces atencion primari mayori medic trabaj ebais formacion especializ posgr atencion primari zonas acceso adecuado servicio salud paso sesenta y cuatro mil novecientos noventa y cinco setenta y nueve dos mil hoy mas cero ebais estar presentes territorios pais constituir base sistema nacional salud nota mas negativa ebais solo ofrecer citas manana temprano tarde limitar acceso atencion primaria mayoria medicos trabajar ebais formacion especializada posgrado atencion primaria</t>
+          <t>existent desigualdad gener pued impuls recuper econom si efect cost super implic negat desiguald termin demand efect segund seccion contien revision literatur vincul crecimient desiguald gener tercer cubr metodologi utiliz estudi mientr cuart present result existencia desigualdades genero puede impulsar recuperacion economica si efecto costos superar implicaciones negativas desigualdad terminos demanda efectiva segunda seccion contener revision literatura vinculos crecimiento desigualdad genero tercero cubrir metodologia utilizada estudio mientras cuarto presentar resultados</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>1189</v>
+        <v>923</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>El gobierno australiano trabaja con las autoridades educativas gubernamentales y no gubernamentales estatales y territoriales para garantizar un alto nivel continuo de enseñanza y aprendizaje en las escuelas australianas. La mayor parte de la financiación pública de las universidades la proporciona el gobierno australiano, según las normas contenidas en la Ley de Apoyo a la Educación Superior de 2003. Los gobiernos estatales y territoriales pueden acreditar otras instituciones terciarias (a través de una autoridad de acreditación), pero las instituciones deben estar incluidas en el Marco de Cualificaciones de Australia. Regístrese antes de que puedan otorgar calificaciones a los estudiantes.</t>
+          <t>En estas zonas, el acceso adecuado al servicio de salud pasó de 64% en 1995 a 79% en 2000. Hoy, más de 1 000 EBAIS están presentes en todos los territorios del país y constituyen la base del sistema nacional de salud. En una nota más negativa, los EBAIS solo ofrecen citas por la mañana y temprano en la tarde, lo que limita el acceso a la atención primaria. La mayoría de los médicos que trabajan en EBAIS no tienen formación especializada de posgrado en atención primaria.</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>gobiern australian trabaj autor educ gubernamental gubernamental estatal territorial garantiz alto nivel continu ensen aprendizaj escuel australian mayor part financi public univers proporcion gobiern australian segun norm conten ley apoy educ superior dos mil tres gobi estatal territorial pued acredit institu terciari trav autor acredit institu deb inclu marc cualif australi registres pued otorg calif estudi gobierno australiano trabajar autoridades educativas gubernamentales gubernamentales estatales territoriales garantizar alto nivel continuo ensenanza aprendizaje escuelas australianas mayor parte financiacion publicar universidades proporcionar gobierno australiano segun normas contenidas ley apoyo educacion superior dos mil tres gobiernos estatales territoriales pueden acreditar instituciones terciarias traves autoridad acreditacion instituciones deben incluidas marco cualificaciones australia registrese puedan otorgar calificaciones estudiantes</t>
+          <t>zon acces adecu servici salud pas sesent y cuatr mil novecient novent y cinc setent y nuev dos mil hoy mas cer ebais estan present territori pais constitu bas sistem nacional salud not mas negat ebais sol ofrec cit manan tempran tard limit acces atencion primari mayori medic trabaj ebais formacion especializ posgr atencion primari zonas acceso adecuado servicio salud paso sesenta y cuatro mil novecientos noventa y cinco setenta y nueve dos mil hoy mas cero ebais estar presentes territorios pais constituir base sistema nacional salud nota mas negativa ebais solo ofrecer citas manana temprano tarde limitar acceso atencion primaria mayoria medicos trabajar ebais formacion especializada posgrado atencion primaria</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>158</v>
+        <v>1189</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">El tercer sector (religioso, benéfico y otros organismos no gubernamentales) también desempeña un papel importante en la prestación de algunos aspectos de la asistencia sanitaria y social. La Junta Nacional de Protección Social, creada en 1845, financia con los ingresos de la "lotería nacional" diversos programas de promoción de la salud, cuidados paliativos, tratamiento del alcoholismo y la drogadicción y ayuda a discapacitados y ancianos, entre otros. Esto es especialmente cierto en el sector hospitalario. </t>
+          <t>El gobierno australiano trabaja con las autoridades educativas gubernamentales y no gubernamentales estatales y territoriales para garantizar un alto nivel continuo de enseñanza y aprendizaje en las escuelas australianas. La mayor parte de la financiación pública de las universidades la proporciona el gobierno australiano, según las normas contenidas en la Ley de Apoyo a la Educación Superior de 2003. Los gobiernos estatales y territoriales pueden acreditar otras instituciones terciarias (a través de una autoridad de acreditación), pero las instituciones deben estar incluidas en el Marco de Cualificaciones de Australia. Regístrese antes de que puedan otorgar calificaciones a los estudiantes.</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>terc sector religi benef organ gubernamental tambi desempen papel import prestacion aspect asistent sanitari social junt nacional proteccion social cre mil ochocient cuarent y cinc financi ingres loteri nacional divers program promocion salud cuid paliat tratamient alcohol drogadiccion ayud discapacit ancian especial ciert sector hospitalari tercer sector religioso benefico organismos gubernamentales tambien desempena papel importante prestacion aspectos asistencia sanitaria social junta nacional proteccion social creada mil ochocientos cuarenta y cinco financiar ingresos loteria nacional diversos programas promocion salud cuidados paliativos tratamiento alcoholismo drogadiccion ayuda discapacitados ancianos especialmente cierto sector hospitalario</t>
+          <t>gobiern australian trabaj autor educ gubernamental gubernamental estatal territorial garantiz alto nivel continu ensen aprendizaj escuel australian mayor part financi public univers proporcion gobiern australian segun norm conten ley apoy educ superior dos mil tres gobi estatal territorial pued acredit institu terciari trav autor acredit institu deb inclu marc cualif australi registres pued otorg calif estudi gobierno australiano trabajar autoridades educativas gubernamentales gubernamentales estatales territoriales garantizar alto nivel continuo ensenanza aprendizaje escuelas australianas mayor parte financiacion publicar universidades proporcionar gobierno australiano segun normas contenidas ley apoyo educacion superior dos mil tres gobiernos estatales territoriales pueden acreditar instituciones terciarias traves autoridad acreditacion instituciones deben incluidas marco cualificaciones australia registrese puedan otorgar calificaciones estudiantes</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>1333</v>
+        <v>158</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Dado que casi todos los hogares coreanos soportan una pesada carga de educación privada y la nueva administración ve el crecimiento impulsado por los ingresos como una de las estrategias de crecimiento nacional, los responsables de la política educativa están haciendo una variedad de esfuerzos para reducir la carga de la educación privada. Están tratando de proteger un cierto nivel de ingresos disponibles mediante la reducción de los gastos de educación privada de los hogares a partir de 2017. A diferencia de otros países de la OCDE, en Corea, el gobierno central, el Ministerio de Educación, es responsable de financiar la educación. Los expertos en educación y las instituciones asociadas están firmemente en contra de un cambio de la centralización actual a la descentralización del financiamiento de la educación. Para establecer un plan de financiamiento estable, se debe rediseñar la descentralización fiscal en el financiamiento de la educación, como en otros países de la OCDE.</t>
+          <t xml:space="preserve">El tercer sector (religioso, benéfico y otros organismos no gubernamentales) también desempeña un papel importante en la prestación de algunos aspectos de la asistencia sanitaria y social. La Junta Nacional de Protección Social, creada en 1845, financia con los ingresos de la "lotería nacional" diversos programas de promoción de la salud, cuidados paliativos, tratamiento del alcoholismo y la drogadicción y ayuda a discapacitados y ancianos, entre otros. Esto es especialmente cierto en el sector hospitalario. </t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>dad casi hogar corean soport pes carg educ priv nuev administr ve crecimient impuls ingres estrategi crecimient nacional respons polit educ estan hac varied esfuerz reduc carg educ priv estan trat proteg ciert nivel ingres dispon mediant reduccion gast educ priv hogar part dos mil diecisiet diferent pais ocde core gobiern central ministeri educ respons financi educ expert educ institu asoci estan firmement cambi centraliz actual descentraliz financi educ establec plan financi establ deb redisen descentraliz fiscal financi educ pais ocde dar casi hogares coreanos soportar pesada carga educacion privada nueva administracion ver crecimiento impulsado ingresos estrategias crecimiento nacional responsables politica educativa estar hacer variedad esfuerzos reducir carga educacion privada estan tratar proteger cierto nivel ingresos disponibles mediante reduccion gastos educacion privada hogares partir dos mil diecisiete diferencia paises ocde corea gobierno central ministerio educacion responsable financiar educacion expertos educacion instituciones asociadas estar firmemente cambio centralizacion actual descentralizacion financiamiento educacion establecer plan financiamiento estable debe redisenar descentralizacion fiscal financiamiento educacion paises ocde</t>
+          <t>terc sector religi benef organ gubernamental tambi desempen papel import prestacion aspect asistent sanitari social junt nacional proteccion social cre mil ochocient cuarent y cinc financi ingres loteri nacional divers program promocion salud cuid paliat tratamient alcohol drogadiccion ayud discapacit ancian especial ciert sector hospitalari tercer sector religioso benefico organismos gubernamentales tambien desempena papel importante prestacion aspectos asistencia sanitaria social junta nacional proteccion social creada mil ochocientos cuarenta y cinco financiar ingresos loteria nacional diversos programas promocion salud cuidados paliativos tratamiento alcoholismo drogadiccion ayuda discapacitados ancianos especialmente cierto sector hospitalario</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2354</v>
+        <v>1333</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>En las regiones en desarrollo, una proporción significativa de mujeres que están en la fuerza laboral no tienen ingresos propios porque son trabajadoras familiares auxiliares, en granjas y empresas familiares. Estar casado y tener hijos pequeños en el hogar reduce las tasas de participación de la fuerza laboral de las mujeres, mientras que tienen el efecto contrario en las de los hombres. La discriminación en los mercados laborales y la responsabilidad desproporcionada de las mujeres en el trabajo doméstico y de cuidados no remunerado plantean un problema particular para las madres solas que no pueden depender de la distribución de ingresos con una pareja.</t>
+          <t>Dado que casi todos los hogares coreanos soportan una pesada carga de educación privada y la nueva administración ve el crecimiento impulsado por los ingresos como una de las estrategias de crecimiento nacional, los responsables de la política educativa están haciendo una variedad de esfuerzos para reducir la carga de la educación privada. Están tratando de proteger un cierto nivel de ingresos disponibles mediante la reducción de los gastos de educación privada de los hogares a partir de 2017. A diferencia de otros países de la OCDE, en Corea, el gobierno central, el Ministerio de Educación, es responsable de financiar la educación. Los expertos en educación y las instituciones asociadas están firmemente en contra de un cambio de la centralización actual a la descentralización del financiamiento de la educación. Para establecer un plan de financiamiento estable, se debe rediseñar la descentralización fiscal en el financiamiento de la educación, como en otros países de la OCDE.</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>region desarroll proporcion signific mujer estan fuerz laboral ingres propi trabaj familiar auxiliar granj empres familiar cas ten hij pequen hog reduc tas particip fuerz laboral mujer mientr efect contrari hombr discrimin merc laboral respons desproporcion mujer trabaj domest cuid remuner plant problem particul madr sol pued depend distribucion ingres parej regiones desarrollo proporcion significativa mujeres estar fuerza laboral ingresos propios trabajadoras familiares auxiliares granjas empresas familiares casado tener hijos pequenos hogar reducir tasas participacion fuerza laboral mujeres mientras efecto contrario hombres discriminacion mercados laborales responsabilidad desproporcionada mujeres trabajo domestico cuidados remunerado plantear problema particular madres solas pueden depender distribucion ingresos pareja</t>
+          <t>dad casi hogar corean soport pes carg educ priv nuev administr ve crecimient impuls ingres estrategi crecimient nacional respons polit educ estan hac varied esfuerz reduc carg educ priv estan trat proteg ciert nivel ingres dispon mediant reduccion gast educ priv hogar part dos mil diecisiet diferent pais ocde core gobiern central ministeri educ respons financi educ expert educ institu asoci estan firmement cambi centraliz actual descentraliz financi educ establec plan financi establ deb redisen descentraliz fiscal financi educ pais ocde dar casi hogares coreanos soportar pesada carga educacion privada nueva administracion ver crecimiento impulsado ingresos estrategias crecimiento nacional responsables politica educativa estar hacer variedad esfuerzos reducir carga educacion privada estan tratar proteger cierto nivel ingresos disponibles mediante reduccion gastos educacion privada hogares partir dos mil diecisiete diferencia paises ocde corea gobierno central ministerio educacion responsable financiar educacion expertos educacion instituciones asociadas estar firmemente cambio centralizacion actual descentralizacion financiamiento educacion establecer plan financiamiento estable debe redisenar descentralizacion fiscal financiamiento educacion paises ocde</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>1782</v>
+        <v>2354</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>El sistema no puede basarse en herramientas coherentes para medir la calidad y la eficacia del sistema educativo y la consecución real de los resultados del aprendizaje, ya que no existen ni evaluaciones externas del aprendizaje, basadas en evaluaciones nacionales normalizadas, ni evaluaciones externas de las escuelas y la enseñanza. Los alumnos avanzan de curso según son evaluados en las escuelas por sus profesores, y los exámenes externos sólo se utilizan para regular las admisiones en la enseñanza superior. Se incluyó una disposición relativa a la evaluación de las escuelas en la ley aprobada en mayo de 2010 (3848/201), que también incluía requisitos relativos a las condiciones que rodean el empleo de profesores, directores de escuela y otros (véase la sección sobre referencias actuales en el apartado sobre desarrollo y uso de los recursos humanos). También incluirá sugerencias de mejora para el próximo curso escolar.</t>
+          <t>En las regiones en desarrollo, una proporción significativa de mujeres que están en la fuerza laboral no tienen ingresos propios porque son trabajadoras familiares auxiliares, en granjas y empresas familiares. Estar casado y tener hijos pequeños en el hogar reduce las tasas de participación de la fuerza laboral de las mujeres, mientras que tienen el efecto contrario en las de los hombres. La discriminación en los mercados laborales y la responsabilidad desproporcionada de las mujeres en el trabajo doméstico y de cuidados no remunerado plantean un problema particular para las madres solas que no pueden depender de la distribución de ingresos con una pareja.</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>sistem pued bas herramient coherent med calid eficaci sistem educ consecucion real result aprendizaj exist evalu extern aprendizaj bas evalu nacional normaliz evalu extern escuel ensen alumn avanz curs segun evalu escuel profesor examen extern sol utiliz regul admision ensen superior inclu disposicion relat evalu escuel ley aprob may dos mil diez 3848201 tambi inclui requisit relat condicion rod emple profesor director escuel veas seccion referent actual apart desarroll uso recurs human tambi incluir sugerent mejor proxim curs escol sistema puede basar él herramientas coherentes medir calidad eficacia sistema educativo consecucion real resultados aprendizaje existir evaluaciones externas aprendizaje basadas evaluaciones nacionales normalizadas evaluaciones externas escuelas ensenanza alumnos avanzar curso segun evaluados escuelas profesores examenes externos solo utilizar regular admisiones ensenanza superior incluyo disposicion relativa evaluacion escuelas ley aprobada mayo dos mil diez 3848201 tambien incluia requisitos relativos condiciones rodear empleo profesores directores escuela vease seccion referencias actuales apartado desarrollo uso recursos humanos tambien incluira sugerencias mejora proximo curso escolar</t>
+          <t>region desarroll proporcion signific mujer estan fuerz laboral ingres propi trabaj familiar auxiliar granj empres familiar cas ten hij pequen hog reduc tas particip fuerz laboral mujer mientr efect contrari hombr discrimin merc laboral respons desproporcion mujer trabaj domest cuid remuner plant problem particul madr sol pued depend distribucion ingres parej regiones desarrollo proporcion significativa mujeres estar fuerza laboral ingresos propios trabajadoras familiares auxiliares granjas empresas familiares casado tener hijos pequenos hogar reducir tasas participacion fuerza laboral mujeres mientras efecto contrario hombres discriminacion mercados laborales responsabilidad desproporcionada mujeres trabajo domestico cuidados remunerado plantear problema particular madres solas pueden depender distribucion ingresos pareja</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>1958</v>
+        <v>1782</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>En los textos dinámicos, normalmente solo se puede ver una fracción del texto disponible en un momento dado y, a menudo, se desconoce la extensión del texto disponible. Matemáticas: Comprender las matemáticas es fundamental para la preparación de un joven para la vida en la sociedad moderna. Una proporción cada vez mayor de problemas y situaciones que se encuentran en la vida diaria, incluidos los contextos profesionales, requieren cierto nivel de comprensión de las matemáticas, el razonamiento matemático y las herramientas matemáticas.</t>
+          <t>El sistema no puede basarse en herramientas coherentes para medir la calidad y la eficacia del sistema educativo y la consecución real de los resultados del aprendizaje, ya que no existen ni evaluaciones externas del aprendizaje, basadas en evaluaciones nacionales normalizadas, ni evaluaciones externas de las escuelas y la enseñanza. Los alumnos avanzan de curso según son evaluados en las escuelas por sus profesores, y los exámenes externos sólo se utilizan para regular las admisiones en la enseñanza superior. Se incluyó una disposición relativa a la evaluación de las escuelas en la ley aprobada en mayo de 2010 (3848/201), que también incluía requisitos relativos a las condiciones que rodean el empleo de profesores, directores de escuela y otros (véase la sección sobre referencias actuales en el apartado sobre desarrollo y uso de los recursos humanos). También incluirá sugerencias de mejora para el próximo curso escolar.</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>text dinam normal sol pued ver fraccion text dispon moment dad menud desconoc extension text dispon matemat comprend matemat fundamental prepar jov vid socied modern proporcion cad vez mayor problem situacion encuentr vid diari inclu context profesional requier ciert nivel comprension matemat razon matemat herramient matemat textos dinamicos normalmente solo puede ver fraccion texto disponible momento dado menudo desconocer extension texto disponible matematicas comprender matematicas fundamental preparacion joven vida sociedad moderna proporcion cada vez mayor problemas situaciones encontrar vida diaria incluir contextos profesionales requerir cierto nivel comprension matematicas razonamiento matematico herramientas matematicas</t>
+          <t>sistem pued bas herramient coherent med calid eficaci sistem educ consecucion real result aprendizaj exist evalu extern aprendizaj bas evalu nacional normaliz evalu extern escuel ensen alumn avanz curs segun evalu escuel profesor examen extern sol utiliz regul admision ensen superior inclu disposicion relat evalu escuel ley aprob may dos mil diez 3848201 tambi inclui requisit relat condicion rod emple profesor director escuel veas seccion referent actual apart desarroll uso recurs human tambi incluir sugerent mejor proxim curs escol sistema puede basar él herramientas coherentes medir calidad eficacia sistema educativo consecucion real resultados aprendizaje existir evaluaciones externas aprendizaje basadas evaluaciones nacionales normalizadas evaluaciones externas escuelas ensenanza alumnos avanzar curso segun evaluados escuelas profesores examenes externos solo utilizar regular admisiones ensenanza superior incluyo disposicion relativa evaluacion escuelas ley aprobada mayo dos mil diez 3848201 tambien incluia requisitos relativos condiciones rodear empleo profesores directores escuela vease seccion referencias actuales apartado desarrollo uso recursos humanos tambien incluira sugerencias mejora proximo curso escolar</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2984</v>
+        <v>1958</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Las actividades empresariales siguen viéndose obstaculizadas por limitaciones que pueden ser específicas de cada sexo, como las normas culturales o el acceso restringido de las mujeres a la financiación. Aunque las fuentes de financiación son las mismas para hombres y mujeres, las mujeres suelen enfrentarse a mayores obstáculos para acceder a la financiación. Las principales razones de esta brecha de género están asociadas a las diferencias en el sector de actividad y a la edad y tamaño de las empresas propiedad de mujeres. Sin embargo, otras posibles explicaciones son la falta de experiencia en la gestiÃ³n, un historial crediticio mÃ¡s dÃ©bil de las mujeres y un menor tamaÃ±o de las empresas.</t>
+          <t>En los textos dinámicos, normalmente solo se puede ver una fracción del texto disponible en un momento dado y, a menudo, se desconoce la extensión del texto disponible. Matemáticas: Comprender las matemáticas es fundamental para la preparación de un joven para la vida en la sociedad moderna. Una proporción cada vez mayor de problemas y situaciones que se encuentran en la vida diaria, incluidos los contextos profesionales, requieren cierto nivel de comprensión de las matemáticas, el razonamiento matemático y las herramientas matemáticas.</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>activ empresarial sig viendos obstaculiz limit pued ser especif cad sex norm cultural acces restring mujer financi aunqu fuent financi mism hombr mujer mujer suel enfrent mayor obstacul acced financi principal razon brech gener estan asoci diferent sector activ edad taman empres propied mujer embarg posibl explic falt experient gestia3n historial creditici mas dabil mujer menor tamaa empres actividades empresariales seguir ver él obstaculizadas limitaciones pueden ser especificas cada sexo normas culturales acceso restringido mujeres financiacion aunque fuentes financiacion mismas hombres mujeres mujeres soler enfrentar él mayores obstaculos acceder financiacion principales razones brecha genero estar asociadas diferencias sector actividad edad tamano empresas propiedad mujeres embargo posibles explicaciones faltar experiencia gestia3n historial crediticio mas dabil mujeres menor tamaaoir empresas</t>
+          <t>text dinam normal sol pued ver fraccion text dispon moment dad menud desconoc extension text dispon matemat comprend matemat fundamental prepar jov vid socied modern proporcion cad vez mayor problem situacion encuentr vid diari inclu context profesional requier ciert nivel comprension matemat razon matemat herramient matemat textos dinamicos normalmente solo puede ver fraccion texto disponible momento dado menudo desconocer extension texto disponible matematicas comprender matematicas fundamental preparacion joven vida sociedad moderna proporcion cada vez mayor problemas situaciones encontrar vida diaria incluir contextos profesionales requerir cierto nivel comprension matematicas razonamiento matematico herramientas matematicas</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>1788</v>
+        <v>2984</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Los estándares o marcos de liderazgo escolar profesional también deben aclarar y resaltar la importancia del liderazgo escolar para la evaluación y evaluación, en general, y para la valoración de docentes y la evaluación escolar, en particular. Para dar un ejemplo, el liderazgo distribuido en las escuelas secundarias puede ayudar a brindar retroalimentación informal regular a los maestros en sus áreas temáticas, algo para lo que un líder escolar individual podría no estar necesariamente equipado considerando la falta de experiencia en diferentes materias (OCDE, 2009). Al mismo tiempo, distribuir el liderazgo en las escuelas no necesariamente disminuye la carga de trabajo de un líder escolar y puede crear nuevos desafíos para los líderes escolares, quienes, a su vez, requieren un apoyo continuo.</t>
+          <t>Las actividades empresariales siguen viéndose obstaculizadas por limitaciones que pueden ser específicas de cada sexo, como las normas culturales o el acceso restringido de las mujeres a la financiación. Aunque las fuentes de financiación son las mismas para hombres y mujeres, las mujeres suelen enfrentarse a mayores obstáculos para acceder a la financiación. Las principales razones de esta brecha de género están asociadas a las diferencias en el sector de actividad y a la edad y tamaño de las empresas propiedad de mujeres. Sin embargo, otras posibles explicaciones son la falta de experiencia en la gestiÃ³n, un historial crediticio mÃ¡s dÃ©bil de las mujeres y un menor tamaÃ±o de las empresas.</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>estandar marc liderazg escol profesional tambi deb aclar resalt import liderazg escol evalu evalu general valor docent evalu escol particul dar ejempl liderazg distribu escuel secundari pued ayud brind retroaliment informal regul maestr are temat lid escol individual podri necesari equip consider falt experient diferent materi ocde dos mil nuev mism tiemp distribu liderazg escuel necesari disminu carg trabaj lid escol pued cre nuev desafi lider escolar vez requier apoy continu estandares marcos liderazgo escolar profesional tambien deben aclarar resaltar importancia liderazgo escolar evaluacion evaluacion general valoracion docentes evaluacion escolar particular dar ejemplo liderazgo distribuido escuelas secundarias puede ayudar brindar retroalimentacion informal regular maestros areas tematicas lider escolar individual podria necesariamente equipado considerar falta experiencia diferentes materias ocde dos mil nueve mismo tiempo distribuir liderazgo escuelas necesariamente disminuir carga trabajo lider escolar puede crear nuevos desafios lideres escolares vez requerir apoyo continuo</t>
+          <t>activ empresarial sig viendos obstaculiz limit pued ser especif cad sex norm cultural acces restring mujer financi aunqu fuent financi mism hombr mujer mujer suel enfrent mayor obstacul acced financi principal razon brech gener estan asoci diferent sector activ edad taman empres propied mujer embarg posibl explic falt experient gestia3n historial creditici mas dabil mujer menor tamaa empres actividades empresariales seguir ver él obstaculizadas limitaciones pueden ser especificas cada sexo normas culturales acceso restringido mujeres financiacion aunque fuentes financiacion mismas hombres mujeres mujeres soler enfrentar él mayores obstaculos acceder financiacion principales razones brecha genero estar asociadas diferencias sector actividad edad tamano empresas propiedad mujeres embargo posibles explicaciones faltar experiencia gestia3n historial crediticio mas dabil mujeres menor tamaaoir empresas</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>1909</v>
+        <v>1788</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los padres pagan una cuota máxima solo por el jardín de infancia (entre el 15,8% y el 22,5% de los costes totales en 2011, dependiendo de si el jardín es público o privado). Los condados son responsables de la educación secundaria superior, que financian mediante impuestos y subvenciones globales. Los costes en este sector varían considerablemente de una región a otra. Se conceden subvenciones y disposiciones estatales adicionales para evitar disparidades regionales. Los jardines de infancia privados (50% de todos los jardines de infancia) también son financiados por el Estado a través de las subvenciones globales a los municipios. </t>
+          <t>Los estándares o marcos de liderazgo escolar profesional también deben aclarar y resaltar la importancia del liderazgo escolar para la evaluación y evaluación, en general, y para la valoración de docentes y la evaluación escolar, en particular. Para dar un ejemplo, el liderazgo distribuido en las escuelas secundarias puede ayudar a brindar retroalimentación informal regular a los maestros en sus áreas temáticas, algo para lo que un líder escolar individual podría no estar necesariamente equipado considerando la falta de experiencia en diferentes materias (OCDE, 2009). Al mismo tiempo, distribuir el liderazgo en las escuelas no necesariamente disminuye la carga de trabajo de un líder escolar y puede crear nuevos desafíos para los líderes escolares, quienes, a su vez, requieren un apoyo continuo.</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>padr pag cuot maxim sol jardin infanci 158 225 cost total dos mil once depend si jardin public priv cond respons educ secundari superior financi mediant impuest subvencion global cost sector vari consider region conced subvencion disposicion estatal adicional evit dispar regional jardin infanci priv cincuent jardin infanci tambi financi trav subvencion global municipi padres pagar cuota maxima solo jardin infancia 158 225 costes totales dos mil once depender si jardin publico privado condados responsables educacion secundaria superior financiar mediante impuestos subvenciones globales costes sector variar considerablemente region conceder subvenciones disposiciones estatales adicionales evitar disparidades regionales jardines infanciar privados cincuenta jardines infanciar tambien financiados traves subvenciones globales municipios</t>
+          <t>estandar marc liderazg escol profesional tambi deb aclar resalt import liderazg escol evalu evalu general valor docent evalu escol particul dar ejempl liderazg distribu escuel secundari pued ayud brind retroaliment informal regul maestr are temat lid escol individual podri necesari equip consider falt experient diferent materi ocde dos mil nuev mism tiemp distribu liderazg escuel necesari disminu carg trabaj lid escol pued cre nuev desafi lider escolar vez requier apoy continu estandares marcos liderazgo escolar profesional tambien deben aclarar resaltar importancia liderazgo escolar evaluacion evaluacion general valoracion docentes evaluacion escolar particular dar ejemplo liderazgo distribuido escuelas secundarias puede ayudar brindar retroalimentacion informal regular maestros areas tematicas lider escolar individual podria necesariamente equipado considerar falta experiencia diferentes materias ocde dos mil nueve mismo tiempo distribuir liderazgo escuelas necesariamente disminuir carga trabajo lider escolar puede crear nuevos desafios lideres escolares vez requerir apoyo continuo</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>752</v>
+        <v>1909</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Una posible explicación de esto es que a medida que las naciones se vuelven más ricas, las personas otorgan mayor valor a la salud y quieren gastar una mayor parte de sus ingresos en mejorar su salud (Fogel 2008). La “elasticidad del ingreso” varía mucho en los resultados empíricos y si la atención médica es un bien de lujo o una necesidad es todavía un tema sin resolver. Los resultados de las provincias de EE. UU. y Canadá, así como los datos a nivel nacional de 16 países de la OCDE, confirman que las estimaciones del tamaño de la elasticidad del ingreso varían según el nivel de análisis, siendo la elasticidad del ingreso internacional generalmente mayor que las elasticidades estimadas en estudios nacionales o regionales. (Di Mateo, 2003).</t>
+          <t xml:space="preserve">Los padres pagan una cuota máxima solo por el jardín de infancia (entre el 15,8% y el 22,5% de los costes totales en 2011, dependiendo de si el jardín es público o privado). Los condados son responsables de la educación secundaria superior, que financian mediante impuestos y subvenciones globales. Los costes en este sector varían considerablemente de una región a otra. Se conceden subvenciones y disposiciones estatales adicionales para evitar disparidades regionales. Los jardines de infancia privados (50% de todos los jardines de infancia) también son financiados por el Estado a través de las subvenciones globales a los municipios. </t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>posibl explic med nacion vuelv mas ric person otorg mayor valor salud quier gast mayor part ingres mejor salud fogel dos mil ocho elast ingres vari result empir si atencion medic bien luj neces todavi tem resolv result provinci ee uu can asi dat nivel nacional dieciseis pais ocde confirm estim taman elast ingres vari segun nivel analisis siend elast ingres internacional general mayor elast estim estudi nacional regional di mate dos mil tres posible explicacion medida naciones volver mas ricas personas otorgar mayor valor salud querer gastar mayor parte ingresos mejorar salud fogel dos mil ocho elasticidad ingreso varia resultados empiricos si atencion medica bien lujo necesidad todavia tema resolver resultados provincias ee uu canada asi datos nivel nacional dieciseis paises ocde confirmar estimaciones tamano elasticidad ingreso variar segun  nivel analisis siendo elasticidad ingreso internacional generalmente mayor elasticidades estimadas estudios nacionales regionales di mateo dos mil tres</t>
+          <t>padr pag cuot maxim sol jardin infanci 158 225 cost total dos mil once depend si jardin public priv cond respons educ secundari superior financi mediant impuest subvencion global cost sector vari consider region conced subvencion disposicion estatal adicional evit dispar regional jardin infanci priv cincuent jardin infanci tambi financi trav subvencion global municipi padres pagar cuota maxima solo jardin infancia 158 225 costes totales dos mil once depender si jardin publico privado condados responsables educacion secundaria superior financiar mediante impuestos subvenciones globales costes sector variar considerablemente region conceder subvenciones disposiciones estatales adicionales evitar disparidades regionales jardines infanciar privados cincuenta jardines infanciar tambien financiados traves subvenciones globales municipios</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2779</v>
+        <v>752</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Estas mujeres han establecido familias con responsabilidades familiares reducidas, amplia experiencia, un electorado leal y son económicamente estables. Estas mujeres también pueden ser asesoradas por otras mujeres con autoridad política. El nombramiento de mujeres líderes en puestos de autoridad ha resultado eficaz en muchos países de la Commonwealth. Rediseño de los distritos electorales: las investigaciones han demostrado que las mujeres ganan más escaños abiertos (nuevos distritos electorales) que los distritos electorales bien establecidos. La creación de nuevos distritos o ayuntamientos puede extraerse en función del aumento de población. Involucrar a campeones masculinos: en la práctica, es importante asociarse con hombres que tienen un control del poder de larga data y sensibilizarlos para que comprendan la equidad de género, la igualdad y la integración.</t>
+          <t>Una posible explicación de esto es que a medida que las naciones se vuelven más ricas, las personas otorgan mayor valor a la salud y quieren gastar una mayor parte de sus ingresos en mejorar su salud (Fogel 2008). La “elasticidad del ingreso” varía mucho en los resultados empíricos y si la atención médica es un bien de lujo o una necesidad es todavía un tema sin resolver. Los resultados de las provincias de EE. UU. y Canadá, así como los datos a nivel nacional de 16 países de la OCDE, confirman que las estimaciones del tamaño de la elasticidad del ingreso varían según el nivel de análisis, siendo la elasticidad del ingreso internacional generalmente mayor que las elasticidades estimadas en estudios nacionales o regionales. (Di Mateo, 2003).</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>mujer establec famili respons familiar reduc ampli experient elector leal econom establ mujer tambi pued ser asesor mujer autor polit nombramient mujer lider puest autor result eficaz pais commonwealth redisen distrit electoral investig demostr mujer gan mas escan abiert nuev distrit electoral distrit electoral bien establec creacion nuev distrit ayunt pued extra funcion aument poblacion involucr campeon masculin practic import asoci hombr control pod larg dat sensibiliz comprend equid gener iguald integr mujeres establecido familias responsabilidades familiares reducidas amplia experiencia electorado leal economicamente estables mujeres tambien pueden ser asesorar mujeres autoridad politica nombramiento mujeres lideres puestos autoridad resultado eficaz paises commonwealth redisenir distritos electorales investigaciones demostrado mujeres ganar mas escanos abiertos nuevos distritos electorales distritos electorales bien establecidos creacion nuevos distritos ayuntamientos puede extraer él funcion aumento poblacion involucrar campeones masculinos practicar importante asociar él hombres control poder larga datar sensibilizarlos comprender equidad genero igualdad integracion</t>
+          <t>posibl explic med nacion vuelv mas ric person otorg mayor valor salud quier gast mayor part ingres mejor salud fogel dos mil ocho elast ingres vari result empir si atencion medic bien luj neces todavi tem resolv result provinci ee uu can asi dat nivel nacional dieciseis pais ocde confirm estim taman elast ingres vari segun nivel analisis siend elast ingres internacional general mayor elast estim estudi nacional regional di mate dos mil tres posible explicacion medida naciones volver mas ricas personas otorgar mayor valor salud querer gastar mayor parte ingresos mejorar salud fogel dos mil ocho elasticidad ingreso varia resultados empiricos si atencion medica bien lujo necesidad todavia tema resolver resultados provincias ee uu canada asi datos nivel nacional dieciseis paises ocde confirmar estimaciones tamano elasticidad ingreso variar segun  nivel analisis siendo elasticidad ingreso internacional generalmente mayor elasticidades estimadas estudios nacionales regionales di mateo dos mil tres</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>520</v>
+        <v>2779</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>El modelo de microsimulación actualmente proyecta el estado de salud y las transiciones del estado de salud a nivel individual, y CBO está desarrollando una metodología para proyectar la elegibilidad para Medicare y Medicaid a nivel individual. El estado de salud está vinculado a la mortalidad, y un mayor desarrollo vinculará el estado de salud con el trabajo, el estado civil, la fertilidad y los gastos federales de atención médica (Topoleski y Manchester, 2009). La población cambia a través de nacimientos, muertes e inmigración.</t>
+          <t>Estas mujeres han establecido familias con responsabilidades familiares reducidas, amplia experiencia, un electorado leal y son económicamente estables. Estas mujeres también pueden ser asesoradas por otras mujeres con autoridad política. El nombramiento de mujeres líderes en puestos de autoridad ha resultado eficaz en muchos países de la Commonwealth. Rediseño de los distritos electorales: las investigaciones han demostrado que las mujeres ganan más escaños abiertos (nuevos distritos electorales) que los distritos electorales bien establecidos. La creación de nuevos distritos o ayuntamientos puede extraerse en función del aumento de población. Involucrar a campeones masculinos: en la práctica, es importante asociarse con hombres que tienen un control del poder de larga data y sensibilizarlos para que comprendan la equidad de género, la igualdad y la integración.</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>model microsimul actual proyect salud transicion salud nivel individual cbo desarroll metodologi proyect elegibil medicar medic nivel individual salud vincul mortal mayor desarroll vincul salud trabaj civil fertil gast federal atencion medic topoleski manchest dos mil nuev poblacion cambi trav nacimient muert inmigr modelo microsimulacion actualmente proyectar salud transiciones salud nivel individual cbo desarrollar metodologia proyectar elegibilidad medicare medicaid nivel individual salud vinculado mortalidad mayor desarrollo vincular salud trabajo civil fertilidad gastos federales atencion medica topoleski manchester dos mil nueve poblacion cambiar traves nacimientos muertes inmigracion</t>
+          <t>mujer establec famili respons familiar reduc ampli experient elector leal econom establ mujer tambi pued ser asesor mujer autor polit nombramient mujer lider puest autor result eficaz pais commonwealth redisen distrit electoral investig demostr mujer gan mas escan abiert nuev distrit electoral distrit electoral bien establec creacion nuev distrit ayunt pued extra funcion aument poblacion involucr campeon masculin practic import asoci hombr control pod larg dat sensibiliz comprend equid gener iguald integr mujeres establecido familias responsabilidades familiares reducidas amplia experiencia electorado leal economicamente estables mujeres tambien pueden ser asesorar mujeres autoridad politica nombramiento mujeres lideres puestos autoridad resultado eficaz paises commonwealth redisenir distritos electorales investigaciones demostrado mujeres ganar mas escanos abiertos nuevos distritos electorales distritos electorales bien establecidos creacion nuevos distritos ayuntamientos puede extraer él funcion aumento poblacion involucrar campeones masculinos practicar importante asociar él hombres control poder larga datar sensibilizarlos comprender equidad genero igualdad integracion</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>1783</v>
+        <v>520</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Los cursos eran obligatorios dentro del grupo de materias de matemáticas y fueron revisados ​​en 1990 y 1997 para responder a los avances tecnológicos. Cuando Tailandia introdujo un nuevo currículo de educación básica en 2001, incluyó estándares sobre lo que los estudiantes de los 12 grados deberían saber sobre las TIC. La educación tecnológica comprendía las TIC y los contenidos sobre diseño y tecnología. Tailandia amplió sus esfuerzos para integrar las TIC en la educación mediante el desarrollo de una serie de documentos de estrategia de cuatro años y enmiendas al plan de estudios de educación básica.</t>
+          <t>El modelo de microsimulación actualmente proyecta el estado de salud y las transiciones del estado de salud a nivel individual, y CBO está desarrollando una metodología para proyectar la elegibilidad para Medicare y Medicaid a nivel individual. El estado de salud está vinculado a la mortalidad, y un mayor desarrollo vinculará el estado de salud con el trabajo, el estado civil, la fertilidad y los gastos federales de atención médica (Topoleski y Manchester, 2009). La población cambia a través de nacimientos, muertes e inmigración.</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>curs obligatori dentr grup materi matemat revis mil novecient novent mil novecient novent y siet respond avanc tecnolog tailandi introduj nuev curricul educ basic dos mil uno inclu estandar estudi doc grad deberi sab tic educ tecnolog comprendi tic conten disen tecnologi tailandi ampli esfuerz integr tic educ mediant desarroll seri document estrategi cuatr anos enmiend plan estudi educ basic cursos obligatorios dentro grupo materias matematicas revisados mil novecientos noventa mil novecientos noventa y siete responder avances tecnologicos tailandia introducir nuevo curriculo educacion basica dos mil uno incluyo estandares estudiantes doce grados deberiar saber tic educacion tecnologica comprendia tic contenidos diseno tecnologia tailandia amplio esfuerzos integrar tic educacion mediante desarrollo serie documentos estrategiar cuatro anos enmiendas plar estudios educacion basica</t>
+          <t>model microsimul actual proyect salud transicion salud nivel individual cbo desarroll metodologi proyect elegibil medicar medic nivel individual salud vincul mortal mayor desarroll vincul salud trabaj civil fertil gast federal atencion medic topoleski manchest dos mil nuev poblacion cambi trav nacimient muert inmigr modelo microsimulacion actualmente proyectar salud transiciones salud nivel individual cbo desarrollar metodologia proyectar elegibilidad medicare medicaid nivel individual salud vinculado mortalidad mayor desarrollo vincular salud trabajo civil fertilidad gastos federales atencion medica topoleski manchester dos mil nueve poblacion cambiar traves nacimientos muertes inmigracion</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2859</v>
+        <v>1783</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Obliga a los partidos políticos a garantizar la paridad de género al designar candidatos en las elecciones al Congreso federal y local y a alternar nombres masculinos y femeninos en sus listas de candidatos. La medida supuso una mejora decisiva con respecto al requisito constitucional anterior de que al menos el 40% de los diputados de la Asamblea fueran del mismo sexo (OCDE, 2017b). Sin embargo, entre 2013 y 2016, ningún otro país se sumó a los 10 que declararon practicar las cuotas legislativas, aunque Francia las adoptó en 2013 a nivel subnacional.</t>
+          <t>Los cursos eran obligatorios dentro del grupo de materias de matemáticas y fueron revisados ​​en 1990 y 1997 para responder a los avances tecnológicos. Cuando Tailandia introdujo un nuevo currículo de educación básica en 2001, incluyó estándares sobre lo que los estudiantes de los 12 grados deberían saber sobre las TIC. La educación tecnológica comprendía las TIC y los contenidos sobre diseño y tecnología. Tailandia amplió sus esfuerzos para integrar las TIC en la educación mediante el desarrollo de una serie de documentos de estrategia de cuatro años y enmiendas al plan de estudios de educación básica.</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>oblig part polit garantiz parid gener design candidat eleccion congres federal local altern nombr masculin femenin list candidat med supus mejor decis respect requisit constitucional anterior men cuarent diput asamble mism sex ocde 2017b embarg dos mil trec dos mil dieciseis ningun pais sum diez declar practic cuot legisl aunqu franci adopt dos mil trec nivel subnacional obligar partidos politicos garantizar paridad genero designar candidatos elecciones congreso federal local alternar nombres masculinos femeninos listas candidatos medida suponer mejora decisiva respecto requisito constitucional anterior menos cuarenta diputados asamblea mismo sexo ocde 2017b embargo dos mil trece dos mil dieciseis ningun pais sumo diez declarar practicar cuotas legislativas aunque francia adopto dos mil trece nivel subnacional</t>
+          <t>curs obligatori dentr grup materi matemat revis mil novecient novent mil novecient novent y siet respond avanc tecnolog tailandi introduj nuev curricul educ basic dos mil uno inclu estandar estudi doc grad deberi sab tic educ tecnolog comprendi tic conten disen tecnologi tailandi ampli esfuerz integr tic educ mediant desarroll seri document estrategi cuatr anos enmiend plan estudi educ basic cursos obligatorios dentro grupo materias matematicas revisados mil novecientos noventa mil novecientos noventa y siete responder avances tecnologicos tailandia introducir nuevo curriculo educacion basica dos mil uno incluyo estandares estudiantes doce grados deberiar saber tic educacion tecnologica comprendia tic contenidos diseno tecnologia tailandia amplio esfuerzos integrar tic educacion mediante desarrollo serie documentos estrategiar cuatro anos enmiendas plar estudios educacion basica</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>1745</v>
+        <v>2859</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Los comentarios están diseñados para ser valiosos como informes independientes, pero también están preparados para que puedan convertirse en la primera fase de una revisión completa, si así lo desea un país. El estudio de la OCDE, Habilidades más allá de la escuela, aborda la variedad de cuestiones de política que surgen, incluida la financiación y la gobernanza, la conciliación de la oferta y la demanda, la garantía de la calidad y la equidad y el acceso. El estudio se basará en el éxito del estudio anterior de la OCDE sobre educación y formación profesional Learning for Jobs, que examinó la política a través de 17 revisiones de países y un informe comparativo.</t>
+          <t>Obliga a los partidos políticos a garantizar la paridad de género al designar candidatos en las elecciones al Congreso federal y local y a alternar nombres masculinos y femeninos en sus listas de candidatos. La medida supuso una mejora decisiva con respecto al requisito constitucional anterior de que al menos el 40% de los diputados de la Asamblea fueran del mismo sexo (OCDE, 2017b). Sin embargo, entre 2013 y 2016, ningún otro país se sumó a los 10 que declararon practicar las cuotas legislativas, aunque Francia las adoptó en 2013 a nivel subnacional.</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>comentari estan disen ser valios inform independient tambi estan prepar pued convert primer fas revision complet si asi dese pais estudi ocde habil mas alla escuel abord varied cuestion polit surg inclu financi gobern concili ofert demand garanti calid equid acces estudi bas exit estudi anterior ocde educ formacion profesional learning for jobs examin polit trav diecisiet revision pais inform compar comentarios estar disenados ser valiosos informes independientes tambien estan preparados puedan convertir él primera fase revision completar si asi desear pais estudio ocde habilidades mas alla escuela aborda variedad cuestiones politica surgen incluir financiacion gobernanza conciliacion oferta demanda garantiar calidad equidad acceso estudio basar exito estudio anterior ocde educacion formacion profesional learning for jobs examino politica traves diecisiete revisiones paises informe comparativo</t>
+          <t>oblig part polit garantiz parid gener design candidat eleccion congres federal local altern nombr masculin femenin list candidat med supus mejor decis respect requisit constitucional anterior men cuarent diput asamble mism sex ocde 2017b embarg dos mil trec dos mil dieciseis ningun pais sum diez declar practic cuot legisl aunqu franci adopt dos mil trec nivel subnacional obligar partidos politicos garantizar paridad genero designar candidatos elecciones congreso federal local alternar nombres masculinos femeninos listas candidatos medida suponer mejora decisiva respecto requisito constitucional anterior menos cuarenta diputados asamblea mismo sexo ocde 2017b embargo dos mil trece dos mil dieciseis ningun pais sumo diez declarar practicar cuotas legislativas aunque francia adopto dos mil trece nivel subnacional</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>2127</v>
+        <v>1745</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>En primer lugar, las mujeres suelen vivir más que los hombres. En segundo lugar, tienen menos acceso que los hombres a la tierra y a otros bienes que podrían ayudarles a mantener un nivel de vida adecuado en la vejez. En la India, por ejemplo, el 60% de las mujeres, frente al 30% de los hombres, no tienen bienes de valor a su nombre, y son pocas las viudas que pueden contar con el apoyo de la familia o de la comunidad.97 Incluso en países con una buena cobertura de pensiones, las mujeres tienen muchas más probabilidades de sufrir pobreza en la vejez que los hombres.</t>
+          <t>Los comentarios están diseñados para ser valiosos como informes independientes, pero también están preparados para que puedan convertirse en la primera fase de una revisión completa, si así lo desea un país. El estudio de la OCDE, Habilidades más allá de la escuela, aborda la variedad de cuestiones de política que surgen, incluida la financiación y la gobernanza, la conciliación de la oferta y la demanda, la garantía de la calidad y la equidad y el acceso. El estudio se basará en el éxito del estudio anterior de la OCDE sobre educación y formación profesional Learning for Jobs, que examinó la política a través de 17 revisiones de países y un informe comparativo.</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>prim lug mujer suel viv mas hombr segund lug men acces hombr tierr bien podri ayud manten nivel vid adecu vejez indi ejempl sesent mujer frent treint hombr bien valor nombr poc viud pued cont apoy famili comunidad97 inclus pais buen cobertur pension mujer much mas probabil sufr pobrez vejez hombr primer lugar mujeres soler vivir mas hombres segundo lugar menos acceso hombres tierrar bienes podriar ayudar él mantener nivel vida adecuado vejez india ejemplo sesenta mujeres frente treinta hombres bienes valor nombre pocas viudas pueden contar apoyo familia comunidad97 incluso paises buena cobertura pensiones mujeres muchas mas probabilidades sufrir pobreza vejez hombres</t>
+          <t>comentari estan disen ser valios inform independient tambi estan prepar pued convert primer fas revision complet si asi dese pais estudi ocde habil mas alla escuel abord varied cuestion polit surg inclu financi gobern concili ofert demand garanti calid equid acces estudi bas exit estudi anterior ocde educ formacion profesional learning for jobs examin polit trav diecisiet revision pais inform compar comentarios estar disenados ser valiosos informes independientes tambien estan preparados puedan convertir él primera fase revision completar si asi desear pais estudio ocde habilidades mas alla escuela aborda variedad cuestiones politica surgen incluir financiacion gobernanza conciliacion oferta demanda garantiar calidad equidad acceso estudio basar exito estudio anterior ocde educacion formacion profesional learning for jobs examino politica traves diecisiete revisiones paises informe comparativo</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>15</v>
+        <v>2127</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Estas estaciones cuentan con asistentes médicos y parteras y reportan a los hospitales locales. Estos últimos están equipados con unidades de laboratorio clínico y radiología y cuentan con uno o más médicos, un cirujano y un ginecólogo. Cuanto más cerca de los centros administrativos, más especializado es el nivel de las instalaciones y el personal. El sistema incluye dispensarios médicos especializados para ciertas enfermedades, como tuberculosis, cáncer, infecciones de transmisión sexual, trastornos psiquiátricos y enfermedades de la piel.</t>
+          <t>En primer lugar, las mujeres suelen vivir más que los hombres. En segundo lugar, tienen menos acceso que los hombres a la tierra y a otros bienes que podrían ayudarles a mantener un nivel de vida adecuado en la vejez. En la India, por ejemplo, el 60% de las mujeres, frente al 30% de los hombres, no tienen bienes de valor a su nombre, y son pocas las viudas que pueden contar con el apoyo de la familia o de la comunidad.97 Incluso en países con una buena cobertura de pensiones, las mujeres tienen muchas más probabilidades de sufrir pobreza en la vejez que los hombres.</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>estacion cuent asistent medic parter report hospital local ultim estan equip unidad laboratori clinic radiologi cuent mas medic cirujan ginecolog cuant mas cerc centr administr mas especializ nivel instal personal sistem inclu dispensari medic especializ ciert enfermedad tuberculosis canc infeccion transmision sexual trastorn psiquiatr enfermedad piel estaciones contar asistentes medicos parteras reportar hospitales locales ultimos estar equipados unidades laboratorio clinico radiologia contar mas medicos cirujano ginecologo cuanto mas cerca centros administrativos mas especializado nivel instalaciones personal sistema incluir dispensarios medicos especializados ciertas enfermedades tuberculosis cancer infecciones transmision sexual trastornos psiquiatricos enfermedades piel</t>
+          <t>prim lug mujer suel viv mas hombr segund lug men acces hombr tierr bien podri ayud manten nivel vid adecu vejez indi ejempl sesent mujer frent treint hombr bien valor nombr poc viud pued cont apoy famili comunidad97 inclus pais buen cobertur pension mujer much mas probabil sufr pobrez vejez hombr primer lugar mujeres soler vivir mas hombres segundo lugar menos acceso hombres tierrar bienes podriar ayudar él mantener nivel vida adecuado vejez india ejemplo sesenta mujeres frente treinta hombres bienes valor nombre pocas viudas pueden contar apoyo familia comunidad97 incluso paises buena cobertura pensiones mujeres muchas mas probabilidades sufrir pobreza vejez hombres</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>743</v>
+        <v>15</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Las estimaciones del Grupo Interinstitucional de las Naciones Unidas para la Estimación de la Mortalidad Infantil muestran una disminución del 50 por ciento en la mortalidad infantil entre 2000 y 2010, pero las tasas del país siguen siendo bastante altas, entre las 10 principales de la región europea. Las anomalías congénitas y la neumonía, que podrían atribuirse en parte a los puntos críticos ambientales químicos y a la contaminación del aire interior por fuentes peligrosas de calefacción y cocina, particularmente en áreas pobres, se encuentran entre las principales causas de mortalidad, y representan el 22 y el 18 por ciento, respectivamente, de todas las muertes. Según las estimaciones, en 2008, Albania se encontraba entre los 10 países con mayor mortalidad materna en la región europea, con malas condiciones sanitarias, entre otros factores contribuyentes. Por lo tanto, se necesita un esfuerzo considerable si se quiere alcanzar el ODM 5, que apunta a reducir la tasa de mortalidad materna en tres cuartas partes entre 1990 y 2015.</t>
+          <t>Estas estaciones cuentan con asistentes médicos y parteras y reportan a los hospitales locales. Estos últimos están equipados con unidades de laboratorio clínico y radiología y cuentan con uno o más médicos, un cirujano y un ginecólogo. Cuanto más cerca de los centros administrativos, más especializado es el nivel de las instalaciones y el personal. El sistema incluye dispensarios médicos especializados para ciertas enfermedades, como tuberculosis, cáncer, infecciones de transmisión sexual, trastornos psiquiátricos y enfermedades de la piel.</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>estim grup interinstitucional nacion unid estim mortal infantil muestr disminucion cincuent cient mortal infantil dos mil dos mil diez tas pais sig siend bastant altas diez principal region europe anomali congenit neumoni podri atribu part punt critic ambiental quimic contamin air interior fuent peligr calefaccion cocin particular are pobr encuentr principal caus mortal represent veint diecioch cient respect tod muert segun estim dos mil ocho albani encontr diez pais mayor mortal matern region europe mal condicion sanitari factor contribuyent necesit esfuerz consider si quier alcanz odm cinc apunt reduc tas mortal matern tres cuart part mil novecient novent dos mil quinc estimaciones grupo interinstitucional naciones unidas estimacion mortalidad infantil mostrar disminucion cincuenta ciento mortalidad infantil dos mil dos mil diez tasas pais seguir siendo bastante altas diez principales region europea anomalias congenitas neumonia podrian atribuir él parte puntos criticos ambientales quimicos contaminacion aire interior fuentes peligrosas calefaccion cocina particularmente areas pobres encontrar principales causas mortalidad representar veintidos dieciocho ciento respectivamente todas muertes segun estimaciones dos mil ocho albania encontrar diez paises mayor mortalidad materna region europea malas condiciones sanitarias factores contribuyentes necesitar esfuerzo considerable si querer alcanzar odm cinco apuntar reducir tasa mortalidad maternar tres cuartas partes mil novecientos noventa dos mil quince</t>
+          <t>estacion cuent asistent medic parter report hospital local ultim estan equip unidad laboratori clinic radiologi cuent mas medic cirujan ginecolog cuant mas cerc centr administr mas especializ nivel instal personal sistem inclu dispensari medic especializ ciert enfermedad tuberculosis canc infeccion transmision sexual trastorn psiquiatr enfermedad piel estaciones contar asistentes medicos parteras reportar hospitales locales ultimos estar equipados unidades laboratorio clinico radiologia contar mas medicos cirujano ginecologo cuanto mas cerca centros administrativos mas especializado nivel instalaciones personal sistema incluir dispensarios medicos especializados ciertas enfermedades tuberculosis cancer infecciones transmision sexual trastornos psiquiatricos enfermedades piel</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>1403</v>
+        <v>743</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>También hay evidencia de fuga de cerebros, con un estimado de 350 000 malasios trabajando en el extranjero en 2008, más de la mitad de los cuales tenían educación terciaria. En el año 2000, sólo el 8,9% de la población regional había alcanzado el nivel de educación terciaria. La economía ha dependido de la importación de mano de obra de toda Malasia y de otros países. Dentro de la Región Económica del Corredor Norte, el estado de Penang tiene una población mejor educada que los otros tres estados, pero en comparación internacional, Penang es una región poco calificada. Si bien hay un impulso para pasar a una economía de alta calificación y altos salarios, Penang sigue dependiendo de industrias y ocupaciones de baja calificación.</t>
+          <t>Las estimaciones del Grupo Interinstitucional de las Naciones Unidas para la Estimación de la Mortalidad Infantil muestran una disminución del 50 por ciento en la mortalidad infantil entre 2000 y 2010, pero las tasas del país siguen siendo bastante altas, entre las 10 principales de la región europea. Las anomalías congénitas y la neumonía, que podrían atribuirse en parte a los puntos críticos ambientales químicos y a la contaminación del aire interior por fuentes peligrosas de calefacción y cocina, particularmente en áreas pobres, se encuentran entre las principales causas de mortalidad, y representan el 22 y el 18 por ciento, respectivamente, de todas las muertes. Según las estimaciones, en 2008, Albania se encontraba entre los 10 países con mayor mortalidad materna en la región europea, con malas condiciones sanitarias, entre otros factores contribuyentes. Por lo tanto, se necesita un esfuerzo considerable si se quiere alcanzar el ODM 5, que apunta a reducir la tasa de mortalidad materna en tres cuartas partes entre 1990 y 2015.</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>tambi evident fug cerebr estim trescient cincuent cer malasi trabaj extranjer dos mil ocho mas mit cual teni educ terciari ano dos mil sol 89 poblacion regional habi alcanz nivel educ terciari economi depend import man obra tod malasi pais dentr region econom corredor nort penang poblacion mejor educ tres compar internacional penang region calific si bien impuls pas economi alta calif altos salari penang sig depend industri ocup baj calif tambien evidenciar fuga cerebros estimado trescientos cincuenta cero malasios trabajar extranjero dos mil ocho mas mitad cuales teniar educacion terciaria ano dos mil solo 89 poblacion regional habia alcanzado nivel educacion terciaria economia dependido importacion mano obra toda malasia paises dentro region economica corredor norte penang poblacionir  mejor educada tres comparacion internacional penang region calificada si bien impulso pasar economia alta calificacion altos salarios penang seguir depender industrias ocupaciones baja calificacion</t>
+          <t>estim grup interinstitucional nacion unid estim mortal infantil muestr disminucion cincuent cient mortal infantil dos mil dos mil diez tas pais sig siend bastant altas diez principal region europe anomali congenit neumoni podri atribu part punt critic ambiental quimic contamin air interior fuent peligr calefaccion cocin particular are pobr encuentr principal caus mortal represent veint diecioch cient respect tod muert segun estim dos mil ocho albani encontr diez pais mayor mortal matern region europe mal condicion sanitari factor contribuyent necesit esfuerz consider si quier alcanz odm cinc apunt reduc tas mortal matern tres cuart part mil novecient novent dos mil quinc estimaciones grupo interinstitucional naciones unidas estimacion mortalidad infantil mostrar disminucion cincuenta ciento mortalidad infantil dos mil dos mil diez tasas pais seguir siendo bastante altas diez principales region europea anomalias congenitas neumonia podrian atribuir él parte puntos criticos ambientales quimicos contaminacion aire interior fuentes peligrosas calefaccion cocina particularmente areas pobres encontrar principales causas mortalidad representar veintidos dieciocho ciento respectivamente todas muertes segun estimaciones dos mil ocho albania encontrar diez paises mayor mortalidad materna region europea malas condiciones sanitarias factores contribuyentes necesitar esfuerzo considerable si querer alcanzar odm cinco apuntar reducir tasa mortalidad maternar tres cuartas partes mil novecientos noventa dos mil quince</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>843</v>
+        <v>1403</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>El Observatorio Nacional de Buenas Prácticas para la Seguridad del Paciente de Italia promueve el intercambio y el aprendizaje a partir de los acontecimientos adversos (cont.) El aprendizaje de estos talleres se consolida y se plasma en recomendaciones nacionales aplicables en todo el país, que se publican en el portal del Observatorio. El siguiente paso, la aplicación regional de estas recomendaciones, cuenta con el apoyo de AGENAS, la autoridad nacional encargada de apoyar la I+AP para mejorar la calidad de la asistencia sanitaria.</t>
+          <t>También hay evidencia de fuga de cerebros, con un estimado de 350 000 malasios trabajando en el extranjero en 2008, más de la mitad de los cuales tenían educación terciaria. En el año 2000, sólo el 8,9% de la población regional había alcanzado el nivel de educación terciaria. La economía ha dependido de la importación de mano de obra de toda Malasia y de otros países. Dentro de la Región Económica del Corredor Norte, el estado de Penang tiene una población mejor educada que los otros tres estados, pero en comparación internacional, Penang es una región poco calificada. Si bien hay un impulso para pasar a una economía de alta calificación y altos salarios, Penang sigue dependiendo de industrias y ocupaciones de baja calificación.</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>observatori nacional buen practic segur pacient itali promuev intercambi aprendizaj part acontec advers cont aprendizaj taller consol plasm recomend nacional aplic pais public portal observatori siguient pas aplic regional recomend cuent apoy agen autor nacional encarg apoy iap mejor calid asistent sanitari observatorio nacional buenas practicas seguridad paciente italia promover intercambio aprendizaje partir acontecimientos adversos cont aprendizaje talleres consolidar plasma  recomendaciones nacionales aplicables pais publicar portal observatorio siguiente paso aplicacion regional recomendaciones contar apoyo agenas autoridad nacional encargada apoyar iap mejorar calidad asistencia sanitaria</t>
+          <t>tambi evident fug cerebr estim trescient cincuent cer malasi trabaj extranjer dos mil ocho mas mit cual teni educ terciari ano dos mil sol 89 poblacion regional habi alcanz nivel educ terciari economi depend import man obra tod malasi pais dentr region econom corredor nort penang poblacion mejor educ tres compar internacional penang region calific si bien impuls pas economi alta calif altos salari penang sig depend industri ocup baj calif tambien evidenciar fuga cerebros estimado trescientos cincuenta cero malasios trabajar extranjero dos mil ocho mas mitad cuales teniar educacion terciaria ano dos mil solo 89 poblacion regional habia alcanzado nivel educacion terciaria economia dependido importacion mano obra toda malasia paises dentro region economica corredor norte penang poblacionir  mejor educada tres comparacion internacional penang region calificada si bien impulso pasar economia alta calificacion altos salarios penang seguir depender industrias ocupaciones baja calificacion</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>683</v>
+        <v>843</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Se mide por las tasas de mortalidad específicas por edad para determinadas causas de muerte (por ejemplo, asma por debajo de los 45 años). Sin embargo, no existe una definición universal, ya que la selección de las causas de muerte y los límites de edad suelen variar de un estudio a otro. Nolte y McKee (2008), así como Tobias y Yeh (2009), han propuesto diferentes listas de causas de muerte y límites de edad.</t>
+          <t>El Observatorio Nacional de Buenas Prácticas para la Seguridad del Paciente de Italia promueve el intercambio y el aprendizaje a partir de los acontecimientos adversos (cont.) El aprendizaje de estos talleres se consolida y se plasma en recomendaciones nacionales aplicables en todo el país, que se publican en el portal del Observatorio. El siguiente paso, la aplicación regional de estas recomendaciones, cuenta con el apoyo de AGENAS, la autoridad nacional encargada de apoyar la I+AP para mejorar la calidad de la asistencia sanitaria.</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>mid tas mortal especif edad determin caus muert ejempl asma debaj cuarent y cinc anos embarg exist definicion universal seleccion caus muert limit edad suel vari estudi nolt mcke dos mil ocho asi tobi yeh dos mil nuev propuest diferent list caus muert limit edad medir tasas mortalidad especificas edad determinadas causas muerte ejemplo asma debajo cuarenta y cinco anos embargo existir definicion universal seleccion causas muerte limites edad soler variar estudio nolte mckee dos mil ocho asi tobias yeh dos mil nueve propuesto diferentes listas causas muerte limites edad</t>
+          <t>observatori nacional buen practic segur pacient itali promuev intercambi aprendizaj part acontec advers cont aprendizaj taller consol plasm recomend nacional aplic pais public portal observatori siguient pas aplic regional recomend cuent apoy agen autor nacional encarg apoy iap mejor calid asistent sanitari observatorio nacional buenas practicas seguridad paciente italia promover intercambio aprendizaje partir acontecimientos adversos cont aprendizaje talleres consolidar plasma  recomendaciones nacionales aplicables pais publicar portal observatorio siguiente paso aplicacion regional recomendaciones contar apoyo agenas autoridad nacional encargada apoyar iap mejorar calidad asistencia sanitaria</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>1502</v>
+        <v>683</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>A pesar de este objetivo, sin embargo, no se encontró información directamente vinculada con el campo de las TIC en la formación inicial del profesorado. Este es el caso de la República Checa y Grecia. A la fecha, 92 000 docentes (76% en total) ya se han familiarizado con las aplicaciones informáticas básicas, mientras que el resto de los docentes se encuentra actualmente asistiendo a dichos cursos.</t>
+          <t>Se mide por las tasas de mortalidad específicas por edad para determinadas causas de muerte (por ejemplo, asma por debajo de los 45 años). Sin embargo, no existe una definición universal, ya que la selección de las causas de muerte y los límites de edad suelen variar de un estudio a otro. Nolte y McKee (2008), así como Tobias y Yeh (2009), han propuesto diferentes listas de causas de muerte y límites de edad.</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>pes objet embarg encontr inform direct vincul camp tic formacion inicial profesor cas republ chec greci fech novent y dos cer docent setent y seis total familiariz aplic informat basic mientr rest docent encuentr actual asist dich curs pesar objetivo embargo encontro informacion directamente vinculada campo tic formacion inicial profesorado caso republica checa grecia fecha noventa y dos cero docentes setenta y seis total familiarizado aplicaciones informaticas basicas mientras resto docentes encontrar actualmente asistir dichos cursos</t>
+          <t>mid tas mortal especif edad determin caus muert ejempl asma debaj cuarent y cinc anos embarg exist definicion universal seleccion caus muert limit edad suel vari estudi nolt mcke dos mil ocho asi tobi yeh dos mil nuev propuest diferent list caus muert limit edad medir tasas mortalidad especificas edad determinadas causas muerte ejemplo asma debajo cuarenta y cinco anos embargo existir definicion universal seleccion causas muerte limites edad soler variar estudio nolte mckee dos mil ocho asi tobias yeh dos mil nueve propuesto diferentes listas causas muerte limites edad</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>2424</v>
+        <v>1502</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Los jóvenes asisten a los Centros o sitios de extensión cercanos a sus hogares y brindan a sus respectivos gerentes de extensión informes sobre sus actividades. Señala que “se deben hacer esfuerzos especiales para enfatizar la responsabilidad compartida de los hombres y promover su participación activa en la paternidad responsable, el comportamiento sexual y reproductivo, incluida la planificación familiar, la salud prenatal, materna e infantil, la prevención de enfermedades de transmisión sexual, incluido el VIH, [y] la prevención de embarazos no deseados y de alto riesgo" (párrafo 4.27). Las campañas efectivas generalmente van más allá de simplemente proporcionar información para alentar a los niños y hombres a hablar sobre temas específicos, como la violencia contra la mujer. Algunas campañas efectivas también utilizan mensajes relacionados con estilos de vida equitativos de género, en cierto sentido promoviendo o reforzando tipos específicos de identidad masculina.</t>
+          <t>A pesar de este objetivo, sin embargo, no se encontró información directamente vinculada con el campo de las TIC en la formación inicial del profesorado. Este es el caso de la República Checa y Grecia. A la fecha, 92 000 docentes (76% en total) ya se han familiarizado con las aplicaciones informáticas básicas, mientras que el resto de los docentes se encuentra actualmente asistiendo a dichos cursos.</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>joven asist centr siti extension cercan hogar brind respect gerent extension inform activ senal deb hac esfuerz especial enfatiz respons compart hombr promov particip activ patern respons comport sexual reproduct inclu planif famili salud prenatal matern infantil prevencion enfermedad transmision sexual inclu vih prevencion embaraz des alto riesg parraf 427 campan efect general van mas alla simplement proporcion inform alent nin hombr habl tem especif violenci muj campan efect tambi utiliz mensaj relacion estil vid equit gener ciert promov reforz tip especif ident masculin jovenes asistir centros sitios extension cercanos hogares brindar respectivos gerentes extension informes actividades senala deben hacer esfuerzos especiales enfatizar responsabilidad compartida hombres promover participacion activa paternidad responsable comportamiento sexual reproductivo incluida planificacion familiar salud prenatal materna infantil prevencion enfermedades transmision sexual incluido vih prevencion embarazos deseados alto riesgo parrafo 427 campanas efectivas generalmente ir mas allar simplemente proporcionar informacion alentar ninos hombres hablar temas especificos violencia mujer campanas efectivas tambien utilizar mensajes relacionados estilos vida equitativos genero cierto promoviendo reforzar tipos especificos identidad masculina</t>
+          <t>pes objet embarg encontr inform direct vincul camp tic formacion inicial profesor cas republ chec greci fech novent y dos cer docent setent y seis total familiariz aplic informat basic mientr rest docent encuentr actual asist dich curs pesar objetivo embargo encontro informacion directamente vinculada campo tic formacion inicial profesorado caso republica checa grecia fecha noventa y dos cero docentes setenta y seis total familiarizado aplicaciones informaticas basicas mientras resto docentes encontrar actualmente asistir dichos cursos</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>493</v>
+        <v>2424</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Se espera que la primera compra centralizada de medicamentos en diciembre de 2012 ahorre 80 millones de euros (Gallo y Gene-Badia, 2013. Grecia restableció el Comité de Adquisiciones de Salud que supervisa el Programa de Adquisiciones de Servicios de Salud (conocido como PPYY). Los proveedores de atención médica envían sus solicitudes de productos para el cuidado de la salud, incluidos dispositivos y medicamentos hospitalarios, a PPYY.</t>
+          <t>Los jóvenes asisten a los Centros o sitios de extensión cercanos a sus hogares y brindan a sus respectivos gerentes de extensión informes sobre sus actividades. Señala que “se deben hacer esfuerzos especiales para enfatizar la responsabilidad compartida de los hombres y promover su participación activa en la paternidad responsable, el comportamiento sexual y reproductivo, incluida la planificación familiar, la salud prenatal, materna e infantil, la prevención de enfermedades de transmisión sexual, incluido el VIH, [y] la prevención de embarazos no deseados y de alto riesgo" (párrafo 4.27). Las campañas efectivas generalmente van más allá de simplemente proporcionar información para alentar a los niños y hombres a hablar sobre temas específicos, como la violencia contra la mujer. Algunas campañas efectivas también utilizan mensajes relacionados con estilos de vida equitativos de género, en cierto sentido promoviendo o reforzando tipos específicos de identidad masculina.</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>esper primer compr centraliz medicament diciembr dos mil doc ahorr ochent millon eur gall genebadi dos mil trec greci restableci comit adquisicion salud supervis program adquisicion servici salud conoc ppyy proveedor atencion medic envi solicitud product cuid salud inclu disposit medicament hospitalari ppyy esperar primera compra centralizada medicamentos diciembre dos mil doce ahorre ochenta millones euros gallo genebadia dos mil trece grecia restablecio cometer adquisiciones salud supervisa programa adquisiciones servicios salud conocido ppyy  proveedores atencion medica enviar solicitudes productos cuidado salud incluidos dispositivos medicamentos hospitalarios ppyy</t>
+          <t>joven asist centr siti extension cercan hogar brind respect gerent extension inform activ senal deb hac esfuerz especial enfatiz respons compart hombr promov particip activ patern respons comport sexual reproduct inclu planif famili salud prenatal matern infantil prevencion enfermedad transmision sexual inclu vih prevencion embaraz des alto riesg parraf 427 campan efect general van mas alla simplement proporcion inform alent nin hombr habl tem especif violenci muj campan efect tambi utiliz mensaj relacion estil vid equit gener ciert promov reforz tip especif ident masculin jovenes asistir centros sitios extension cercanos hogares brindar respectivos gerentes extension informes actividades senala deben hacer esfuerzos especiales enfatizar responsabilidad compartida hombres promover participacion activa paternidad responsable comportamiento sexual reproductivo incluida planificacion familiar salud prenatal materna infantil prevencion enfermedades transmision sexual incluido vih prevencion embarazos deseados alto riesgo parrafo 427 campanas efectivas generalmente ir mas allar simplemente proporcionar informacion alentar ninos hombres hablar temas especificos violencia mujer campanas efectivas tambien utilizar mensajes relacionados estilos vida equitativos genero cierto promoviendo reforzar tipos especificos identidad masculina</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>1518</v>
+        <v>493</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Más precisamente, se está prestando especial atención a la formación inicial, entre otros aspectos. Los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años, lo que significa una extensión de un año en la formación docente. No obstante, las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el Gobierno español.</t>
+          <t>Se espera que la primera compra centralizada de medicamentos en diciembre de 2012 ahorre 80 millones de euros (Gallo y Gene-Badia, 2013. Grecia restableció el Comité de Adquisiciones de Salud que supervisa el Programa de Adquisiciones de Servicios de Salud (conocido como PPYY). Los proveedores de atención médica envían sus solicitudes de productos para el cuidado de la salud, incluidos dispositivos y medicamentos hospitalarios, a PPYY.</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>mas precis prest especial atencion formacion inicial aspect futur maestr nivel deb obten titul licenciatur cuatr anos signif extension ano formacion docent obstant univers espanol deber elabor program formacion inicial profesor acuerd directric marc gobiern espanol mas precisamente prestar especial atencion formacion inicial aspectos futuros maestros niveles deben obtener titulos licenciaturar cuatro anos significar extension ano formacion docente obstante universidades espanolas deberan elaborar programas formacion inicial profesorado acuerdo directrices marcadas gobierno espanol</t>
+          <t>esper primer compr centraliz medicament diciembr dos mil doc ahorr ochent millon eur gall genebadi dos mil trec greci restableci comit adquisicion salud supervis program adquisicion servici salud conoc ppyy proveedor atencion medic envi solicitud product cuid salud inclu disposit medicament hospitalari ppyy esperar primera compra centralizada medicamentos diciembre dos mil doce ahorre ochenta millones euros gallo genebadia dos mil trece grecia restablecio cometer adquisiciones salud supervisa programa adquisiciones servicios salud conocido ppyy  proveedores atencion medica enviar solicitudes productos cuidado salud incluidos dispositivos medicamentos hospitalarios ppyy</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>930</v>
+        <v>1518</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Las prisiones de varios estados han permitido que los reclusos indígenas practiquen la cabaña de sudación y otras ceremonias religiosas tribales como parte de su rehabilitación. La medicina tradicional utiliza un modelo holístico de bienestar mediante la integración de los aspectos emocionales, físicos, mentales y espirituales del ser. Aunque las prácticas específicas varían entre las distintas tribus, toda la medicina tradicional se basa en el entendimiento de que los seres humanos forman parte de la naturaleza y la salud es una cuestión de equilibrio. Por lo tanto, se respeta la tierra y todas sus ofrendas. Tradicionalmente, los ancianos comprendían la importancia de respetar y utilizar su entorno para obtener alimentos, medicinas y ceremonias para la salud en general.</t>
+          <t>Más precisamente, se está prestando especial atención a la formación inicial, entre otros aspectos. Los futuros maestros en estos niveles deben obtener títulos de licenciatura de cuatro años, lo que significa una extensión de un año en la formación docente. No obstante, las universidades españolas deberán elaborar los programas de formación inicial del profesorado de acuerdo con las directrices marcadas por el Gobierno español.</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>prision vari permit reclus indigen practiqu caban sudacion ceremoni religi tribal part rehabilit medicin tradicional utiliz model holist bienest mediant integr aspect emocional fisic mental espiritual ser aunqu practic especif vari distint tribus tod medicin tradicional bas entend ser human form part naturalez salud cuestion equilibri respet tierr tod ofrend tradicional ancian comprendi import respet utiliz entorn obten aliment medicin ceremoni salud general prisiones varios permitido reclusos indigenas practiquir cabana sudacion ceremonias religiosas tribales parte rehabilitacion medicina tradicional utilizar modelo holistico bienestar mediante integracion aspectos emocionales fisicos mentales espirituales ser aunque practicas especificas variar distintas tribus toda medicina tradicional basa entendimiento seres humanos formar parte naturaleza salud cuestion equilibrio respetar tierra todas ofrendas tradicionalmente ancianos comprendiar importancia respetar utilizar entorno obtener alimentos medicinas ceremonias salud general</t>
+          <t>mas precis prest especial atencion formacion inicial aspect futur maestr nivel deb obten titul licenciatur cuatr anos signif extension ano formacion docent obstant univers espanol deber elabor program formacion inicial profesor acuerd directric marc gobiern espanol mas precisamente prestar especial atencion formacion inicial aspectos futuros maestros niveles deben obtener titulos licenciaturar cuatro anos significar extension ano formacion docente obstante universidades espanolas deberan elaborar programas formacion inicial profesorado acuerdo directrices marcadas gobierno espanol</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>1503</v>
+        <v>930</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tras la reforma de la Folkeskole de 2014 y la introducción de un nuevo arreglo para la utilización del tiempo de trabajo de los docentes, se espera que los docentes enseñen más horas. Como resultado, los maestros pasan menos tiempo para la preparación y otras tareas. En general, se han vuelto a priorizar los recursos, desde la preparación y otras tareas hasta la enseñanza. Esto requiere un ajuste por parte de los maestros para prepararse para sus lecciones y trabajar de otra manera (por ejemplo, compartiendo materiales didácticos en mayor medida) para cumplir con otras tareas que les exige el liderazgo escolar. De acuerdo con la Ley de Folkeskole, el director de la escuela es responsable de la calidad de la enseñanza de la escuela, así como de la gestión administrativa y pedagógica general de la escuela. Como resultado, la responsabilidad principal de diseñar, introducir y organizar los procedimientos de evaluación de docentes dentro de la escuela recae en el director de la escuela.</t>
+          <t>Las prisiones de varios estados han permitido que los reclusos indígenas practiquen la cabaña de sudación y otras ceremonias religiosas tribales como parte de su rehabilitación. La medicina tradicional utiliza un modelo holístico de bienestar mediante la integración de los aspectos emocionales, físicos, mentales y espirituales del ser. Aunque las prácticas específicas varían entre las distintas tribus, toda la medicina tradicional se basa en el entendimiento de que los seres humanos forman parte de la naturaleza y la salud es una cuestión de equilibrio. Por lo tanto, se respeta la tierra y todas sus ofrendas. Tradicionalmente, los ancianos comprendían la importancia de respetar y utilizar su entorno para obtener alimentos, medicinas y ceremonias para la salud en general.</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>tras reform folkeskol dos mil catorc introduccion nuev arregl utiliz tiemp trabaj docent esper docent ensen mas hor result maestr pas men tiemp prepar tar general vuelt prioriz recurs prepar tar ensen requier ajust part maestr prepar leccion trabaj maner ejempl compart material didact mayor med cumpl tar exig liderazg escol acuerd ley folkeskol director escuel respons calid ensen escuel asi gestion administr pedagog general escuel result respons principal disen introduc organiz proced evalu docent dentr escuel reca director escuel tras reforma folkeskole dos mil catorce introduccion nuevo arreglo utilizacion tiempo trabajar docentes esperar docentes ensenir mas horas resultado maestros pasar menos tiempo preparacion tareas general vuelto priorizar recursos preparacion tareas ensenanza requerir ajuste parte maestros preparar él lecciones trabajar manera ejemplo compartir materiales didacticos mayor medida cumplir tareas exigir liderazgo escolar acuerdo ley folkeskole director escuela responsable calidad ensenanza escuela asi gestion administrativa pedagogica general escuela resultado responsabilidad principal disenar introducir organizar procedimientos evaluacion docentes dentro escuela recae director escuela</t>
+          <t>prision vari permit reclus indigen practiqu caban sudacion ceremoni religi tribal part rehabilit medicin tradicional utiliz model holist bienest mediant integr aspect emocional fisic mental espiritual ser aunqu practic especif vari distint tribus tod medicin tradicional bas entend ser human form part naturalez salud cuestion equilibri respet tierr tod ofrend tradicional ancian comprendi import respet utiliz entorn obten aliment medicin ceremoni salud general prisiones varios permitido reclusos indigenas practiquir cabana sudacion ceremonias religiosas tribales parte rehabilitacion medicina tradicional utilizar modelo holistico bienestar mediante integracion aspectos emocionales fisicos mentales espirituales ser aunque practicas especificas variar distintas tribus toda medicina tradicional basa entendimiento seres humanos formar parte naturaleza salud cuestion equilibrio respetar tierra todas ofrendas tradicionalmente ancianos comprendiar importancia respetar utilizar entorno obtener alimentos medicinas ceremonias salud general</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>597</v>
+        <v>1503</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>La mayoría de las admisiones involuntarias de salud mental están bajo la Ley de Salud Mental de 1983. Es importante destacar que esta Ley codificó los roles profesionales de aquellos con el poder de solicitar la detención de un paciente, específicamente los poderes que tiene un Trabajador Social Aprobado (ASW), y estipuló capacitación específica del personal para cualquier persona que administre el acto (Rapaport y Manthorpe, 2009). La Ley de Salud Mental de 1995 otorgó a las autoridades nuevos poderes sobre las personas dadas de alta del hospital.</t>
+          <t>Tras la reforma de la Folkeskole de 2014 y la introducción de un nuevo arreglo para la utilización del tiempo de trabajo de los docentes, se espera que los docentes enseñen más horas. Como resultado, los maestros pasan menos tiempo para la preparación y otras tareas. En general, se han vuelto a priorizar los recursos, desde la preparación y otras tareas hasta la enseñanza. Esto requiere un ajuste por parte de los maestros para prepararse para sus lecciones y trabajar de otra manera (por ejemplo, compartiendo materiales didácticos en mayor medida) para cumplir con otras tareas que les exige el liderazgo escolar. De acuerdo con la Ley de Folkeskole, el director de la escuela es responsable de la calidad de la enseñanza de la escuela, así como de la gestión administrativa y pedagógica general de la escuela. Como resultado, la responsabilidad principal de diseñar, introducir y organizar los procedimientos de evaluación de docentes dentro de la escuela recae en el director de la escuela.</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>mayori admision involuntari salud mental estan baj ley salud mental mil novecient ochent y tres import destac ley codif rol profesional aquell pod solicit detencion pacient especif poder trabaj social aprob asw estipul capacit especif personal cualqui person administr acto rapaport manthorp dos mil nuev ley salud mental mil novecient novent y cinc otorg autor nuev poder person dad alta hospital mayoria admisiones involuntarias salud mental estar bajo ley salud mental mil novecientos ochenta y tres importante destacar ley codifico roles profesionales aquellos poder solicitar detencion paciente especificamente poderes trabajador social aprobado asw estipulo capacitacion especifica personal cualquier persona administrar acto rapaport manthorpar dos mil nueve ley salud mental mil novecientos noventa y cinco otorgo autoridades nuevos poderes personas dadas alta hospital</t>
+          <t>tras reform folkeskol dos mil catorc introduccion nuev arregl utiliz tiemp trabaj docent esper docent ensen mas hor result maestr pas men tiemp prepar tar general vuelt prioriz recurs prepar tar ensen requier ajust part maestr prepar leccion trabaj maner ejempl compart material didact mayor med cumpl tar exig liderazg escol acuerd ley folkeskol director escuel respons calid ensen escuel asi gestion administr pedagog general escuel result respons principal disen introduc organiz proced evalu docent dentr escuel reca director escuel tras reforma folkeskole dos mil catorce introduccion nuevo arreglo utilizacion tiempo trabajar docentes esperar docentes ensenir mas horas resultado maestros pasar menos tiempo preparacion tareas general vuelto priorizar recursos preparacion tareas ensenanza requerir ajuste parte maestros preparar él lecciones trabajar manera ejemplo compartir materiales didacticos mayor medida cumplir tareas exigir liderazgo escolar acuerdo ley folkeskole director escuela responsable calidad ensenanza escuela asi gestion administrativa pedagogica general escuela resultado responsabilidad principal disenar introducir organizar procedimientos evaluacion docentes dentro escuela recae director escuela</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>116</v>
+        <v>597</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Existe una diversidad considerable en las estrategias para el tratamiento basado en la atención primaria de los trastornos leves a moderados entre los países de la OCDE, y los enfoques estratégicos difieren según la organización del sistema de salud mental y la provisión de atención primaria, así como en muchos casos siguiendo las idiosincrasias. de las prácticas individuales de atención primaria (Glied et al., El tratamiento de los trastornos mentales leves a moderados en la atención primaria es menos costoso para los sistemas de salud que el tratamiento por especialistas, o por la mayoría de los servicios especializados (OMS y Wonca, 2008). Con un aumento suficiente en cobertura, los tratamientos para la depresión en la atención primaria resultaron ser un uso eficaz de los recursos de salud, incluso en entornos de escasos recursos (Chisholm et al., Además de brindar beneficios económicos al ayudar a regresar al trabajo y mejorar la productividad (OCDE, 2012), un tratamiento más eficaz de los trastornos mentales en la atención primaria puede contribuir a reducir las derivaciones inapropiadas a servicios de atención especializada más costosos (NICE, 2011).</t>
+          <t>La mayoría de las admisiones involuntarias de salud mental están bajo la Ley de Salud Mental de 1983. Es importante destacar que esta Ley codificó los roles profesionales de aquellos con el poder de solicitar la detención de un paciente, específicamente los poderes que tiene un Trabajador Social Aprobado (ASW), y estipuló capacitación específica del personal para cualquier persona que administre el acto (Rapaport y Manthorpe, 2009). La Ley de Salud Mental de 1995 otorgó a las autoridades nuevos poderes sobre las personas dadas de alta del hospital.</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>exist divers consider estrategi tratamient bas atencion primari trastorn lev moder pais ocde enfoqu estrateg difier segun organiz sistem salud mental provision atencion primari asi cas sigu idiosincrasi practic individual atencion primari gli et tratamient trastorn mental lev moder atencion primari men costos sistem salud tratamient especial mayori servici especializ oms wonc dos mil ocho aument suficient cobertur tratamient depresion atencion primari result ser uso eficaz recurs salud inclus entorn escas recurs chisholm et adem brind benefici econom ayud regres trabaj mejor product ocde dos mil doc tratamient mas eficaz trastorn mental atencion primari pued contribu reduc deriv inapropi servici atencion especializ mas costos nic dos mil once existir diversidad considerable estrategias tratamiento basado atencion primaria trastornos leves moderados paises ocde enfoques estrategicos diferir segun organizacion sistema salud mental provision atencion primaria asi casos seguir idiosincrasias practicas individuales atencion primaria glied et tratamiento trastornos mentales leves moderados atencion primaria menos costoso sistemas salud tratamiento especialistas mayoria servicios especializados oms wonca dos mil ocho aumento suficiente cobertura tratamientos depresion atencion primaria resultar ser uso eficaz recursos salud incluso entornos escasos recursos chisholm et ademas brindar beneficios economicos ayudar regresar trabajo mejorar productividad ocde dos mil doce tratamiento mas eficaz trastornos mentales atencion primaria puede contribuir reducir derivaciones inapropiadas servicios atencion especializada mas costosos nizar dos mil once</t>
+          <t>mayori admision involuntari salud mental estan baj ley salud mental mil novecient ochent y tres import destac ley codif rol profesional aquell pod solicit detencion pacient especif poder trabaj social aprob asw estipul capacit especif personal cualqui person administr acto rapaport manthorp dos mil nuev ley salud mental mil novecient novent y cinc otorg autor nuev poder person dad alta hospital mayoria admisiones involuntarias salud mental estar bajo ley salud mental mil novecientos ochenta y tres importante destacar ley codifico roles profesionales aquellos poder solicitar detencion paciente especificamente poderes trabajador social aprobado asw estipulo capacitacion especifica personal cualquier persona administrar acto rapaport manthorpar dos mil nueve ley salud mental mil novecientos noventa y cinco otorgo autoridades nuevos poderes personas dadas alta hospital</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>2423</v>
+        <v>116</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>En 2013, celebró una reunión con altos funcionarios de la dirección del Banco Nacional de Abu Dhabi (NBAD) que exploró varias formas de apoyar a las mujeres empresarias en los Emiratos a través de servicios bancarios proporcionados a las PYME por NBAD. El DBWC organiza el evento mensual de alto perfil "Majlis Business" para brindar información sobre los últimos conocimientos, habilidades y mejores prácticas para mujeres empresarias y líderes. También participa en actividades de consultoría en cooperación con DBWC.</t>
+          <t>Existe una diversidad considerable en las estrategias para el tratamiento basado en la atención primaria de los trastornos leves a moderados entre los países de la OCDE, y los enfoques estratégicos difieren según la organización del sistema de salud mental y la provisión de atención primaria, así como en muchos casos siguiendo las idiosincrasias. de las prácticas individuales de atención primaria (Glied et al., El tratamiento de los trastornos mentales leves a moderados en la atención primaria es menos costoso para los sistemas de salud que el tratamiento por especialistas, o por la mayoría de los servicios especializados (OMS y Wonca, 2008). Con un aumento suficiente en cobertura, los tratamientos para la depresión en la atención primaria resultaron ser un uso eficaz de los recursos de salud, incluso en entornos de escasos recursos (Chisholm et al., Además de brindar beneficios económicos al ayudar a regresar al trabajo y mejorar la productividad (OCDE, 2012), un tratamiento más eficaz de los trastornos mentales en la atención primaria puede contribuir a reducir las derivaciones inapropiadas a servicios de atención especializada más costosos (NICE, 2011).</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>dos mil trec celebr reunion altos funcionari direccion banc nacional abu dhabi nbad explor vari form apoy mujer empresari emirat trav servici bancari proporcion pyme nbad dbwc organiz event mensual alto perfil majlis business brind inform ultim conoc habil mejor practic mujer empresari lider tambi particip activ consultori cooper dbwc dos mil trece celebro reunion altos funcionarios direccion banco nacional abu dhabi nbad exploro varias formas apoyar mujeres empresarias emiratos traves servicios bancarios proporcionados pyme nbad dbwc organizar evento mensual alto perfil majlis business brindar informacion ultimos conocimientos habilidades mejores practicas mujeres empresarias lideres tambien participar actividades consultoria cooperacion dbwc</t>
+          <t>exist divers consider estrategi tratamient bas atencion primari trastorn lev moder pais ocde enfoqu estrateg difier segun organiz sistem salud mental provision atencion primari asi cas sigu idiosincrasi practic individual atencion primari gli et tratamient trastorn mental lev moder atencion primari men costos sistem salud tratamient especial mayori servici especializ oms wonc dos mil ocho aument suficient cobertur tratamient depresion atencion primari result ser uso eficaz recurs salud inclus entorn escas recurs chisholm et adem brind benefici econom ayud regres trabaj mejor product ocde dos mil doc tratamient mas eficaz trastorn mental atencion primari pued contribu reduc deriv inapropi servici atencion especializ mas costos nic dos mil once existir diversidad considerable estrategias tratamiento basado atencion primaria trastornos leves moderados paises ocde enfoques estrategicos diferir segun organizacion sistema salud mental provision atencion primaria asi casos seguir idiosincrasias practicas individuales atencion primaria glied et tratamiento trastornos mentales leves moderados atencion primaria menos costoso sistemas salud tratamiento especialistas mayoria servicios especializados oms wonca dos mil ocho aumento suficiente cobertura tratamientos depresion atencion primaria resultar ser uso eficaz recursos salud incluso entornos escasos recursos chisholm et ademas brindar beneficios economicos ayudar regresar trabajo mejorar productividad ocde dos mil doce tratamiento mas eficaz trastornos mentales atencion primaria puede contribuir reducir derivaciones inapropiadas servicios atencion especializada mas costosos nizar dos mil once</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>1853</v>
+        <v>2423</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Kennisnet se basa en la demanda y monitorea continuamente las necesidades específicas en TIC y educación. En el informe, se proponen cuatro perspectivas generales para la formación docente. Una de estas perspectivas promueve la tecnología de la información y la comunicación como un recurso para la educación.18 Se espera que el gobierno presente un proyecto de ley al parlamento que proponga una nueva formación docente durante 2009. Tenga en cuenta que es posible que un país alcance varios niveles en el Mismo tiempo.</t>
+          <t>En 2013, celebró una reunión con altos funcionarios de la dirección del Banco Nacional de Abu Dhabi (NBAD) que exploró varias formas de apoyar a las mujeres empresarias en los Emiratos a través de servicios bancarios proporcionados a las PYME por NBAD. El DBWC organiza el evento mensual de alto perfil "Majlis Business" para brindar información sobre los últimos conocimientos, habilidades y mejores prácticas para mujeres empresarias y líderes. También participa en actividades de consultoría en cooperación con DBWC.</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>kennisnet bas demand monitore continu neces especif tic educ inform propon cuatr perspect general formacion docent perspect promuev tecnologi inform comun recurs educacion18 esper gobiern present proyect ley parlament propong nuev formacion docent dos mil nuev cuent posibl pais alcanc vari nivel mism tiemp kennisnet basar demanda monitorea continuamente necesidades especificas tic educacion informe proponer cuatro perspectivas generales formacion docente perspectivas promover tecnologia informacion comunicacion recurso educacion18 esperar gobierno presente proyecto ley parlamento proponer nueva formacion docente dos mil nueve cuenta posible pais alcance varios niveles mismo tiempo</t>
+          <t>dos mil trec celebr reunion altos funcionari direccion banc nacional abu dhabi nbad explor vari form apoy mujer empresari emirat trav servici bancari proporcion pyme nbad dbwc organiz event mensual alto perfil majlis business brind inform ultim conoc habil mejor practic mujer empresari lider tambi particip activ consultori cooper dbwc dos mil trece celebro reunion altos funcionarios direccion banco nacional abu dhabi nbad exploro varias formas apoyar mujeres empresarias emiratos traves servicios bancarios proporcionados pyme nbad dbwc organizar evento mensual alto perfil majlis business brindar informacion ultimos conocimientos habilidades mejores practicas mujeres empresarias lideres tambien participar actividades consultoria cooperacion dbwc</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>1116</v>
+        <v>1853</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>La variación del rendimiento explicada por el estatus socioeconómico de los estudiantes es mayor (16%) que el promedio de la OCDE (13%). La ruralidad es un aspecto importante de la desventaja en Costa Rica. Los estudiantes de las escuelas rurales tienen más probabilidades de abandonar y atrasarse en su aprendizaje que los de las urbanas, y las escuelas primarias rurales pequeñas muestran las tasas de rendimiento más bajas del país (PEN, 2013). La gran cantidad de pequeñas escuelas primarias ha permitido a Costa Rica llevar servicios educativos a cada pequeño pueblo.</t>
+          <t>Kennisnet se basa en la demanda y monitorea continuamente las necesidades específicas en TIC y educación. En el informe, se proponen cuatro perspectivas generales para la formación docente. Una de estas perspectivas promueve la tecnología de la información y la comunicación como un recurso para la educación.18 Se espera que el gobierno presente un proyecto de ley al parlamento que proponga una nueva formación docente durante 2009. Tenga en cuenta que es posible que un país alcance varios niveles en el Mismo tiempo.</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>variacion rendimient explic estatus socioeconom estudi mayor dieciseis promedi ocde trec rural aspect import desventaj cost ric estudi escuel rural mas probabil abandon atras aprendizaj urban escuel primari rural pequen muestr tas rendimient mas baj pais pen dos mil trec gran cantid pequen escuel primari permit cost ric llev servici educ cad pequen puebl variacion rendimiento explicada estatus socioeconomico estudiantes mayor dieciseis promedio ocde trece ruralidad aspecto importante desventaja costa rica estudiantes escuelas rurales mas probabilidades abandonar atrasar él aprendizaje urbanas escuelas primarias rurales pequenas mostrar tasas rendimientir mas bajas pais pen dos mil trece gran cantidad pequenas escuelas primarias permitido costa rica llevar servicios educativos cada pequeno pueblo</t>
+          <t>kennisnet bas demand monitore continu neces especif tic educ inform propon cuatr perspect general formacion docent perspect promuev tecnologi inform comun recurs educacion18 esper gobiern present proyect ley parlament propong nuev formacion docent dos mil nuev cuent posibl pais alcanc vari nivel mism tiemp kennisnet basar demanda monitorea continuamente necesidades especificas tic educacion informe proponer cuatro perspectivas generales formacion docente perspectivas promover tecnologia informacion comunicacion recurso educacion18 esperar gobierno presente proyecto ley parlamento proponer nueva formacion docente dos mil nueve cuenta posible pais alcance varios niveles mismo tiempo</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>318</v>
+        <v>1116</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Además, como se ha comentado en la sección anterior, Kazajstán tiene tasas de mortalidad relativamente altas por enfermedades respiratorias, como la EPOC, y gastrointestinales, como la cirrosis hepática, cuyos factores de riesgo reconocidos son el tabaquismo y el consumo de alcohol, respectivamente (OCDE, 2015). Por ejemplo, entre los hombres de 15 años o más, casi el 37% son fumadores diarios, una proporción muy superior a la media de la OCDE del 24%. De hecho, solo tres países de la OCDE informan de una mayor proporción de fumadores diarios entre los hombres de 15 años o más: Letonia 52%, Grecia 43,7% y Turquía 37,3% (Figura 1.12).</t>
+          <t>La variación del rendimiento explicada por el estatus socioeconómico de los estudiantes es mayor (16%) que el promedio de la OCDE (13%). La ruralidad es un aspecto importante de la desventaja en Costa Rica. Los estudiantes de las escuelas rurales tienen más probabilidades de abandonar y atrasarse en su aprendizaje que los de las urbanas, y las escuelas primarias rurales pequeñas muestran las tasas de rendimiento más bajas del país (PEN, 2013). La gran cantidad de pequeñas escuelas primarias ha permitido a Costa Rica llevar servicios educativos a cada pequeño pueblo.</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>adem coment seccion anterior kazajst tas mortal relat altas enfermedad respiratori epoc gastrointestinal cirrosis hepat cuy factor riesg reconoc tabaqu consum alcohol respect ocde dos mil quinc ejempl hombr quinc anos mas casi treint y siet fumador diari proporcion superior medi ocde veinticuatr hech sol tres pais ocde inform mayor proporcion fumador diari hombr quinc anos mas letoni cincuent y dos greci 437 turqui 373 figur 112 ademas comentado seccion anterior kazajstar tasas mortalidad relativamente altas enfermedades respiratorias epoc gastrointestinales cirrosis hepatica cuyos factores riesgo reconocidos tabaquismo consumo alcohol respectivamente ocde dos mil quince ejemplo hombres quince anos mas casi treinta y siete fumadores diarios proporcion superior media ocde veinticuatro hecho solo tres paises ocde informar mayor proporcion fumadores diarios hombres quince anos mas letonia cincuenta y dos grecia 437 turquia 373 figurar 112</t>
+          <t>variacion rendimient explic estatus socioeconom estudi mayor dieciseis promedi ocde trec rural aspect import desventaj cost ric estudi escuel rural mas probabil abandon atras aprendizaj urban escuel primari rural pequen muestr tas rendimient mas baj pais pen dos mil trec gran cantid pequen escuel primari permit cost ric llev servici educ cad pequen puebl variacion rendimiento explicada estatus socioeconomico estudiantes mayor dieciseis promedio ocde trece ruralidad aspecto importante desventaja costa rica estudiantes escuelas rurales mas probabilidades abandonar atrasar él aprendizaje urbanas escuelas primarias rurales pequenas mostrar tasas rendimientir mas bajas pais pen dos mil trece gran cantidad pequenas escuelas primarias permitido costa rica llevar servicios educativos cada pequeno pueblo</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>1311</v>
+        <v>318</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Sus resultados sugieren que las estimaciones de OLS de las primas por habilidades en términos de salarios y resultados de empleo bien pueden proporcionar una estimación del límite inferior de los verdaderos rendimientos de las habilidades. Pero informan cuadros radicalmente diferentes con respecto a la importancia relativa de los rendimientos de la resolución de problemas en entornos ricos en tecnología, a los que me referiré abreviadamente como “habilidades de alfabetización en TIC”. Lane y Conlon (2016), por otro lado, estiman mayores retornos para las habilidades de alfabetización en TIC y el impacto de la escolarización en estas habilidades es menos marcado que para la alfabetización y la aritmética1.</t>
+          <t>Además, como se ha comentado en la sección anterior, Kazajstán tiene tasas de mortalidad relativamente altas por enfermedades respiratorias, como la EPOC, y gastrointestinales, como la cirrosis hepática, cuyos factores de riesgo reconocidos son el tabaquismo y el consumo de alcohol, respectivamente (OCDE, 2015). Por ejemplo, entre los hombres de 15 años o más, casi el 37% son fumadores diarios, una proporción muy superior a la media de la OCDE del 24%. De hecho, solo tres países de la OCDE informan de una mayor proporción de fumadores diarios entre los hombres de 15 años o más: Letonia 52%, Grecia 43,7% y Turquía 37,3% (Figura 1.12).</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>result sugier estim ols prim habil termin salari result emple bien pued proporcion estim limit inferior verdader rendimient habil inform cuadr radical diferent respect import relat rendimient resolucion problem entorn ric tecnologi referir abrevi habil alfabetiz tic lan conlon dos mil dieciseis lad estim mayor retorn habil alfabetiz tic impact escolariz habil men marc alfabetiz aritmetica1 resultados sugerir estimaciones ols primas habilidades terminos salarios resultados empleo bien pueden proporcionar estimacion limite inferior verdaderos rendimientos habilidades informar cuadros radicalmente diferentes respecto importancia relativa rendimientos resolucion problemas entornos ricos tecnologia referire abreviadamente habilidades alfabetizacion tic lane conlon dos mil dieciseis lado estimar mayores retornos habilidades alfabetizacion tic impacto escolarizacion habilidades menos marcado alfabetizacion aritmetica1</t>
+          <t>adem coment seccion anterior kazajst tas mortal relat altas enfermedad respiratori epoc gastrointestinal cirrosis hepat cuy factor riesg reconoc tabaqu consum alcohol respect ocde dos mil quinc ejempl hombr quinc anos mas casi treint y siet fumador diari proporcion superior medi ocde veinticuatr hech sol tres pais ocde inform mayor proporcion fumador diari hombr quinc anos mas letoni cincuent y dos greci 437 turqui 373 figur 112 ademas comentado seccion anterior kazajstar tasas mortalidad relativamente altas enfermedades respiratorias epoc gastrointestinales cirrosis hepatica cuyos factores riesgo reconocidos tabaquismo consumo alcohol respectivamente ocde dos mil quince ejemplo hombres quince anos mas casi treinta y siete fumadores diarios proporcion superior media ocde veinticuatro hecho solo tres paises ocde informar mayor proporcion fumadores diarios hombres quince anos mas letonia cincuenta y dos grecia 437 turquia 373 figurar 112</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>2627</v>
+        <v>1311</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>En los cinco países se han tomado medidas para extender la licencia de maternidad a los grupos de trabajadores más vulnerables, ampliar las expectativas de los servicios de atención y educación de la primera infancia como un derecho de los niños y regular el trabajo doméstico remunerado. Se trata de medidas muy importantes para las mujeres de menores recursos y por tanto positivas desde el punto de vista de la formulación de políticas públicas para la equidad socioeconómica. En el largo plazo, desde el punto de vista de las familias que contratan este tipo de mano de obra, tales medidas también deberían crear las condiciones para empujar al Estado a diseñar mejores medidas secuenciales y desfamiliarizadoras.</t>
+          <t>Sus resultados sugieren que las estimaciones de OLS de las primas por habilidades en términos de salarios y resultados de empleo bien pueden proporcionar una estimación del límite inferior de los verdaderos rendimientos de las habilidades. Pero informan cuadros radicalmente diferentes con respecto a la importancia relativa de los rendimientos de la resolución de problemas en entornos ricos en tecnología, a los que me referiré abreviadamente como “habilidades de alfabetización en TIC”. Lane y Conlon (2016), por otro lado, estiman mayores retornos para las habilidades de alfabetización en TIC y el impacto de la escolarización en estas habilidades es menos marcado que para la alfabetización y la aritmética1.</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>cinc pais tom med extend licenci matern grup trabaj mas vulner ampli expect servici atencion educ primer infanci derech nin regul trabaj domest remuner trat med import mujer menor recurs posit punt vist formul polit public equid socioeconom larg plaz punt vist famili contrat tip man obra tal med tambi deberi cre condicion empuj disen mejor med secuencial desfamiliariz cinco paises tomado medidas extender licencia maternidad grupos trabajadores mas vulnerables ampliar expectativas servicios atencion educacion primera infancia derecho ninos regular trabajo domestico remunerado tratar medidas importantes mujeres menores recursos positivas punto vista formulacion politicas publicas equidad socioeconomica largo plazo punto vista familias contratar tipo mano obra tales medidas tambien deberiar crear condiciones empujar disenar mejores medidas secuenciales desfamiliarizadoras</t>
+          <t>result sugier estim ols prim habil termin salari result emple bien pued proporcion estim limit inferior verdader rendimient habil inform cuadr radical diferent respect import relat rendimient resolucion problem entorn ric tecnologi referir abrevi habil alfabetiz tic lan conlon dos mil dieciseis lad estim mayor retorn habil alfabetiz tic impact escolariz habil men marc alfabetiz aritmetica1 resultados sugerir estimaciones ols primas habilidades terminos salarios resultados empleo bien pueden proporcionar estimacion limite inferior verdaderos rendimientos habilidades informar cuadros radicalmente diferentes respecto importancia relativa rendimientos resolucion problemas entornos ricos tecnologia referire abreviadamente habilidades alfabetizacion tic lane conlon dos mil dieciseis lado estimar mayores retornos habilidades alfabetizacion tic impacto escolarizacion habilidades menos marcado alfabetizacion aritmetica1</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>183</v>
+        <v>2627</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ajustar el sistema de GRD para tener mejor en cuenta la gravedad de los casos tratados por los hospitales universitarios, de forma que se les compense. Llevar a cabo la prevista corporatizaciÃ³n (o "comercializaciÃ³n") de los hospitales con cuidado, de forma que no amenace la igualdad de acceso a la asistencia, especialmente entre regiones. Realizar un estudio exhaustivo de las inversiones que corresponderÃan a las necesidades mÃ¡s acuciantes de la poblaciÃ³n en todo el paÃs para garantizar la modernizaciÃ³n de las envejecidas infraestructuras hospitalarias.</t>
+          <t>En los cinco países se han tomado medidas para extender la licencia de maternidad a los grupos de trabajadores más vulnerables, ampliar las expectativas de los servicios de atención y educación de la primera infancia como un derecho de los niños y regular el trabajo doméstico remunerado. Se trata de medidas muy importantes para las mujeres de menores recursos y por tanto positivas desde el punto de vista de la formulación de políticas públicas para la equidad socioeconómica. En el largo plazo, desde el punto de vista de las familias que contratan este tipo de mano de obra, tales medidas también deberían crear las condiciones para empujar al Estado a diseñar mejores medidas secuenciales y desfamiliarizadoras.</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>ajust sistem grd ten mejor cuent graved cas trat hospital universitari form compens llev cab previst corporatizacia3n comercializacia3n hospital cuid form amenac iguald acces asistent especial region realiz estudi exhaust inversion corresponder neces mas acuci poblacia3n paas garantiz modernizacia3n envejec infraestructur hospitalari ajustar sistema grd tener mejor cuenta gravedad casos tratados hospitales universitarios formar compense llevar cabo prevista corporatizacia3n comercializacia3n hospitales cuidado forma amenace igualdad acceso asistenciar especialmente regiones realizar estudio exhaustivo inversiones corresponderaan necesidades mas acuciantes poblacia3n paas garantizar modernizacia3n envejecidas infraestructuras hospitalarias</t>
+          <t>cinc pais tom med extend licenci matern grup trabaj mas vulner ampli expect servici atencion educ primer infanci derech nin regul trabaj domest remuner trat med import mujer menor recurs posit punt vist formul polit public equid socioeconom larg plaz punt vist famili contrat tip man obra tal med tambi deberi cre condicion empuj disen mejor med secuencial desfamiliariz cinco paises tomado medidas extender licencia maternidad grupos trabajadores mas vulnerables ampliar expectativas servicios atencion educacion primera infancia derecho ninos regular trabajo domestico remunerado tratar medidas importantes mujeres menores recursos positivas punto vista formulacion politicas publicas equidad socioeconomica largo plazo punto vista familias contratar tipo mano obra tales medidas tambien deberiar crear condiciones empujar disenar mejores medidas secuenciales desfamiliarizadoras</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>2564</v>
+        <v>183</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Establecer funciones y responsabilidades institucionales claras para promover el equilibrio de género en el sector público, incluidos los mecanismos independientes de recurso y apelación, que deben estar adecuadamente financiados, dotados de recursos y vinculados a los equipos ejecutivos para garantizar su eficacia. Sensibilizar a los gerentes del sector público sobre las consideraciones de igualdad de género y mejorar la responsabilidad ejecutiva y de gestión para garantizar el equilibrio de género en todos los niveles y grupos ocupacionales, y abordar los problemas de igualdad de género en los lugares de trabajo, incluso a través de marcos de gestión del desempeño. La OCDE también está a la vanguardia de los esfuerzos para comprender y ayudar a los gobiernos a responder a los nuevos desarrollos y preocupaciones, como el gobierno corporativo, la economía de la información y los desafíos del envejecimiento de la población.</t>
+          <t>Ajustar el sistema de GRD para tener mejor en cuenta la gravedad de los casos tratados por los hospitales universitarios, de forma que se les compense. Llevar a cabo la prevista corporatizaciÃ³n (o "comercializaciÃ³n") de los hospitales con cuidado, de forma que no amenace la igualdad de acceso a la asistencia, especialmente entre regiones. Realizar un estudio exhaustivo de las inversiones que corresponderÃan a las necesidades mÃ¡s acuciantes de la poblaciÃ³n en todo el paÃs para garantizar la modernizaciÃ³n de las envejecidas infraestructuras hospitalarias.</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>establec funcion respons institucional clar promov equilibri gener sector public inclu mecan independient recurs apel deb adecu financi dot recurs vincul equip ejecut garantiz eficaci sensibiliz gerent sector public consider iguald gener mejor respons ejecut gestion garantiz equilibri gener nivel grup ocupacional abord problem iguald gener lugar trabaj inclus trav marc gestion desempen ocde tambi vanguardi esfuerz comprend ayud gobi respond nuev desarroll preocup gobiern corpor economi inform desafi envejec poblacion establecer funciones responsabilidades institucionales claras promover equilibrio genero sector publico incluidos mecanismos independientes recurso apelacion deben adecuadamente financiados dotados recursos vinculados equipos ejecutivos garantizar eficacia sensibilizar gerentes sector publico consideraciones igualdad genero mejorar responsabilidad ejecutiva gestion garantizar equilibrio genero niveles grupos ocupacionales abordar problemas igualdad genero lugares trabajo incluso traves marcos gestion desempeno ocde tambien vanguardia esfuerzos comprender ayudar gobiernos responder nuevos desarrollos preocupaciones gobierno corporativo economia informacion desafios envejecimiento poblacion</t>
+          <t>ajust sistem grd ten mejor cuent graved cas trat hospital universitari form compens llev cab previst corporatizacia3n comercializacia3n hospital cuid form amenac iguald acces asistent especial region realiz estudi exhaust inversion corresponder neces mas acuci poblacia3n paas garantiz modernizacia3n envejec infraestructur hospitalari ajustar sistema grd tener mejor cuenta gravedad casos tratados hospitales universitarios formar compense llevar cabo prevista corporatizacia3n comercializacia3n hospitales cuidado forma amenace igualdad acceso asistenciar especialmente regiones realizar estudio exhaustivo inversiones corresponderaan necesidades mas acuciantes poblacia3n paas garantizar modernizacia3n envejecidas infraestructuras hospitalarias</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>761</v>
+        <v>2564</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Sin embargo, debido a que es un sistema de atención de la salud muy enfocado, el punto de partida de Corea en la actualidad está por detrás del de muchos otros países de la OCDE. Revertir esta situación requerirá un compromiso político consistente para desarrollar servicios de atención primaria efectivos durante un largo período de tiempo. Una mejor remuneración y más prácticas de atención primaria ayudarán a sentar las bases, pero deberán contar con el respaldo de una fuerza laboral dedicada a la atención primaria y mejor información para ayudar a la aseguradora única a dirigir el financiamiento a las áreas de necesidad.</t>
+          <t>Establecer funciones y responsabilidades institucionales claras para promover el equilibrio de género en el sector público, incluidos los mecanismos independientes de recurso y apelación, que deben estar adecuadamente financiados, dotados de recursos y vinculados a los equipos ejecutivos para garantizar su eficacia. Sensibilizar a los gerentes del sector público sobre las consideraciones de igualdad de género y mejorar la responsabilidad ejecutiva y de gestión para garantizar el equilibrio de género en todos los niveles y grupos ocupacionales, y abordar los problemas de igualdad de género en los lugares de trabajo, incluso a través de marcos de gestión del desempeño. La OCDE también está a la vanguardia de los esfuerzos para comprender y ayudar a los gobiernos a responder a los nuevos desarrollos y preocupaciones, como el gobierno corporativo, la economía de la información y los desafíos del envejecimiento de la población.</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>embarg deb sistem atencion salud enfoc punt part core actual detr pais ocde revert situacion requerir compromis polit consistent desarroll servici atencion primari efect larg period tiemp mejor remuner mas practic atencion primari ayud sent bas deber cont respald fuerz laboral dedic atencion primari mejor inform ayud asegur unic dirig financi are neces embargo debido sistema atencion salud enfocado punto partida corea actualidad detras paises ocde revertir situacion requerirar compromiso politico consistente desarrollar servicios atencion primaria efectivos largo periodo tiempo mejor remuneracion mas practicas atencion primaria ayudarar sentar bases deberan contar respaldo fuerza laboral dedicada atencion primaria mejor informacion ayudar aseguradora unica dirigir financiamiento areas necesidad</t>
+          <t>establec funcion respons institucional clar promov equilibri gener sector public inclu mecan independient recurs apel deb adecu financi dot recurs vincul equip ejecut garantiz eficaci sensibiliz gerent sector public consider iguald gener mejor respons ejecut gestion garantiz equilibri gener nivel grup ocupacional abord problem iguald gener lugar trabaj inclus trav marc gestion desempen ocde tambi vanguardi esfuerz comprend ayud gobi respond nuev desarroll preocup gobiern corpor economi inform desafi envejec poblacion establecer funciones responsabilidades institucionales claras promover equilibrio genero sector publico incluidos mecanismos independientes recurso apelacion deben adecuadamente financiados dotados recursos vinculados equipos ejecutivos garantizar eficacia sensibilizar gerentes sector publico consideraciones igualdad genero mejorar responsabilidad ejecutiva gestion garantizar equilibrio genero niveles grupos ocupacionales abordar problemas igualdad genero lugares trabajo incluso traves marcos gestion desempeno ocde tambien vanguardia esfuerzos comprender ayudar gobiernos responder nuevos desarrollos preocupaciones gobierno corporativo economia informacion desafios envejecimiento poblacion</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>2468</v>
+        <v>761</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>El trabajo doméstico y de cuidados no remunerado también se mide como parte de la Encuesta oficial de población activa. Se abolieron nuevamente las cuotas de la escuela primaria y se reintrodujeron los subsidios a los insumos agrícolas, en parte debido a la presión pública respaldada por la campaña. Las iniciativas de presupuestos de género en otras partes de África se han basado en gran medida en la experiencia de Tanzania como modelo.</t>
+          <t>Sin embargo, debido a que es un sistema de atención de la salud muy enfocado, el punto de partida de Corea en la actualidad está por detrás del de muchos otros países de la OCDE. Revertir esta situación requerirá un compromiso político consistente para desarrollar servicios de atención primaria efectivos durante un largo período de tiempo. Una mejor remuneración y más prácticas de atención primaria ayudarán a sentar las bases, pero deberán contar con el respaldo de una fuerza laboral dedicada a la atención primaria y mejor información para ayudar a la aseguradora única a dirigir el financiamiento a las áreas de necesidad.</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>trabaj domest cuid remuner tambi mid part encuest oficial poblacion activ abol nuev cuot escuel primari reintrodujeron subsidi insum agricol part deb presion public respald campan inici presupuest gener part afric bas gran med experient tanzani model trabajo domestico cuidados remunerado tambien medir parte encuesta oficial poblacion activa abolir nuevamente cuotas escuela primaria reintroducir subsidios insumos agrico él parte debido presion publica respaldada campana iniciativas presupuestos genero partes africa basado gran medida experiencia tanzania modelo</t>
+          <t>embarg deb sistem atencion salud enfoc punt part core actual detr pais ocde revert situacion requerir compromis polit consistent desarroll servici atencion primari efect larg period tiemp mejor remuner mas practic atencion primari ayud sent bas deber cont respald fuerz laboral dedic atencion primari mejor inform ayud asegur unic dirig financi are neces embargo debido sistema atencion salud enfocado punto partida corea actualidad detras paises ocde revertir situacion requerirar compromiso politico consistente desarrollar servicios atencion primaria efectivos largo periodo tiempo mejor remuneracion mas practicas atencion primaria ayudarar sentar bases deberan contar respaldo fuerza laboral dedicada atencion primaria mejor informacion ayudar aseguradora unica dirigir financiamiento areas necesidad</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>482</v>
+        <v>2468</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Restringir la provisión de atención médica pública también afectaría el potencial de crecimiento a través de un efecto perjudicial sobre la salud y, por lo tanto, la capacidad de las personas para participar en el mercado laboral. El estado de salud afecta la oferta de mano de obra, que será aún más importante para el crecimiento económico a medida que aumente la tasa de dependencia de la vejez. Las personas con buena salud son más productivas, tienen menos licencia por enfermedad y disfrutan de mejores oportunidades para desarrollar capital humano. Las posibilidades de que se jubilen anticipadamente se reducen.</t>
+          <t>El trabajo doméstico y de cuidados no remunerado también se mide como parte de la Encuesta oficial de población activa. Se abolieron nuevamente las cuotas de la escuela primaria y se reintrodujeron los subsidios a los insumos agrícolas, en parte debido a la presión pública respaldada por la campaña. Las iniciativas de presupuestos de género en otras partes de África se han basado en gran medida en la experiencia de Tanzania como modelo.</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>restring provision atencion medic public tambi afectari potencial crecimient trav efect perjudicial salud capac person particip merc laboral salud afect ofert man obra ser aun mas import crecimient econom med aument tas dependent vejez person buen salud mas product men licenci enfermed disfrut mejor oportun desarroll capital human posibil jubil anticip reduc restringir provision atencion medica publicar tambien afectaria potencial crecimiento traves efecto perjudicial salud capacidad personas participar mercado laboral salud afectar oferta mano obra sera aun mas importante crecimiento economico medida aumente tasar dependencia vejez personas buena salud mas productivas menos licencia enfermedad disfrutar mejores oportunidades desarrollar capital humano posibilidades jubilir anticipadamente reducir</t>
+          <t>trabaj domest cuid remuner tambi mid part encuest oficial poblacion activ abol nuev cuot escuel primari reintrodujeron subsidi insum agricol part deb presion public respald campan inici presupuest gener part afric bas gran med experient tanzani model trabajo domestico cuidados remunerado tambien medir parte encuesta oficial poblacion activa abolir nuevamente cuotas escuela primaria reintroducir subsidios insumos agrico él parte debido presion publica respaldada campana iniciativas presupuestos genero partes africa basado gran medida experiencia tanzania modelo</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>617</v>
+        <v>482</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Sin embargo, permiten a los formuladores de políticas y epidemiólogos monitorear el impacto de las reformas y políticas. Según Rosstat (2009b), el número de muertes directamente relacionadas con el consumo de alcohol disminuyó en un 40% entre 2005 y 2008. No obstante, 76 268 personas murieron en 2008 debido al consumo excesivo de alcohol.</t>
+          <t>Restringir la provisión de atención médica pública también afectaría el potencial de crecimiento a través de un efecto perjudicial sobre la salud y, por lo tanto, la capacidad de las personas para participar en el mercado laboral. El estado de salud afecta la oferta de mano de obra, que será aún más importante para el crecimiento económico a medida que aumente la tasa de dependencia de la vejez. Las personas con buena salud son más productivas, tienen menos licencia por enfermedad y disfrutan de mejores oportunidades para desarrollar capital humano. Las posibilidades de que se jubilen anticipadamente se reducen.</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>embarg permit formul polit epidemiolog monitor impact reform polit segun rosstat 2009b numer muert direct relacion consum alcohol disminu cuarent dos mil cinc dos mil ocho obstant setent y seis doscient sesent y ocho person mur dos mil ocho deb consum exces alcohol embargo permitir formuladores politicas epidemiologos monitorear impacto reformas politicas segun rosstat 2009b numero muertes directamente relacionadas consumo alcohol disminuyo cuarenta dos mil cinco dos mil ocho obstante setenta y seis doscientos sesenta y ocho personas morir dos mil ocho debido consumo excesivo alcohol</t>
+          <t>restring provision atencion medic public tambi afectari potencial crecimient trav efect perjudicial salud capac person particip merc laboral salud afect ofert man obra ser aun mas import crecimient econom med aument tas dependent vejez person buen salud mas product men licenci enfermed disfrut mejor oportun desarroll capital human posibil jubil anticip reduc restringir provision atencion medica publicar tambien afectaria potencial crecimiento traves efecto perjudicial salud capacidad personas participar mercado laboral salud afectar oferta mano obra sera aun mas importante crecimiento economico medida aumente tasar dependencia vejez personas buena salud mas productivas menos licencia enfermedad disfrutar mejores oportunidades desarrollar capital humano posibilidades jubilir anticipadamente reducir</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>346</v>
+        <v>617</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>De hecho, la mortalidad a los 30 días por IAM registró uno de los descensos más pronunciados de la UE y se situó en el bajísimo nivel de 6,9 ​​por 100 pacientes en 2015. Esta cifra es inferior a la de Alemania (7,7), Austria (7,4) y el Reino Unido. (7.2) (Figura 10). Sin embargo, la mortalidad a los 30 días por accidente cerebrovascular es promedio en comparación con otros países y podría mejorarse aún más, particularmente dado que los países vecinos, Alemania y Austria, logran tasas notablemente más bajas.</t>
+          <t>Sin embargo, permiten a los formuladores de políticas y epidemiólogos monitorear el impacto de las reformas y políticas. Según Rosstat (2009b), el número de muertes directamente relacionadas con el consumo de alcohol disminuyó en un 40% entre 2005 y 2008. No obstante, 76 268 personas murieron en 2008 debido al consumo excesivo de alcohol.</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>hech mortal treint dias iam registr descens mas pronunci ue situ bajisim nivel 69 cien pacient dos mil quinc cifr inferior alemani 77 austri 74 rein unid 72 figur diez embarg mortal treint dias accident cerebrovascul promedi compar pais podri mejor aun mas particular dad pais vecin alemani austri logr tas notabl mas baj hecho mortalidad treinta dias iam registro descensos mas pronunciados ue situo bajisimo nivel 69 cien pacientes dos mil quince cifra inferior alemania 77 austria 74 reino unido 72 figura diez embargo mortalidad treinta dias accidente cerebrovascular promedio comparacion paises podria mejorar él aun mas particularmente dado paises vecinos alemania austria lograr tasas notablemente mas bajas</t>
+          <t>embarg permit formul polit epidemiolog monitor impact reform polit segun rosstat 2009b numer muert direct relacion consum alcohol disminu cuarent dos mil cinc dos mil ocho obstant setent y seis doscient sesent y ocho person mur dos mil ocho deb consum exces alcohol embargo permitir formuladores politicas epidemiologos monitorear impacto reformas politicas segun rosstat 2009b numero muertes directamente relacionadas consumo alcohol disminuyo cuarenta dos mil cinco dos mil ocho obstante setenta y seis doscientos sesenta y ocho personas morir dos mil ocho debido consumo excesivo alcohol</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>2401</v>
+        <v>346</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Instituciones y mecanismos públicos sólidos para garantizar la rendición de cuentas en el cumplimiento de los compromisos de igualdad de género y transversalización. Herramientas para la formulación de políticas inclusivas y basadas en evidencia que tengan en cuenta efectos potencialmente diferentes en mujeres y hombres. Mecanismos de monitoreo efectivos y evidencia confiable desagregada por género para tomar decisiones políticas informadas. Por ejemplo, el Instituto Nacional de la Mujer de México desarrolló un mecanismo institucional llamado “Sistema Nacional para la Igualdad entre Mujeres y Hombres”, que coordina el trabajo relacionado con el género de 42 agencias federales.</t>
+          <t>De hecho, la mortalidad a los 30 días por IAM registró uno de los descensos más pronunciados de la UE y se situó en el bajísimo nivel de 6,9 ​​por 100 pacientes en 2015. Esta cifra es inferior a la de Alemania (7,7), Austria (7,4) y el Reino Unido. (7.2) (Figura 10). Sin embargo, la mortalidad a los 30 días por accidente cerebrovascular es promedio en comparación con otros países y podría mejorarse aún más, particularmente dado que los países vecinos, Alemania y Austria, logran tasas notablemente más bajas.</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>institu mecan public sol garantiz rendicion cuent cumplimient compromis iguald gener transversaliz herramient formul polit inclus bas evident cuent efect potencial diferent mujer hombr mecan monitore efect evident confiabl desagreg gener tom decision polit inform ejempl institut nacional muj mexic desarroll mecan institucional llam sistem nacional iguald mujer hombr coordin trabaj relacion gener cuarent y dos agenci federal instituciones mecanismos publicos solidos garantizar rendicion cuentas cumplimiento compromisos igualdad genero transversalizacion herramientas formulacion politicas inclusivas basadas evidenciar contar efectos potencialmente diferentes mujeres hombres mecanismos monitoreo efectivos evidenciar confiable desagregada genero tomar decisiones politicas informadas ejemplo instituto nacional mujer mexico desarrollo mecanismo institucional llamado sistema nacional igualdad mujeres hombres coordina trabajo relacionado genero cuarenta y dos agencias federales</t>
+          <t>hech mortal treint dias iam registr descens mas pronunci ue situ bajisim nivel 69 cien pacient dos mil quinc cifr inferior alemani 77 austri 74 rein unid 72 figur diez embarg mortal treint dias accident cerebrovascul promedi compar pais podri mejor aun mas particular dad pais vecin alemani austri logr tas notabl mas baj hecho mortalidad treinta dias iam registro descensos mas pronunciados ue situo bajisimo nivel 69 cien pacientes dos mil quince cifra inferior alemania 77 austria 74 reino unido 72 figura diez embargo mortalidad treinta dias accidente cerebrovascular promedio comparacion paises podria mejorar él aun mas particularmente dado paises vecinos alemania austria lograr tasas notablemente mas bajas</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>1392</v>
+        <v>2401</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Dado que los participantes tuvieron un amplio grado de libertad para diseñar sus estrategias, la variabilidad permite extraer varias lecciones preliminares. Tras analizar las medidas de desarrollo profesional aplicadas por los equipos participantes en el proyecto, se destacan las principales lecciones extraídas de los planes de desarrollo profesional del profesorado aplicados por los equipos de los países para ayudar a los profesores participantes a fomentar la creatividad y el pensamiento crítico de sus alumnos. Como mínimo, los equipos debían presentar a los profesores los materiales del proyecto, los objetivos y los enfoques pedagógicos sugeridos organizando una sesión de formación inicial de un día de duración al inicio del proyecto.</t>
+          <t>Instituciones y mecanismos públicos sólidos para garantizar la rendición de cuentas en el cumplimiento de los compromisos de igualdad de género y transversalización. Herramientas para la formulación de políticas inclusivas y basadas en evidencia que tengan en cuenta efectos potencialmente diferentes en mujeres y hombres. Mecanismos de monitoreo efectivos y evidencia confiable desagregada por género para tomar decisiones políticas informadas. Por ejemplo, el Instituto Nacional de la Mujer de México desarrolló un mecanismo institucional llamado “Sistema Nacional para la Igualdad entre Mujeres y Hombres”, que coordina el trabajo relacionado con el género de 42 agencias federales.</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>dad particip ampli grad libert disen estrategi variabil permit extra vari leccion preliminar tras analiz med desarroll profesional aplic equip particip proyect destac principal leccion extra plan desarroll profesional profesor aplic equip pais ayud profesor particip foment creativ pensamient critic alumn minim equip debi present profesor material proyect objet enfoqu pedagog suger organiz sesion formacion inicial dia duracion inici proyect dar participantes amplio grado libertad disenar estrategias variabilidad permitir extraer varias lecciones preliminares tras analizar medidas desarrollo profesional aplicadas equipos participantes proyecto destacar principales lecciones extraidas planes desarrollo profesional profesorado aplicados equipos paises ayudar profesores participantes fomentar creatividad pensamiento critico alumnos minimo equipos debiar presentar profesores materiales proyecto objetivos enfoques pedagogicos sugeridos organizar sesion formacion inicial diar duracion inicio proyecto</t>
+          <t>institu mecan public sol garantiz rendicion cuent cumplimient compromis iguald gener transversaliz herramient formul polit inclus bas evident cuent efect potencial diferent mujer hombr mecan monitore efect evident confiabl desagreg gener tom decision polit inform ejempl institut nacional muj mexic desarroll mecan institucional llam sistem nacional iguald mujer hombr coordin trabaj relacion gener cuarent y dos agenci federal instituciones mecanismos publicos solidos garantizar rendicion cuentas cumplimiento compromisos igualdad genero transversalizacion herramientas formulacion politicas inclusivas basadas evidenciar contar efectos potencialmente diferentes mujeres hombres mecanismos monitoreo efectivos evidenciar confiable desagregada genero tomar decisiones politicas informadas ejemplo instituto nacional mujer mexico desarrollo mecanismo institucional llamado sistema nacional igualdad mujeres hombres coordina trabajo relacionado genero cuarenta y dos agencias federales</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>332</v>
+        <v>1392</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>En Ecuador, la Encuesta Demográfica y de Salud Materno Infantil (ENDEMAIN, 2004) encontró que el 68% de las personas de 60 a 74 años tenían este tipo de dificultades, al igual que el 82% de los mayores de 75 años. Según datos del Latinobarómetro (ver gráfico IV.7), los problemas para acceder a la atención de la salud son más agudos para las personas mayores con un nivel socioeconómico más bajo. Las personas de nivel socioeconómico extremadamente bajo no tienen acceso a la atención de la salud.</t>
+          <t>Dado que los participantes tuvieron un amplio grado de libertad para diseñar sus estrategias, la variabilidad permite extraer varias lecciones preliminares. Tras analizar las medidas de desarrollo profesional aplicadas por los equipos participantes en el proyecto, se destacan las principales lecciones extraídas de los planes de desarrollo profesional del profesorado aplicados por los equipos de los países para ayudar a los profesores participantes a fomentar la creatividad y el pensamiento crítico de sus alumnos. Como mínimo, los equipos debían presentar a los profesores los materiales del proyecto, los objetivos y los enfoques pedagógicos sugeridos organizando una sesión de formación inicial de un día de duración al inicio del proyecto.</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>ecuador encuest demograf salud matern infantil endemain dos mil cuatr encontr sesent y ocho person sesent setent y cuatr anos teni tip dificultad igual ochent y dos mayor setent y cinc anos segun dat latinobarometr ver grafic iv7 problem acced atencion salud mas agud person mayor nivel socioeconom mas baj person nivel socioeconom extrem baj acces atencion salud ecuador encuesta demografica salud materno infantil endemain dos mil cuatro encontro sesenta y ocho personas sesenta setenta y cuatro anos teniar tipo dificultades igual ochenta y dos mayores setenta y cinco anos segun  datos latinobarometro ver grafico iv7 problemas acceder atencion salud mas agudos personas mayores nivel socioeconomico mas bajo personas nivel socioeconomico extremadamente bajo acceso atencion salud</t>
+          <t>dad particip ampli grad libert disen estrategi variabil permit extra vari leccion preliminar tras analiz med desarroll profesional aplic equip particip proyect destac principal leccion extra plan desarroll profesional profesor aplic equip pais ayud profesor particip foment creativ pensamient critic alumn minim equip debi present profesor material proyect objet enfoqu pedagog suger organiz sesion formacion inicial dia duracion inici proyect dar participantes amplio grado libertad disenar estrategias variabilidad permitir extraer varias lecciones preliminares tras analizar medidas desarrollo profesional aplicadas equipos participantes proyecto destacar principales lecciones extraidas planes desarrollo profesional profesorado aplicados equipos paises ayudar profesores participantes fomentar creatividad pensamiento critico alumnos minimo equipos debiar presentar profesores materiales proyecto objetivos enfoques pedagogicos sugeridos organizar sesion formacion inicial diar duracion inicio proyecto</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Estos indicadores incluyen, por ejemplo, la capacidad de registrar a personas con esquizofrenia, trastorno bipolar y otras psicosis y una serie de pruebas de detección (IMC, consumo de alcohol, glucosa en sangre) para pacientes con esquizofrenia, trastorno bipolar y otras psicosis. También existe un indicador QOF para “El porcentaje de pacientes en el registro que tienen un plan de atención integral documentado en los registros acordados entre las personas, sus familiares y/o cuidadores según corresponda” (BMA (2014). Para una lista completa de indicadores QoF 2013/14 ver BMA, 2014).</t>
+          <t>En Ecuador, la Encuesta Demográfica y de Salud Materno Infantil (ENDEMAIN, 2004) encontró que el 68% de las personas de 60 a 74 años tenían este tipo de dificultades, al igual que el 82% de los mayores de 75 años. Según datos del Latinobarómetro (ver gráfico IV.7), los problemas para acceder a la atención de la salud son más agudos para las personas mayores con un nivel socioeconómico más bajo. Las personas de nivel socioeconómico extremadamente bajo no tienen acceso a la atención de la salud.</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>indic inclu ejempl capac registr person esquizofreni trastorn bipol psicosis seri prueb deteccion imc consum alcohol glucos sangr pacient esquizofreni trastorn bipol psicosis tambi exist indic qof porcentaj pacient registr plan atencion integral document registr acord person familiar cuidador segun correspond bma dos mil catorc list complet indic qof 201314 ver bma dos mil catorc indicadores incluir ejemplo capacidad registrar personas esquizofrenia trastorno bipolar psicosis serie pruebas deteccion imc consumo alcohol glucosa sangre pacientes esquizofrenia trastorno bipolar psicosis tambien existir indicador qof porcentajar pacientes registro plan atencion integral documentado registros acordados personas familiares cuidadores segun corresponda bma dos mil catorce lista completa indicadores qof 201314 ver bma dos mil catorce</t>
+          <t>ecuador encuest demograf salud matern infantil endemain dos mil cuatr encontr sesent y ocho person sesent setent y cuatr anos teni tip dificultad igual ochent y dos mayor setent y cinc anos segun dat latinobarometr ver grafic iv7 problem acced atencion salud mas agud person mayor nivel socioeconom mas baj person nivel socioeconom extrem baj acces atencion salud ecuador encuesta demografica salud materno infantil endemain dos mil cuatro encontro sesenta y ocho personas sesenta setenta y cuatro anos teniar tipo dificultades igual ochenta y dos mayores setenta y cinco anos segun  datos latinobarometro ver grafico iv7 problemas acceder atencion salud mas agudos personas mayores nivel socioeconomico mas bajo personas nivel socioeconomico extremadamente bajo acceso atencion salud</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>934</v>
+        <v>243</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Los servicios de salud mental son una parte integral de la atención médica y de salud (ver sección 3.1). Las disposiciones generales sobre el contenido y la ejecución de la atención psiquiátrica se encuentran en la Ley de Servicios Médicos y de Salud (1982:763) y en la Ley de Servicios Médicos y de Salud (Actividades Profesionales) (Cuestionario de salud mental de la OCDE, 2013). Esta Ley subraya los principios clave del sistema de salud sueco: servicios universales, de fácil acceso y de buena calidad.</t>
+          <t>Estos indicadores incluyen, por ejemplo, la capacidad de registrar a personas con esquizofrenia, trastorno bipolar y otras psicosis y una serie de pruebas de detección (IMC, consumo de alcohol, glucosa en sangre) para pacientes con esquizofrenia, trastorno bipolar y otras psicosis. También existe un indicador QOF para “El porcentaje de pacientes en el registro que tienen un plan de atención integral documentado en los registros acordados entre las personas, sus familiares y/o cuidadores según corresponda” (BMA (2014). Para una lista completa de indicadores QoF 2013/14 ver BMA, 2014).</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>servici salud mental part integral atencion medic salud ver seccion 31 disposicion general conten ejecucion atencion psiquiatr encuentr ley servici medic salud 1982763 ley servici medic salud activ profesional cuestionari salud mental ocde dos mil trec ley subray principi clav sistem salud suec servici universal facil acces buen calid servicios salud mental parte integral atencion medica salud ver seccion 31 disposiciones generales contenido ejecucion atencion psiquiatrica encontrar ley servicios medicos salud 1982763 ley servicios medicos salud actividades profesionales cuestionario salud mental ocde dos mil trece ley subrayar principios clave sistema salud sueco servicios universales facil acceso buena calidad</t>
+          <t>indic inclu ejempl capac registr person esquizofreni trastorn bipol psicosis seri prueb deteccion imc consum alcohol glucos sangr pacient esquizofreni trastorn bipol psicosis tambi exist indic qof porcentaj pacient registr plan atencion integral document registr acord person familiar cuidador segun correspond bma dos mil catorc list complet indic qof 201314 ver bma dos mil catorc indicadores incluir ejemplo capacidad registrar personas esquizofrenia trastorno bipolar psicosis serie pruebas deteccion imc consumo alcohol glucosa sangre pacientes esquizofrenia trastorno bipolar psicosis tambien existir indicador qof porcentajar pacientes registro plan atencion integral documentado registros acordados personas familiares cuidadores segun corresponda bma dos mil catorce lista completa indicadores qof 201314 ver bma dos mil catorce</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Los aumentos en la cobertura del seguro de salud luego se estancaron, pero repuntaron después de 2008, llegando al 94,7% de la población en 2014 (ver Figura 1.7 en el Capítulo 1), logrando así prácticamente la cobertura universal de salud (UHC). En conjunto, estas expansiones permitieron que la población sin seguro se redujera del 12,4 % de la población en 2008 al 5,3 % en 2014 (Cuadro 2.1). Por otra parte, la cobertura del SEM con respecto a la población económicamente activa asalariada rondaba el 72%, mientras que entre la población económicamente activa no asalariada era del 80%. El cuadro 2.2 muestra la cobertura de aseguramiento de la población por quintil de ingreso, características sociodemográficas, por sexo y ocupación detallada.</t>
+          <t>Los servicios de salud mental son una parte integral de la atención médica y de salud (ver sección 3.1). Las disposiciones generales sobre el contenido y la ejecución de la atención psiquiátrica se encuentran en la Ley de Servicios Médicos y de Salud (1982:763) y en la Ley de Servicios Médicos y de Salud (Actividades Profesionales) (Cuestionario de salud mental de la OCDE, 2013). Esta Ley subraya los principios clave del sistema de salud sueco: servicios universales, de fácil acceso y de buena calidad.</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>aument cobertur segur salud lueg estanc repunt despu dos mil ocho lleg 947 poblacion dos mil catorc ver figur 17 capitul logr asi practic cobertur universal salud uhc conjunt expansion permit poblacion segur redujer 124 poblacion dos mil ocho 53 dos mil catorc cuadr 21 part cobertur sem respect poblacion econom activ asalari rond setent y dos mientr poblacion econom activ asalari ochent cuadr 22 muestr cobertur asegur poblacion quintil ingres caracterist sociodemograf sex ocup detall aumentos cobertura seguro salud luego estancar repuntar despues dos mil ocho llegar 947 poblacion dos mil catorce ver figura 17 capitulo lograr asi practicamente cobertura universal salud uhc conjunto expansiones permitir poblacion seguro reducir 124 poblacion dos mil ocho 53 dos mil catorce cuadro 21 parte cobertura sem respecto poblacion economicamente activa asalariada rondar setenta y dos mientras poblacion economicamente activa asalariada ochenta cuadro 22 mostrar cobertura aseguramiento poblacion quintil ingreso caracteristicas sociodemograficas sexo ocupacion detallada</t>
+          <t>servici salud mental part integral atencion medic salud ver seccion 31 disposicion general conten ejecucion atencion psiquiatr encuentr ley servici medic salud 1982763 ley servici medic salud activ profesional cuestionari salud mental ocde dos mil trec ley subray principi clav sistem salud suec servici universal facil acces buen calid servicios salud mental parte integral atencion medica salud ver seccion 31 disposiciones generales contenido ejecucion atencion psiquiatrica encontrar ley servicios medicos salud 1982763 ley servicios medicos salud actividades profesionales cuestionario salud mental ocde dos mil trece ley subrayar principios clave sistema salud sueco servicios universales facil acceso buena calidad</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>1052</v>
+        <v>814</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Las tres competencias son importantes para comprender y abordar de forma crítica las cuestiones relacionadas con la ciencia y la tecnología, que se están convirtiendo rápidamente en omnipresentes. También demuestran que el compromiso con la ciencia y las actitudes positivas hacia la ciencia están estrechamente relacionados, en formas que también dependen del dominio de la ciencia por parte de los alumnos. En concreto, la relación positiva entre el rendimiento en ciencias y las expectativas de futuras carreras científicas es mayor entre los alumnos que más disfrutan aprendiendo ciencias.</t>
+          <t>Los aumentos en la cobertura del seguro de salud luego se estancaron, pero repuntaron después de 2008, llegando al 94,7% de la población en 2014 (ver Figura 1.7 en el Capítulo 1), logrando así prácticamente la cobertura universal de salud (UHC). En conjunto, estas expansiones permitieron que la población sin seguro se redujera del 12,4 % de la población en 2008 al 5,3 % en 2014 (Cuadro 2.1). Por otra parte, la cobertura del SEM con respecto a la población económicamente activa asalariada rondaba el 72%, mientras que entre la población económicamente activa no asalariada era del 80%. El cuadro 2.2 muestra la cobertura de aseguramiento de la población por quintil de ingreso, características sociodemográficas, por sexo y ocupación detallada.</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>tres competent import comprend abord form critic cuestion relacion cienci tecnologi estan convirt rapid omnipresent tambi demuestr compromis cienci actitud posit haci cienci estan estrech relacion form tambi depend domini cienci part alumn concret relacion posit rendimient cienci expect futur carrer cientif mayor alumn mas disfrut aprend cienci tres competencias importantes comprender abordar forma criticar cuestiones relacionadas ciencia tecnologia estar convertir rapidamente omnipresentes tambien demostrar compromiso ciencia actitudes positivas hacia ciencia estar estrechamente relacionados formas tambien depender dominio ciencia partir alumnos concreto relacion positiva rendimiento ciencias expectativas futuras carreras cientificas mayor alumnos mas disfrutar aprender ciencias</t>
+          <t>aument cobertur segur salud lueg estanc repunt despu dos mil ocho lleg 947 poblacion dos mil catorc ver figur 17 capitul logr asi practic cobertur universal salud uhc conjunt expansion permit poblacion segur redujer 124 poblacion dos mil ocho 53 dos mil catorc cuadr 21 part cobertur sem respect poblacion econom activ asalari rond setent y dos mientr poblacion econom activ asalari ochent cuadr 22 muestr cobertur asegur poblacion quintil ingres caracterist sociodemograf sex ocup detall aumentos cobertura seguro salud luego estancar repuntar despues dos mil ocho llegar 947 poblacion dos mil catorce ver figura 17 capitulo lograr asi practicamente cobertura universal salud uhc conjunto expansiones permitir poblacion seguro reducir 124 poblacion dos mil ocho 53 dos mil catorce cuadro 21 parte cobertura sem respecto poblacion economicamente activa asalariada rondar setenta y dos mientras poblacion economicamente activa asalariada ochenta cuadro 22 mostrar cobertura aseguramiento poblacion quintil ingreso caracteristicas sociodemograficas sexo ocupacion detallada</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>788</v>
+        <v>1052</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Tal enfoque representa una buena práctica en la formulación del presupuesto. Al mismo tiempo, sin embargo, existe la percepción desde el lado de la salud de que las decisiones reales de asignación todavía están determinadas en gran medida por factores menos tangibles, como las relaciones interpersonales y las evaluaciones subjetivas en lugar de objetivas de estos planes de negocios. Si tienen un caso sólido, esto puede conducir a aumentos en las subvenciones condicionales para la salud.</t>
+          <t>Las tres competencias son importantes para comprender y abordar de forma crítica las cuestiones relacionadas con la ciencia y la tecnología, que se están convirtiendo rápidamente en omnipresentes. También demuestran que el compromiso con la ciencia y las actitudes positivas hacia la ciencia están estrechamente relacionados, en formas que también dependen del dominio de la ciencia por parte de los alumnos. En concreto, la relación positiva entre el rendimiento en ciencias y las expectativas de futuras carreras científicas es mayor entre los alumnos que más disfrutan aprendiendo ciencias.</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>tal enfoqu represent buen practic formul presupuest mism tiemp embarg exist percepcion lad salud decision real asign todavi estan determin gran med factor men tangibl relacion interpersonal evalu subjet lug objet plan negoci si cas sol pued conduc aument subvencion condicional salud tal enfoque representar buena practica formulacion presupuesto mismo tiempo embargo existir percepcion lado salud decisiones reales asignacion todavia estar determinadas gran medida factores menos tangibles relaciones interpersonales evaluaciones subjetivas lugar objetivas planes negocios si caso solido puede conducir aumentos subvenciones condicionales salud</t>
+          <t>tres competent import comprend abord form critic cuestion relacion cienci tecnologi estan convirt rapid omnipresent tambi demuestr compromis cienci actitud posit haci cienci estan estrech relacion form tambi depend domini cienci part alumn concret relacion posit rendimient cienci expect futur carrer cientif mayor alumn mas disfrut aprend cienci tres competencias importantes comprender abordar forma criticar cuestiones relacionadas ciencia tecnologia estar convertir rapidamente omnipresentes tambien demostrar compromiso ciencia actitudes positivas hacia ciencia estar estrechamente relacionados formas tambien depender dominio ciencia partir alumnos concreto relacion positiva rendimiento ciencias expectativas futuras carreras cientificas mayor alumnos mas disfrutar aprender ciencias</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>2622</v>
+        <v>788</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>El desalojo sólo puede tener lugar en determinadas circunstancias muy excepcionales y con arreglo a criterios estrictos impuestos por el derecho internacional. Los Estados deben tomar ciertas medidas para cumplir con los estándares internacionales, como adoptar e implementar medidas especiales para proteger a las mujeres de los desalojos, por ejemplo, otorgando títulos de propiedad de la tierra y la vivienda a las mujeres. Los Estados deben evaluar el impacto diferenciado de los desalojos sobre las mujeres para que el impacto específico sobre ellas se aborde de manera adecuada.</t>
+          <t>Tal enfoque representa una buena práctica en la formulación del presupuesto. Al mismo tiempo, sin embargo, existe la percepción desde el lado de la salud de que las decisiones reales de asignación todavía están determinadas en gran medida por factores menos tangibles, como las relaciones interpersonales y las evaluaciones subjetivas en lugar de objetivas de estos planes de negocios. Si tienen un caso sólido, esto puede conducir a aumentos en las subvenciones condicionales para la salud.</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>desaloj sol pued ten lug determin circunst excepcional arregl criteri estrict impuest derech internacional deb tom ciert med cumpl estandar internacional adopt implement med especial proteg mujer desaloj ejempl otorg titul propied tierr viviend mujer deb evalu impact diferenci desaloj mujer impact especif abord maner adecu desalojo solo puede tener lugar determinadas circunstancias excepcionales arreglar criterios estrictos impuestos derecho internacional deben tomar ciertas medidas cumplir estandares internacionales adoptar implementar medidas especiales proteger mujeres desalojos ejemplo otorgar titulos propiedad tierra vivienda mujeres deben evaluar impacto diferenciado desalojos mujeres impacto especifico abordar manera adecuada</t>
+          <t>tal enfoqu represent buen practic formul presupuest mism tiemp embarg exist percepcion lad salud decision real asign todavi estan determin gran med factor men tangibl relacion interpersonal evalu subjet lug objet plan negoci si cas sol pued conduc aument subvencion condicional salud tal enfoque representar buena practica formulacion presupuesto mismo tiempo embargo existir percepcion lado salud decisiones reales asignacion todavia estar determinadas gran medida factores menos tangibles relaciones interpersonales evaluaciones subjetivas lugar objetivas planes negocios si caso solido puede conducir aumentos subvenciones condicionales salud</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>713</v>
+        <v>2622</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>A través de un cuestionario, AGENAS monitorea el cumplimiento de las recomendaciones y busca comprender las barreras que encuentran las R&amp;AP en la implementación. La atención de alta calidad es una atención que es segura, eficaz y centrada en el paciente, y nunca debe darse por sentada. Los sistemas de atención médica enfrentan enormes desafíos: necesidades y procesos de atención complejos, mayores demandas de atención médica (especialmente para afecciones crónicas) y, lo que es más importante, un panorama económico en el que los sistemas de atención médica tendrán que lograr más por menos.</t>
+          <t>El desalojo sólo puede tener lugar en determinadas circunstancias muy excepcionales y con arreglo a criterios estrictos impuestos por el derecho internacional. Los Estados deben tomar ciertas medidas para cumplir con los estándares internacionales, como adoptar e implementar medidas especiales para proteger a las mujeres de los desalojos, por ejemplo, otorgando títulos de propiedad de la tierra y la vivienda a las mujeres. Los Estados deben evaluar el impacto diferenciado de los desalojos sobre las mujeres para que el impacto específico sobre ellas se aborde de manera adecuada.</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>trav cuestionari agen monitore cumplimient recomend busc comprend barrer encuentr r ap implement atencion alta calid atencion segur eficaz centr pacient nunc deb dars sent sistem atencion medic enfrent enorm desafi neces proces atencion complej mayor demand atencion medic especial afeccion cronic mas import panoram econom sistem atencion medic tendr logr mas men traves cuestionario agenas monitorea cumplimiento recomendaciones buscar comprender barreras encontrar r ap implementacion atencion alta calidad atencion segura eficaz centrada paciente nunca debe dar él sentada sistemas atencion medica enfrentar enormes desafios necesidades procesos atencion complejos mayores demandas atencion medica especialmente afecciones cronicas mas importante panorama economico sistemas atencion medica tendran lograr mas menos</t>
+          <t>desaloj sol pued ten lug determin circunst excepcional arregl criteri estrict impuest derech internacional deb tom ciert med cumpl estandar internacional adopt implement med especial proteg mujer desaloj ejempl otorg titul propied tierr viviend mujer deb evalu impact diferenci desaloj mujer impact especif abord maner adecu desalojo solo puede tener lugar determinadas circunstancias excepcionales arreglar criterios estrictos impuestos derecho internacional deben tomar ciertas medidas cumplir estandares internacionales adoptar implementar medidas especiales proteger mujeres desalojos ejemplo otorgar titulos propiedad tierra vivienda mujeres deben evaluar impacto diferenciado desalojos mujeres impacto especifico abordar manera adecuada</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>838</v>
+        <v>713</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Estas cifras plantean preguntas importantes sobre por qué el éxito ha variado tanto entre países y en qué medida los sistemas y políticas de atención de la salud ayudan a explicar esta variación. Numerosos estudios han demostrado que los niveles crecientes de obesidad y diabetes están reduciendo nuestra capacidad para avanzar más en la reducción de la carga de ECV. Algunos estudios muestran que el patrón de disminución de la mortalidad está llegando a su fin o incluso revirtiéndose entre algunos grupos de población, en particular los grupos de edad más jóvenes (Wilson y Siskind.,</t>
+          <t>A través de un cuestionario, AGENAS monitorea el cumplimiento de las recomendaciones y busca comprender las barreras que encuentran las R&amp;AP en la implementación. La atención de alta calidad es una atención que es segura, eficaz y centrada en el paciente, y nunca debe darse por sentada. Los sistemas de atención médica enfrentan enormes desafíos: necesidades y procesos de atención complejos, mayores demandas de atención médica (especialmente para afecciones crónicas) y, lo que es más importante, un panorama económico en el que los sistemas de atención médica tendrán que lograr más por menos.</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>cifr plant pregunt import exit vari pais med sistem polit atencion salud ayud explic variacion numer estudi demostr nivel crecient obes diabet estan reduc capac avanz mas reduccion carg ecv estudi muestr patron disminucion mortal lleg fin inclus revirt grup poblacion particul grup edad mas joven wilson siskind cifras plantear preguntas importantes exito variado paises medida sistemas politicas atencion salud ayudar explicar variacion numerosos estudios demostrado niveles crecientes obesidad diabetes estar reducir capacidad avanzar mas reduccion carga ecv estudios mostrar patron disminucion mortalidad llegar fin incluso revertir él grupos poblacion particular grupos edad mas jovenes wilson siskind</t>
+          <t>trav cuestionari agen monitore cumplimient recomend busc comprend barrer encuentr r ap implement atencion alta calid atencion segur eficaz centr pacient nunc deb dars sent sistem atencion medic enfrent enorm desafi neces proces atencion complej mayor demand atencion medic especial afeccion cronic mas import panoram econom sistem atencion medic tendr logr mas men traves cuestionario agenas monitorea cumplimiento recomendaciones buscar comprender barreras encontrar r ap implementacion atencion alta calidad atencion segura eficaz centrada paciente nunca debe dar él sentada sistemas atencion medica enfrentar enormes desafios necesidades procesos atencion complejos mayores demandas atencion medica especialmente afecciones cronicas mas importante panorama economico sistemas atencion medica tendran lograr mas menos</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>2710</v>
+        <v>838</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Aunque las cuotas compensan las barreras reales que impiden que las mujeres ocupen la parte que les corresponde de los escaños políticos, se ha argumentado que contradicen los principios de igualdad de oportunidades, ya que se da preferencia a las mujeres sobre los hombres.17 También se ha observado que las cuotas son difíciles de aplicar en los sistemas de ganador único, en los que cada partido designa a un único candidato por distrito. Además, la reelección de los parlamentarios limita el índice de rotación de los miembros en cada elección, lo que dificulta el cumplimiento de las cuotas de género. Un vistazo al número de Jefas de Estado o de Gobierno revela que estos cargos siguen siendo esquivos para las mujeres. Cabe destacar la elección de Jefas de Estado o de Gobierno en Islandia en 2009, en Haití y la República de Moldova en 2008, en Argentina, India y Ucrania en 2007, en Chile en 2006 y en Alemania y Liberia en 2005.</t>
+          <t>Estas cifras plantean preguntas importantes sobre por qué el éxito ha variado tanto entre países y en qué medida los sistemas y políticas de atención de la salud ayudan a explicar esta variación. Numerosos estudios han demostrado que los niveles crecientes de obesidad y diabetes están reduciendo nuestra capacidad para avanzar más en la reducción de la carga de ECV. Algunos estudios muestran que el patrón de disminución de la mortalidad está llegando a su fin o incluso revirtiéndose entre algunos grupos de población, en particular los grupos de edad más jóvenes (Wilson y Siskind.,</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>aunqu cuot compens barrer real impid mujer ocup part correspond escan polit argument contradic principi iguald oportun da preferent mujer hombres17 tambi observ cuot dificil aplic sistem ganador unic cad part design unic candidat distrit adem reeleccion parlamentari limit indic rotacion miembr cad eleccion dificult cumplimient cuot gener vistaz numer jef gobiern revel carg sig siend esquiv mujer cab destac eleccion jef gobiern islandi dos mil nuev haiti republ moldov dos mil ocho argentin indi ucrani dos mil siet chil dos mil seis alemani liberi dos mil cinc aunque cuotas compensar barreras reales impedir mujeres ocupar parte corresponder escanos politicos argumentado contradecir principios igualdad oportunidades dar preferencia mujeres hombres17 tambien observado cuotas dificiles aplicar sistemas ganador unico cada partido designar unico candidato distrito ademas reeleccion parlamentarios limita indice rotacion miembros cada eleccion dificulta cumplimiento cuotas genero vistazo numero jefas gobierno revelar cargos seguir siendo esquivos mujeres caber destacar eleccion jefas gobierno islandiar dos mil nueve haiti republica moldova dos mil ocho argentina india ucrania dos mil siete chile dos mil seis alemania liberia dos mil cinco</t>
+          <t>cifr plant pregunt import exit vari pais med sistem polit atencion salud ayud explic variacion numer estudi demostr nivel crecient obes diabet estan reduc capac avanz mas reduccion carg ecv estudi muestr patron disminucion mortal lleg fin inclus revirt grup poblacion particul grup edad mas joven wilson siskind cifras plantear preguntas importantes exito variado paises medida sistemas politicas atencion salud ayudar explicar variacion numerosos estudios demostrado niveles crecientes obesidad diabetes estar reducir capacidad avanzar mas reduccion carga ecv estudios mostrar patron disminucion mortalidad llegar fin incluso revertir él grupos poblacion particular grupos edad mas jovenes wilson siskind</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>2940</v>
+        <v>2710</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Las condicionalidades "duras" han tenido efectos positivos en la matriculación escolar de los niños en algunos contextos,51 pero en otros los resultados de las transferencias condicionadas para los niños no suelen ser mejores que las no condicionadas52 o están asociadas a la existencia y calidad de los servicios públicos.55 Además, el tiempo y los esfuerzos de las mujeres para cumplir las condicionalidades no aportan beneficios sociales adicionales.54 La pérdida en el bienestar de las mujeres impuesta por las condicionalidades puede ser mayor que el beneficio en efectivo, como demuestra el caso de Guatemala.55 Esto apoya la eliminación de las condicionalidades. Cuando existen datos desglosados por sexo, las estadÃsticas muestran que la cobertura para las mujeres es inferior. Este es especialmente el caso en los países con sistemas de pensiones contributivos, ya que los bajos e intermitentes patrones de empleo formal de las mujeres hacen que tengan menos capacidad que los hombres para cotizar en nómina.58 En los sistemas de pensiones contributivos, una forma de reconocer el trabajo doméstico y de cuidados no remunerado es a través de créditos.</t>
+          <t>Aunque las cuotas compensan las barreras reales que impiden que las mujeres ocupen la parte que les corresponde de los escaños políticos, se ha argumentado que contradicen los principios de igualdad de oportunidades, ya que se da preferencia a las mujeres sobre los hombres.17 También se ha observado que las cuotas son difíciles de aplicar en los sistemas de ganador único, en los que cada partido designa a un único candidato por distrito. Además, la reelección de los parlamentarios limita el índice de rotación de los miembros en cada elección, lo que dificulta el cumplimiento de las cuotas de género. Un vistazo al número de Jefas de Estado o de Gobierno revela que estos cargos siguen siendo esquivos para las mujeres. Cabe destacar la elección de Jefas de Estado o de Gobierno en Islandia en 2009, en Haití y la República de Moldova en 2008, en Argentina, India y Ucrania en 2007, en Chile en 2006 y en Alemania y Liberia en 2005.</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>condicional dur efect posit matricul escol nin contextos51 result transferent condicion nin suel ser mejor condicionadas52 estan asoci existent calid servici publicos55 adem tiemp esfuerz mujer cumpl condicional aport benefici social adicionales54 perd bienest mujer impuest condicional pued ser mayor benefici efect demuestr cas guatemala55 apoy elimin condicional exist dat desgl sex estadast muestr cobertur mujer inferior especial cas pais sistem pension contribut baj intermitent patron emple formal mujer hac men capac hombr cotiz nomina58 sistem pension contribut form reconoc trabaj domest cuid remuner trav credit condicionalidades duras efectos positivos matriculacion escolar ninos contextos51 resultados transferencias condicionadas ninos soler ser mejores condicionadas52 estar asociadas existencia calidad servicios publicos55 ademas tiempo esfuerzos mujeres cumplir condicionalidades aportar beneficios sociales adicionales54 perdida bienestar mujeres impuesta condicionalidades puede ser mayor beneficio efectivo demostrar caso guatemala55 apoya eliminacion condicionalidades existir datos desglosados sexo estadasticas mostrar cobertura mujeres inferior especialmente caso paises sistemas pensiones contributivos bajos intermitentes patrones empleo formal mujeres hacer menos capacidad hombres cotizar nomina58 sistemas pensiones contributivos formar reconocer trabajo domestico cuidados remunerado traves creditos</t>
+          <t>aunqu cuot compens barrer real impid mujer ocup part correspond escan polit argument contradic principi iguald oportun da preferent mujer hombres17 tambi observ cuot dificil aplic sistem ganador unic cad part design unic candidat distrit adem reeleccion parlamentari limit indic rotacion miembr cad eleccion dificult cumplimient cuot gener vistaz numer jef gobiern revel carg sig siend esquiv mujer cab destac eleccion jef gobiern islandi dos mil nuev haiti republ moldov dos mil ocho argentin indi ucrani dos mil siet chil dos mil seis alemani liberi dos mil cinc aunque cuotas compensar barreras reales impedir mujeres ocupar parte corresponder escanos politicos argumentado contradecir principios igualdad oportunidades dar preferencia mujeres hombres17 tambien observado cuotas dificiles aplicar sistemas ganador unico cada partido designar unico candidato distrito ademas reeleccion parlamentarios limita indice rotacion miembros cada eleccion dificulta cumplimiento cuotas genero vistazo numero jefas gobierno revelar cargos seguir siendo esquivos mujeres caber destacar eleccion jefas gobierno islandiar dos mil nueve haiti republica moldova dos mil ocho argentina india ucrania dos mil siete chile dos mil seis alemania liberia dos mil cinco</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>2348</v>
+        <v>2940</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Hay 45 ONG que se centran en los derechos de la mujer en Uganda. No trabajan de forma aislada, sino en colaboración con el Ministerio de Género, Trabajo y Desarrollo Social. Esta organización se formó para representar una voz unida de mujeres, así como para crear una plataforma en la que las mujeres presentaran colectivamente cuestiones de su vida política y económica y otros tipos de discriminación en diversas esferas de la sociedad.' Existe la necesidad de un apoyo continuo y una relación dinámica del día a día entre las WRO y las mujeres políticas.</t>
+          <t>Las condicionalidades "duras" han tenido efectos positivos en la matriculación escolar de los niños en algunos contextos,51 pero en otros los resultados de las transferencias condicionadas para los niños no suelen ser mejores que las no condicionadas52 o están asociadas a la existencia y calidad de los servicios públicos.55 Además, el tiempo y los esfuerzos de las mujeres para cumplir las condicionalidades no aportan beneficios sociales adicionales.54 La pérdida en el bienestar de las mujeres impuesta por las condicionalidades puede ser mayor que el beneficio en efectivo, como demuestra el caso de Guatemala.55 Esto apoya la eliminación de las condicionalidades. Cuando existen datos desglosados por sexo, las estadÃsticas muestran que la cobertura para las mujeres es inferior. Este es especialmente el caso en los países con sistemas de pensiones contributivos, ya que los bajos e intermitentes patrones de empleo formal de las mujeres hacen que tengan menos capacidad que los hombres para cotizar en nómina.58 En los sistemas de pensiones contributivos, una forma de reconocer el trabajo doméstico y de cuidados no remunerado es a través de créditos.</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>cuarent y cinc ong centr derech muj ugand trabaj form aisl sin colabor ministeri gener trabaj desarroll social organiz form represent voz unid mujer asi cre plataform mujer present colect cuestion vid polit econom tip discrimin divers esfer socied exist neces apoy continu relacion dinam dia dia wro mujer polit cuarenta y cinco ong centrar derechos mujer uganda trabajar forma aislada sino colaboracion ministerio genero trabajar desarrollo social organizacion formo representar voz unida mujeres asi crear plataforma mujeres presentar colectivamente cuestiones vida politica economica tipos discriminacion diversas esferas sociedad existir necesidad apoyo continuo relacion dinamicar diar dia wro mujeres politicas</t>
+          <t>condicional dur efect posit matricul escol nin contextos51 result transferent condicion nin suel ser mejor condicionadas52 estan asoci existent calid servici publicos55 adem tiemp esfuerz mujer cumpl condicional aport benefici social adicionales54 perd bienest mujer impuest condicional pued ser mayor benefici efect demuestr cas guatemala55 apoy elimin condicional exist dat desgl sex estadast muestr cobertur mujer inferior especial cas pais sistem pension contribut baj intermitent patron emple formal mujer hac men capac hombr cotiz nomina58 sistem pension contribut form reconoc trabaj domest cuid remuner trav credit condicionalidades duras efectos positivos matriculacion escolar ninos contextos51 resultados transferencias condicionadas ninos soler ser mejores condicionadas52 estar asociadas existencia calidad servicios publicos55 ademas tiempo esfuerzos mujeres cumplir condicionalidades aportar beneficios sociales adicionales54 perdida bienestar mujeres impuesta condicionalidades puede ser mayor beneficio efectivo demostrar caso guatemala55 apoya eliminacion condicionalidades existir datos desglosados sexo estadasticas mostrar cobertura mujeres inferior especialmente caso paises sistemas pensiones contributivos bajos intermitentes patrones empleo formal mujeres hacer menos capacidad hombres cotizar nomina58 sistemas pensiones contributivos formar reconocer trabajo domestico cuidados remunerado traves creditos</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>2323</v>
+        <v>2348</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Asia Report 138, Kabul/Bruselas, 2007. Por ejemplo, muchos países mantienen leyes discriminatorias con respecto a la propiedad de la tierra, la violencia de género, el matrimonio, la custodia de los hijos, la herencia, el empleo y la orientación sexual. Es esencial apoyar los esfuerzos de cabildeo de las organizaciones de la sociedad civil y los grupos parlamentarios de género/mujeres para reformar las leyes y reglamentos discriminatorios.</t>
+          <t>Hay 45 ONG que se centran en los derechos de la mujer en Uganda. No trabajan de forma aislada, sino en colaboración con el Ministerio de Género, Trabajo y Desarrollo Social. Esta organización se formó para representar una voz unida de mujeres, así como para crear una plataforma en la que las mujeres presentaran colectivamente cuestiones de su vida política y económica y otros tipos de discriminación en diversas esferas de la sociedad.' Existe la necesidad de un apoyo continuo y una relación dinámica del día a día entre las WRO y las mujeres políticas.</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>asi report cient treint y ocho kabulbrusel dos mil siet ejempl pais mantien ley discriminatori respect propied tierr violenci gener matrimoni custodi hij herenci emple orient sexual esencial apoy esfuerz cabilde organiz socied civil grup parlamentari generomujer reform ley reglament discriminatori asia report ciento treinta y ocho kabulbruselas dos mil siete ejemplo paises mantener leyes discriminatorias respecto propiedad tierra violencia genero matrimonio custodiar hijos herencia empleo orientacion sexual esencial apoyar esfuerzos cabildeo organizaciones sociedad civil grupos parlamentarios generomujeres reformar leyes reglamentos discriminatorios</t>
+          <t>cuarent y cinc ong centr derech muj ugand trabaj form aisl sin colabor ministeri gener trabaj desarroll social organiz form represent voz unid mujer asi cre plataform mujer present colect cuestion vid polit econom tip discrimin divers esfer socied exist neces apoy continu relacion dinam dia dia wro mujer polit cuarenta y cinco ong centrar derechos mujer uganda trabajar forma aislada sino colaboracion ministerio genero trabajar desarrollo social organizacion formo representar voz unida mujeres asi crear plataforma mujeres presentar colectivamente cuestiones vida politica economica tipos discriminacion diversas esferas sociedad existir necesidad apoyo continuo relacion dinamicar diar dia wro mujeres politicas</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>2115</v>
+        <v>2323</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Los gobiernos también confirmaron su determinación de promover la igualdad de género y el empoderamiento de la mujer como formas eficaces de combatir la pobreza, el hambre y las enfermedades y promover el desarrollo sostenible (resolución 55/2 de la Asamblea General). La Conferencia de las Partes de la Convención Marco de las Naciones Unidas sobre el Cambio Climático, en su decimoctava sesión, en 2012, adoptó una decisión para promover el objetivo del equilibrio de género en los órganos y delegaciones a las sesiones de la Conferencia de las Partes y para incluir el género y el cambio climático como un tema permanente en la agenda de la Conferencia (ver FCCC/CP/2012/8/ADD.3, decisión 23/CP.18). La resolución también exhortó a los gobiernos a apoyar a las pequeñas agricultoras facilitando su acceso a servicios financieros y de extensión, insumos agrícolas y tierras, agua, saneamiento e irrigación, mercados y tecnologías innovadoras. En la resolución 68/227 sobre la mujer en el desarrollo, adoptada en el mismo período de sesiones, la Asamblea alentó a los gobiernos a tomar medidas para garantizar la igualdad de acceso al empleo pleno y productivo y al trabajo decente. En su 58° período de sesiones, la Comisión instó a los gobiernos a promover la participación plena e igualitaria de mujeres y hombres como agentes y beneficiarios del desarrollo sostenible centrado en las personas (véase E/2014/27).</t>
+          <t>Asia Report 138, Kabul/Bruselas, 2007. Por ejemplo, muchos países mantienen leyes discriminatorias con respecto a la propiedad de la tierra, la violencia de género, el matrimonio, la custodia de los hijos, la herencia, el empleo y la orientación sexual. Es esencial apoyar los esfuerzos de cabildeo de las organizaciones de la sociedad civil y los grupos parlamentarios de género/mujeres para reformar las leyes y reglamentos discriminatorios.</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>gobi tambi confirm determin promov iguald gener empoder muj form eficac combat pobrez hambr enfermedad promov desarroll sosten resolucion 552 asamble general conferent part convencion marc nacion unid cambi climat decimoctav sesion dos mil doc adopt decision promov objet equilibri gener organ deleg sesion conferent part inclu gener cambi climat tem permanent agend conferent ver fccccp20128add3 decision 23cp18 resolucion tambi exhort gobi apoy pequen agricultor facilit acces servici financier extension insum agricol tierr agu saneamient irrig merc tecnologi innov resolucion 68227 muj desarroll adopt mism period sesion asamble alent gobi tom med garantiz iguald acces emple plen product trabaj decent 58 period sesion comision insto gobi promov particip plen igualitari mujer hombr agent beneficiari desarroll sosten centr person veas e201427 gobiernos tambien confirmar determinacion promover igualdad genero empoderamiento mujer formas eficaces combatir pobreza hambre enfermedades promover desarrollo sostenible resolucion 552 asamblea general conferencia partes convencion marco naciones unidas cambio climatico decimoctava sesion dos mil doce adopto decision promover objetivo equilibrio genero organos delegaciones sesiones conferenciar partes incluir genero cambio climatico tema permanente agenda conferencia ver fccccp20128add3 decision 23cp18 resolucion tambien exhorto gobiernos apoyar pequenas agricultoras facilitar acceso servicios financieros extension insumos agricolas tierras agua saneamiento irrigacion mercados tecnologias innovadoras resolucion 68227 mujer desarrollo adoptada mismo periodo sesiones asamblear alento gobiernos tomar medidas garantizar igualdad acceso empleo pleno productivo trabajo decente 58 periodo sesiones comision insto gobiernos promover participacion plena igualitaria mujeres hombres agentes beneficiarios desarrollo sostenible centrado personas vease e201427</t>
+          <t>asi report cient treint y ocho kabulbrusel dos mil siet ejempl pais mantien ley discriminatori respect propied tierr violenci gener matrimoni custodi hij herenci emple orient sexual esencial apoy esfuerz cabilde organiz socied civil grup parlamentari generomujer reform ley reglament discriminatori asia report ciento treinta y ocho kabulbruselas dos mil siete ejemplo paises mantener leyes discriminatorias respecto propiedad tierra violencia genero matrimonio custodiar hijos herencia empleo orientacion sexual esencial apoyar esfuerzos cabildeo organizaciones sociedad civil grupos parlamentarios generomujeres reformar leyes reglamentos discriminatorios</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>1378</v>
+        <v>2115</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Las tarifas de costo total que cobran las instituciones de educación superior privadas para programas similares oscilarían entre USD 9 434,0 y USD 26 415,1, según sus componentes internacional-local. Los analistas de la educación superior han expresado su preocupación con respecto al monto de los subsidios gubernamentales y la medida en que son sostenibles, dado que los costos de la educación superior seguirán aumentando en todo el mundo. R. M. (2010), Acceso y equidad en la educación superior, Malasia.</t>
+          <t>Los gobiernos también confirmaron su determinación de promover la igualdad de género y el empoderamiento de la mujer como formas eficaces de combatir la pobreza, el hambre y las enfermedades y promover el desarrollo sostenible (resolución 55/2 de la Asamblea General). La Conferencia de las Partes de la Convención Marco de las Naciones Unidas sobre el Cambio Climático, en su decimoctava sesión, en 2012, adoptó una decisión para promover el objetivo del equilibrio de género en los órganos y delegaciones a las sesiones de la Conferencia de las Partes y para incluir el género y el cambio climático como un tema permanente en la agenda de la Conferencia (ver FCCC/CP/2012/8/ADD.3, decisión 23/CP.18). La resolución también exhortó a los gobiernos a apoyar a las pequeñas agricultoras facilitando su acceso a servicios financieros y de extensión, insumos agrícolas y tierras, agua, saneamiento e irrigación, mercados y tecnologías innovadoras. En la resolución 68/227 sobre la mujer en el desarrollo, adoptada en el mismo período de sesiones, la Asamblea alentó a los gobiernos a tomar medidas para garantizar la igualdad de acceso al empleo pleno y productivo y al trabajo decente. En su 58° período de sesiones, la Comisión instó a los gobiernos a promover la participación plena e igualitaria de mujeres y hombres como agentes y beneficiarios del desarrollo sostenible centrado en las personas (véase E/2014/27).</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>tarif cost total cobr institu educ superior priv program similar oscilari usd nuev 4340 usd veintiseis 4151 segun component internacionallocal anal educ superior expres preocup respect mont subsidi gubernamental med sosten dad cost educ superior seguir aument mund r m dos mil diez acces equid educ superior malasi tarifas costo total cobrar instituciones educacion superior privadas programas similares oscilariar usd nueve 4340 usd veintiseis 4151 segun  componentes internacionallocal analistas educacion superior expresado preocupacion respecto monto subsidios gubernamentales medida sostenibles dado costos educacion superior seguirar aumentar mundo r m dos mil diez acceso equidad educacion superior malasia</t>
+          <t>gobi tambi confirm determin promov iguald gener empoder muj form eficac combat pobrez hambr enfermedad promov desarroll sosten resolucion 552 asamble general conferent part convencion marc nacion unid cambi climat decimoctav sesion dos mil doc adopt decision promov objet equilibri gener organ deleg sesion conferent part inclu gener cambi climat tem permanent agend conferent ver fccccp20128add3 decision 23cp18 resolucion tambi exhort gobi apoy pequen agricultor facilit acces servici financier extension insum agricol tierr agu saneamient irrig merc tecnologi innov resolucion 68227 muj desarroll adopt mism period sesion asamble alent gobi tom med garantiz iguald acces emple plen product trabaj decent 58 period sesion comision insto gobi promov particip plen igualitari mujer hombr agent beneficiari desarroll sosten centr person veas e201427 gobiernos tambien confirmar determinacion promover igualdad genero empoderamiento mujer formas eficaces combatir pobreza hambre enfermedades promover desarrollo sostenible resolucion 552 asamblea general conferencia partes convencion marco naciones unidas cambio climatico decimoctava sesion dos mil doce adopto decision promover objetivo equilibrio genero organos delegaciones sesiones conferenciar partes incluir genero cambio climatico tema permanente agenda conferencia ver fccccp20128add3 decision 23cp18 resolucion tambien exhorto gobiernos apoyar pequenas agricultoras facilitar acceso servicios financieros extension insumos agricolas tierras agua saneamiento irrigacion mercados tecnologias innovadoras resolucion 68227 mujer desarrollo adoptada mismo periodo sesiones asamblear alento gobiernos tomar medidas garantizar igualdad acceso empleo pleno productivo trabajo decente 58 periodo sesiones comision insto gobiernos promover participacion plena igualitaria mujeres hombres agentes beneficiarios desarrollo sostenible centrado personas vease e201427</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>1833</v>
+        <v>1378</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Los sistemas educativos también pueden considerar la posibilidad de ofrecer incentivos económicos a los centros con exceso de matrícula para que matriculen a alumnos inmigrantes (Field et al., Por ejemplo, la financiación de los centros puede ponderarse en función de las características sociodemográficas de la población estudiantil. La idea es que las buenas escuelas tratarán de matricular a alumnos inmigrantes procedentes de entornos socioeconómicos bajos porque saben que con el dinero adicional proporcionado podrán ofrecer apoyo adicional para que el niño muestre tendencias de mejora y alcance niveles de rendimiento (Hoxby, 2001).</t>
+          <t>Las tarifas de costo total que cobran las instituciones de educación superior privadas para programas similares oscilarían entre USD 9 434,0 y USD 26 415,1, según sus componentes internacional-local. Los analistas de la educación superior han expresado su preocupación con respecto al monto de los subsidios gubernamentales y la medida en que son sostenibles, dado que los costos de la educación superior seguirán aumentando en todo el mundo. R. M. (2010), Acceso y equidad en la educación superior, Malasia.</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>sistem educ tambi pued consider posibil ofrec incent econom centr exces matricul matricul alumn inmigr field et ejempl financi centr pued ponder funcion caracterist sociodemograf poblacion estudiantil ide buen escuel trat matricul alumn inmigr procedent entorn socioeconom baj sab diner adicional proporcion podr ofrec apoy adicional nin muestr tendenci mejor alcanc nivel rendimient hoxby dos mil uno sistemas educativos tambien pueden considerar posibilidad ofrecer incentivos economicos centros exceso matricula matricular alumnos inmigrantes field et ejemplo financiacion centros puede ponderar él funcion caracteristicas sociodemograficas poblacion estudiantil idea buenas escuelas tratar matricular alumnos inmigrantes procedentes entornos socioeconomicos bajos saber dinero adicional proporcionado podrar ofrecer apoyo adicional nino mostrar tendencias mejora alcance niveles rendimiento hoxby dos mil uno</t>
+          <t>tarif cost total cobr institu educ superior priv program similar oscilari usd nuev 4340 usd veintiseis 4151 segun component internacionallocal anal educ superior expres preocup respect mont subsidi gubernamental med sosten dad cost educ superior seguir aument mund r m dos mil diez acces equid educ superior malasi tarifas costo total cobrar instituciones educacion superior privadas programas similares oscilariar usd nueve 4340 usd veintiseis 4151 segun  componentes internacionallocal analistas educacion superior expresado preocupacion respecto monto subsidios gubernamentales medida sostenibles dado costos educacion superior seguirar aumentar mundo r m dos mil diez acceso equidad educacion superior malasia</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Los sistemas educativos también pueden considerar la posibilidad de ofrecer incentivos económicos a los centros con exceso de matrícula para que matriculen a alumnos inmigrantes (Field et al., Por ejemplo, la financiación de los centros puede ponderarse en función de las características sociodemográficas de la población estudiantil. La idea es que las buenas escuelas tratarán de matricular a alumnos inmigrantes procedentes de entornos socioeconómicos bajos porque saben que con el dinero adicional proporcionado podrán ofrecer apoyo adicional para que el niño muestre tendencias de mejora y alcance niveles de rendimiento (Hoxby, 2001).</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>sistem educ tambi pued consider posibil ofrec incent econom centr exces matricul matricul alumn inmigr field et ejempl financi centr pued ponder funcion caracterist sociodemograf poblacion estudiantil ide buen escuel trat matricul alumn inmigr procedent entorn socioeconom baj sab diner adicional proporcion podr ofrec apoy adicional nin muestr tendenci mejor alcanc nivel rendimient hoxby dos mil uno sistemas educativos tambien pueden considerar posibilidad ofrecer incentivos economicos centros exceso matricula matricular alumnos inmigrantes field et ejemplo financiacion centros puede ponderar él funcion caracteristicas sociodemograficas poblacion estudiantil idea buenas escuelas tratar matricular alumnos inmigrantes procedentes entornos socioeconomicos bajos saber dinero adicional proporcionado podrar ofrecer apoyo adicional nino mostrar tendencias mejora alcance niveles rendimiento hoxby dos mil uno</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
         <v>1330</v>
       </c>
-      <c r="B597" t="inlineStr">
+      <c r="B598" t="inlineStr">
         <is>
           <t>Los programas de almuerzo gratis o los libros de texto gratuitos para familias desfavorecidas son ejemplos de estas políticas. Una combinación de políticas dirigidas al bajo rendimiento y la desventaja socioeconómica puede ser más eficaz en estos casos, ya que las políticas universales pueden ser menos eficaces para mejorar tanto la equidad como el rendimiento simultáneamente. Como se señaló anteriormente, PISA constantemente encuentra que el alto rendimiento y una mayor equidad en las oportunidades y resultados educativos no son mutuamente excluyentes.</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr">
+      <c r="C598" t="inlineStr">
         <is>
           <t>program almuerz gratis libr text gratuit famili desfavorec ejempl polit combin polit dirig baj rendimient desventaj socioeconom pued ser mas eficaz cas polit universal pued ser men eficac mejor equid rendimient simultan senal anterior pis constant encuentr alto rendimient mayor equid oportun result educ mutu excluyent programas almuerzo gratis libros texto gratuitos familias desfavorecidas ejemplos politicas combinacion politicas dirigidas bajo rendimiento desventaja socioeconomica puede ser mas eficaz casos politicas universales pueden ser menos eficaces mejorar equidad rendimiento simultaneamente senalo anteriormente pisar constantemente encontrar alto rendimiento mayor equidad oportunidades resultados educativos mutuamente excluyentes</t>
         </is>
